--- a/name/vnindex/20230110/VNINDEX_HOSE_5p_20230110.xlsx
+++ b/name/vnindex/20230110/VNINDEX_HOSE_5p_20230110.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2407 +454,5757 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1673341800000</v>
+        <v>1673342040000</v>
       </c>
       <c r="B2">
-        <v>15100</v>
+        <v>2231800</v>
       </c>
       <c r="C2">
-        <v>42800</v>
+        <v>1178900</v>
       </c>
       <c r="D2">
-        <v>173800</v>
+        <v>787200</v>
       </c>
       <c r="E2">
-        <v>481920000</v>
+        <v>25974835000</v>
       </c>
       <c r="F2">
-        <v>794069000</v>
+        <v>20764888000</v>
       </c>
       <c r="G2">
-        <v>3399382000</v>
+        <v>11812193000</v>
       </c>
       <c r="H2">
-        <v>231700</v>
+        <v>4197900</v>
       </c>
       <c r="I2">
-        <v>4675371000</v>
+        <v>58551916000</v>
       </c>
       <c r="J2" t="str">
-        <v>2023-01-10T09:10:00.000Z</v>
+        <v>2023-01-10T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>4675371000</v>
+        <v>58551916000</v>
       </c>
       <c r="L2">
-        <v>231700</v>
+        <v>4197900</v>
       </c>
       <c r="M2">
-        <v>27700</v>
+        <v>-1052900</v>
       </c>
       <c r="N2">
-        <v>312149000</v>
+        <v>-5209947000</v>
       </c>
       <c r="O2">
-        <v>27700</v>
+        <v>-1052900</v>
       </c>
       <c r="P2">
-        <v>312149000</v>
+        <v>-5209947000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1673342100000</v>
+        <v>1673342160000</v>
       </c>
       <c r="B3">
-        <v>3725600</v>
+        <v>605400</v>
       </c>
       <c r="C3">
-        <v>4033200</v>
+        <v>1147500</v>
       </c>
       <c r="D3">
-        <v>634700</v>
+        <v>3800</v>
       </c>
       <c r="E3">
-        <v>49088106000</v>
+        <v>9065106000</v>
       </c>
       <c r="F3">
-        <v>68645148000</v>
+        <v>19732501000</v>
       </c>
       <c r="G3">
-        <v>9183948000</v>
+        <v>207370000</v>
       </c>
       <c r="H3">
-        <v>8393500</v>
+        <v>1756700</v>
       </c>
       <c r="I3">
-        <v>126917202000</v>
+        <v>29004977000</v>
       </c>
       <c r="J3" t="str">
-        <v>2023-01-10T09:15:00.000Z</v>
+        <v>2023-01-10T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>131592573000</v>
+        <v>87556893000</v>
       </c>
       <c r="L3">
-        <v>8625200</v>
+        <v>5954600</v>
       </c>
       <c r="M3">
-        <v>307600</v>
+        <v>542100</v>
       </c>
       <c r="N3">
-        <v>19557042000</v>
+        <v>10667395000</v>
       </c>
       <c r="O3">
-        <v>335300</v>
+        <v>-510800</v>
       </c>
       <c r="P3">
-        <v>19869191000</v>
+        <v>5457448000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1673342400000</v>
+        <v>1673342280000</v>
       </c>
       <c r="B4">
-        <v>2561200</v>
+        <v>903500</v>
       </c>
       <c r="C4">
-        <v>2278300</v>
+        <v>1749600</v>
       </c>
       <c r="D4">
-        <v>32700</v>
+        <v>17500</v>
       </c>
       <c r="E4">
-        <v>43265152000</v>
+        <v>14530085000</v>
       </c>
       <c r="F4">
-        <v>37297945000</v>
+        <v>28941828000</v>
       </c>
       <c r="G4">
-        <v>686032000</v>
+        <v>563767000</v>
       </c>
       <c r="H4">
-        <v>4872200</v>
+        <v>2670600</v>
       </c>
       <c r="I4">
-        <v>81249129000</v>
+        <v>44035680000</v>
       </c>
       <c r="J4" t="str">
-        <v>2023-01-10T09:20:00.000Z</v>
+        <v>2023-01-10T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>212841702000</v>
+        <v>131592573000</v>
       </c>
       <c r="L4">
-        <v>13497400</v>
+        <v>8625200</v>
       </c>
       <c r="M4">
-        <v>-282900</v>
+        <v>846100</v>
       </c>
       <c r="N4">
-        <v>-5967207000</v>
+        <v>14411743000</v>
       </c>
       <c r="O4">
-        <v>52400</v>
+        <v>335300</v>
       </c>
       <c r="P4">
-        <v>13901984000</v>
+        <v>19869191000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1673342700000</v>
+        <v>1673342400000</v>
       </c>
       <c r="B5">
-        <v>4052200</v>
+        <v>1007100</v>
       </c>
       <c r="C5">
-        <v>2107500</v>
+        <v>1035500</v>
       </c>
       <c r="D5">
-        <v>55900</v>
+        <v>12700</v>
       </c>
       <c r="E5">
-        <v>69610157000</v>
+        <v>16224519000</v>
       </c>
       <c r="F5">
-        <v>46089946000</v>
+        <v>16834026000</v>
       </c>
       <c r="G5">
-        <v>1166383000</v>
+        <v>288577000</v>
       </c>
       <c r="H5">
-        <v>6215600</v>
+        <v>2055300</v>
       </c>
       <c r="I5">
-        <v>116866486000</v>
+        <v>33347122000</v>
       </c>
       <c r="J5" t="str">
-        <v>2023-01-10T09:25:00.000Z</v>
+        <v>2023-01-10T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>329708188000</v>
+        <v>164939695000</v>
       </c>
       <c r="L5">
-        <v>19713000</v>
+        <v>10680500</v>
       </c>
       <c r="M5">
-        <v>-1944700</v>
+        <v>28400</v>
       </c>
       <c r="N5">
-        <v>-23520211000</v>
+        <v>609507000</v>
       </c>
       <c r="O5">
-        <v>-1892300</v>
+        <v>363700</v>
       </c>
       <c r="P5">
-        <v>-9618227000</v>
+        <v>20478698000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1673343000000</v>
+        <v>1673342520000</v>
       </c>
       <c r="B6">
-        <v>2958900</v>
+        <v>1090200</v>
       </c>
       <c r="C6">
-        <v>2447400</v>
+        <v>756800</v>
       </c>
       <c r="D6">
-        <v>38600</v>
+        <v>10800</v>
       </c>
       <c r="E6">
-        <v>50376578000</v>
+        <v>17754147000</v>
       </c>
       <c r="F6">
-        <v>47482077000</v>
+        <v>11550117000</v>
       </c>
       <c r="G6">
-        <v>587502000</v>
+        <v>178359000</v>
       </c>
       <c r="H6">
-        <v>5444900</v>
+        <v>1857800</v>
       </c>
       <c r="I6">
-        <v>98446157000</v>
+        <v>29482623000</v>
       </c>
       <c r="J6" t="str">
-        <v>2023-01-10T09:30:00.000Z</v>
+        <v>2023-01-10T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>428154345000</v>
+        <v>194422318000</v>
       </c>
       <c r="L6">
-        <v>25157900</v>
+        <v>12538300</v>
       </c>
       <c r="M6">
-        <v>-511500</v>
+        <v>-333400</v>
       </c>
       <c r="N6">
-        <v>-2894501000</v>
+        <v>-6204030000</v>
       </c>
       <c r="O6">
-        <v>-2403800</v>
+        <v>30300</v>
       </c>
       <c r="P6">
-        <v>-12512728000</v>
+        <v>14274668000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1673343300000</v>
+        <v>1673342640000</v>
       </c>
       <c r="B7">
-        <v>1907900</v>
+        <v>1194200</v>
       </c>
       <c r="C7">
-        <v>2872800</v>
+        <v>831100</v>
       </c>
       <c r="D7">
-        <v>48200</v>
+        <v>22600</v>
       </c>
       <c r="E7">
-        <v>35814360000</v>
+        <v>21542943000</v>
       </c>
       <c r="F7">
-        <v>56354921000</v>
+        <v>15657975000</v>
       </c>
       <c r="G7">
-        <v>840730000</v>
+        <v>535232000</v>
       </c>
       <c r="H7">
-        <v>4828900</v>
+        <v>2047900</v>
       </c>
       <c r="I7">
-        <v>93010011000</v>
+        <v>37736150000</v>
       </c>
       <c r="J7" t="str">
-        <v>2023-01-10T09:35:00.000Z</v>
+        <v>2023-01-10T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>521164356000</v>
+        <v>232158468000</v>
       </c>
       <c r="L7">
-        <v>29986800</v>
+        <v>14586200</v>
       </c>
       <c r="M7">
-        <v>964900</v>
+        <v>-363100</v>
       </c>
       <c r="N7">
-        <v>20540561000</v>
+        <v>-5884968000</v>
       </c>
       <c r="O7">
-        <v>-1438900</v>
+        <v>-332800</v>
       </c>
       <c r="P7">
-        <v>8027833000</v>
+        <v>8389700000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1673343600000</v>
+        <v>1673342760000</v>
       </c>
       <c r="B8">
-        <v>2168300</v>
+        <v>1455400</v>
       </c>
       <c r="C8">
-        <v>2386300</v>
+        <v>921500</v>
       </c>
       <c r="D8">
-        <v>28300</v>
+        <v>28500</v>
       </c>
       <c r="E8">
-        <v>42047268000</v>
+        <v>26597300000</v>
       </c>
       <c r="F8">
-        <v>42558981000</v>
+        <v>22273409000</v>
       </c>
       <c r="G8">
-        <v>449712000</v>
+        <v>519545000</v>
       </c>
       <c r="H8">
-        <v>4582900</v>
+        <v>2405400</v>
       </c>
       <c r="I8">
-        <v>85055961000</v>
+        <v>49390254000</v>
       </c>
       <c r="J8" t="str">
-        <v>2023-01-10T09:40:00.000Z</v>
+        <v>2023-01-10T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>606220317000</v>
+        <v>281548722000</v>
       </c>
       <c r="L8">
-        <v>34569700</v>
+        <v>16991600</v>
       </c>
       <c r="M8">
-        <v>218000</v>
+        <v>-533900</v>
       </c>
       <c r="N8">
-        <v>511713000</v>
+        <v>-4323891000</v>
       </c>
       <c r="O8">
-        <v>-1220900</v>
+        <v>-866700</v>
       </c>
       <c r="P8">
-        <v>8539546000</v>
+        <v>4065809000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1673343900000</v>
+        <v>1673342880000</v>
       </c>
       <c r="B9">
-        <v>3398300</v>
+        <v>1866500</v>
       </c>
       <c r="C9">
-        <v>1900400</v>
+        <v>840900</v>
       </c>
       <c r="D9">
-        <v>48400</v>
+        <v>14000</v>
       </c>
       <c r="E9">
-        <v>60785194000</v>
+        <v>30756400000</v>
       </c>
       <c r="F9">
-        <v>34791995000</v>
+        <v>17072364000</v>
       </c>
       <c r="G9">
-        <v>573292000</v>
+        <v>330702000</v>
       </c>
       <c r="H9">
-        <v>5347100</v>
+        <v>2721400</v>
       </c>
       <c r="I9">
-        <v>96150481000</v>
+        <v>48159466000</v>
       </c>
       <c r="J9" t="str">
-        <v>2023-01-10T09:45:00.000Z</v>
+        <v>2023-01-10T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>702370798000</v>
+        <v>329708188000</v>
       </c>
       <c r="L9">
-        <v>39916800</v>
+        <v>19713000</v>
       </c>
       <c r="M9">
-        <v>-1497900</v>
+        <v>-1025600</v>
       </c>
       <c r="N9">
-        <v>-25993199000</v>
+        <v>-13684036000</v>
       </c>
       <c r="O9">
-        <v>-2718800</v>
+        <v>-1892300</v>
       </c>
       <c r="P9">
-        <v>-17453653000</v>
+        <v>-9618227000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1673344200000</v>
+        <v>1673343000000</v>
       </c>
       <c r="B10">
-        <v>4041300</v>
+        <v>1510700</v>
       </c>
       <c r="C10">
-        <v>2045900</v>
+        <v>1200500</v>
       </c>
       <c r="D10">
-        <v>70800</v>
+        <v>29600</v>
       </c>
       <c r="E10">
-        <v>68001601000</v>
+        <v>26582841000</v>
       </c>
       <c r="F10">
-        <v>41043586000</v>
+        <v>24308168000</v>
       </c>
       <c r="G10">
-        <v>972684000</v>
+        <v>418068000</v>
       </c>
       <c r="H10">
-        <v>6158000</v>
+        <v>2740800</v>
       </c>
       <c r="I10">
-        <v>110017871000</v>
+        <v>51309077000</v>
       </c>
       <c r="J10" t="str">
-        <v>2023-01-10T09:50:00.000Z</v>
+        <v>2023-01-10T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>812388669000</v>
+        <v>381017265000</v>
       </c>
       <c r="L10">
-        <v>46074800</v>
+        <v>22453800</v>
       </c>
       <c r="M10">
-        <v>-1995400</v>
+        <v>-310200</v>
       </c>
       <c r="N10">
-        <v>-26958015000</v>
+        <v>-2274673000</v>
       </c>
       <c r="O10">
-        <v>-4714200</v>
+        <v>-2202500</v>
       </c>
       <c r="P10">
-        <v>-44411668000</v>
+        <v>-11892900000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1673344500000</v>
+        <v>1673343120000</v>
       </c>
       <c r="B11">
-        <v>5833600</v>
+        <v>995300</v>
       </c>
       <c r="C11">
-        <v>1670400</v>
+        <v>863300</v>
       </c>
       <c r="D11">
-        <v>40000</v>
+        <v>5700</v>
       </c>
       <c r="E11">
-        <v>91455553000</v>
+        <v>16756186000</v>
       </c>
       <c r="F11">
-        <v>28920300000</v>
+        <v>16179701000</v>
       </c>
       <c r="G11">
-        <v>508093000</v>
+        <v>105375000</v>
       </c>
       <c r="H11">
-        <v>7544000</v>
+        <v>1864300</v>
       </c>
       <c r="I11">
-        <v>120883946000</v>
+        <v>33041262000</v>
       </c>
       <c r="J11" t="str">
-        <v>2023-01-10T09:55:00.000Z</v>
+        <v>2023-01-10T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>933272615000</v>
+        <v>414058527000</v>
       </c>
       <c r="L11">
-        <v>53618800</v>
+        <v>24318100</v>
       </c>
       <c r="M11">
-        <v>-4163200</v>
+        <v>-132000</v>
       </c>
       <c r="N11">
-        <v>-62535253000</v>
+        <v>-576485000</v>
       </c>
       <c r="O11">
-        <v>-8877400</v>
+        <v>-2334500</v>
       </c>
       <c r="P11">
-        <v>-106946921000</v>
+        <v>-12469385000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1673344800000</v>
+        <v>1673343240000</v>
       </c>
       <c r="B12">
-        <v>3884800</v>
+        <v>810600</v>
       </c>
       <c r="C12">
-        <v>1493700</v>
+        <v>797500</v>
       </c>
       <c r="D12">
-        <v>13300</v>
+        <v>17900</v>
       </c>
       <c r="E12">
-        <v>57655456000</v>
+        <v>13837554000</v>
       </c>
       <c r="F12">
-        <v>28925165000</v>
+        <v>15655988000</v>
       </c>
       <c r="G12">
-        <v>235353000</v>
+        <v>396841000</v>
       </c>
       <c r="H12">
-        <v>5391800</v>
+        <v>1626000</v>
       </c>
       <c r="I12">
-        <v>86815974000</v>
+        <v>29890383000</v>
       </c>
       <c r="J12" t="str">
-        <v>2023-01-10T10:00:00.000Z</v>
+        <v>2023-01-10T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1020088589000</v>
+        <v>443948910000</v>
       </c>
       <c r="L12">
-        <v>59010600</v>
+        <v>25944100</v>
       </c>
       <c r="M12">
-        <v>-2391100</v>
+        <v>-13100</v>
       </c>
       <c r="N12">
-        <v>-28730291000</v>
+        <v>1818434000</v>
       </c>
       <c r="O12">
-        <v>-11268500</v>
+        <v>-2347600</v>
       </c>
       <c r="P12">
-        <v>-135677212000</v>
+        <v>-10650951000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1673345100000</v>
+        <v>1673343360000</v>
       </c>
       <c r="B13">
-        <v>4628600</v>
+        <v>582800</v>
       </c>
       <c r="C13">
-        <v>1884800</v>
+        <v>1202000</v>
       </c>
       <c r="D13">
-        <v>15300</v>
+        <v>26800</v>
       </c>
       <c r="E13">
-        <v>75897981000</v>
+        <v>10260965000</v>
       </c>
       <c r="F13">
-        <v>36089567000</v>
+        <v>23792976000</v>
       </c>
       <c r="G13">
-        <v>183786000</v>
+        <v>309988000</v>
       </c>
       <c r="H13">
-        <v>6528700</v>
+        <v>1811600</v>
       </c>
       <c r="I13">
-        <v>112171334000</v>
+        <v>34363929000</v>
       </c>
       <c r="J13" t="str">
-        <v>2023-01-10T10:05:00.000Z</v>
+        <v>2023-01-10T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1132259923000</v>
+        <v>478312839000</v>
       </c>
       <c r="L13">
-        <v>65539300</v>
+        <v>27755700</v>
       </c>
       <c r="M13">
-        <v>-2743800</v>
+        <v>619200</v>
       </c>
       <c r="N13">
-        <v>-39808414000</v>
+        <v>13532011000</v>
       </c>
       <c r="O13">
-        <v>-14012300</v>
+        <v>-1728400</v>
       </c>
       <c r="P13">
-        <v>-175485626000</v>
+        <v>2881060000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1673345400000</v>
+        <v>1673343480000</v>
       </c>
       <c r="B14">
-        <v>2895300</v>
+        <v>967400</v>
       </c>
       <c r="C14">
-        <v>2519600</v>
+        <v>1256900</v>
       </c>
       <c r="D14">
-        <v>18200</v>
+        <v>6800</v>
       </c>
       <c r="E14">
-        <v>52839692000</v>
+        <v>18753392000</v>
       </c>
       <c r="F14">
-        <v>45939647000</v>
+        <v>23900165000</v>
       </c>
       <c r="G14">
-        <v>450674000</v>
+        <v>197960000</v>
       </c>
       <c r="H14">
-        <v>5433100</v>
+        <v>2231100</v>
       </c>
       <c r="I14">
-        <v>99230013000</v>
+        <v>42851517000</v>
       </c>
       <c r="J14" t="str">
-        <v>2023-01-10T10:10:00.000Z</v>
+        <v>2023-01-10T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1231489936000</v>
+        <v>521164356000</v>
       </c>
       <c r="L14">
-        <v>70972400</v>
+        <v>29986800</v>
       </c>
       <c r="M14">
-        <v>-375700</v>
+        <v>289500</v>
       </c>
       <c r="N14">
-        <v>-6900045000</v>
+        <v>5146773000</v>
       </c>
       <c r="O14">
-        <v>-14388000</v>
+        <v>-1438900</v>
       </c>
       <c r="P14">
-        <v>-182385671000</v>
+        <v>8027833000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1673345700000</v>
+        <v>1673343600000</v>
       </c>
       <c r="B15">
-        <v>4570900</v>
+        <v>612000</v>
       </c>
       <c r="C15">
-        <v>1699600</v>
+        <v>1012900</v>
       </c>
       <c r="D15">
-        <v>42100</v>
+        <v>200</v>
       </c>
       <c r="E15">
-        <v>78484206000</v>
+        <v>11171109000</v>
       </c>
       <c r="F15">
-        <v>34337509000</v>
+        <v>16284280000</v>
       </c>
       <c r="G15">
-        <v>497571000</v>
+        <v>4100000</v>
       </c>
       <c r="H15">
-        <v>6312600</v>
+        <v>1625100</v>
       </c>
       <c r="I15">
-        <v>113319286000</v>
+        <v>27459489000</v>
       </c>
       <c r="J15" t="str">
-        <v>2023-01-10T10:15:00.000Z</v>
+        <v>2023-01-10T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1344809222000</v>
+        <v>548623845000</v>
       </c>
       <c r="L15">
-        <v>77285000</v>
+        <v>31611900</v>
       </c>
       <c r="M15">
-        <v>-2871300</v>
+        <v>400900</v>
       </c>
       <c r="N15">
-        <v>-44146697000</v>
+        <v>5113171000</v>
       </c>
       <c r="O15">
-        <v>-17259300</v>
+        <v>-1038000</v>
       </c>
       <c r="P15">
-        <v>-226532368000</v>
+        <v>13141004000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1673346000000</v>
+        <v>1673343720000</v>
       </c>
       <c r="B16">
-        <v>3323700</v>
+        <v>1004600</v>
       </c>
       <c r="C16">
-        <v>2891300</v>
+        <v>939600</v>
       </c>
       <c r="D16">
-        <v>23000</v>
+        <v>16900</v>
       </c>
       <c r="E16">
-        <v>54774559000</v>
+        <v>20618619000</v>
       </c>
       <c r="F16">
-        <v>57313580000</v>
+        <v>16107413000</v>
       </c>
       <c r="G16">
-        <v>624846000</v>
+        <v>230542000</v>
       </c>
       <c r="H16">
-        <v>6238000</v>
+        <v>1961100</v>
       </c>
       <c r="I16">
-        <v>112712985000</v>
+        <v>36956574000</v>
       </c>
       <c r="J16" t="str">
-        <v>2023-01-10T10:20:00.000Z</v>
+        <v>2023-01-10T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1457522207000</v>
+        <v>585580419000</v>
       </c>
       <c r="L16">
-        <v>83523000</v>
+        <v>33573000</v>
       </c>
       <c r="M16">
-        <v>-432400</v>
+        <v>-65000</v>
       </c>
       <c r="N16">
-        <v>2539021000</v>
+        <v>-4511206000</v>
       </c>
       <c r="O16">
-        <v>-17691700</v>
+        <v>-1103000</v>
       </c>
       <c r="P16">
-        <v>-223993347000</v>
+        <v>8629798000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1673346300000</v>
+        <v>1673343840000</v>
       </c>
       <c r="B17">
-        <v>2106100</v>
+        <v>1110800</v>
       </c>
       <c r="C17">
-        <v>2289100</v>
+        <v>752700</v>
       </c>
       <c r="D17">
-        <v>91800</v>
+        <v>31000</v>
       </c>
       <c r="E17">
-        <v>33430168000</v>
+        <v>20665892000</v>
       </c>
       <c r="F17">
-        <v>45615178000</v>
+        <v>16734975000</v>
       </c>
       <c r="G17">
-        <v>1568107000</v>
+        <v>414631000</v>
       </c>
       <c r="H17">
-        <v>4487000</v>
+        <v>1894500</v>
       </c>
       <c r="I17">
-        <v>80613453000</v>
+        <v>37815498000</v>
       </c>
       <c r="J17" t="str">
-        <v>2023-01-10T10:25:00.000Z</v>
+        <v>2023-01-10T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1538135660000</v>
+        <v>623395917000</v>
       </c>
       <c r="L17">
-        <v>88010000</v>
+        <v>35467500</v>
       </c>
       <c r="M17">
-        <v>183000</v>
+        <v>-358100</v>
       </c>
       <c r="N17">
-        <v>12185010000</v>
+        <v>-3930917000</v>
       </c>
       <c r="O17">
-        <v>-17508700</v>
+        <v>-1461100</v>
       </c>
       <c r="P17">
-        <v>-211808337000</v>
+        <v>4698881000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1673346600000</v>
+        <v>1673343960000</v>
       </c>
       <c r="B18">
-        <v>1281800</v>
+        <v>1284300</v>
       </c>
       <c r="C18">
-        <v>3346200</v>
+        <v>845400</v>
       </c>
       <c r="D18">
-        <v>25800</v>
+        <v>10100</v>
       </c>
       <c r="E18">
-        <v>23484996000</v>
+        <v>25473512000</v>
       </c>
       <c r="F18">
-        <v>65292579000</v>
+        <v>13897925000</v>
       </c>
       <c r="G18">
-        <v>496085000</v>
+        <v>129520000</v>
       </c>
       <c r="H18">
-        <v>4653800</v>
+        <v>2139800</v>
       </c>
       <c r="I18">
-        <v>89273660000</v>
+        <v>39500957000</v>
       </c>
       <c r="J18" t="str">
-        <v>2023-01-10T10:30:00.000Z</v>
+        <v>2023-01-10T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1627409320000</v>
+        <v>662896874000</v>
       </c>
       <c r="L18">
-        <v>92663800</v>
+        <v>37607300</v>
       </c>
       <c r="M18">
-        <v>2064400</v>
+        <v>-438900</v>
       </c>
       <c r="N18">
-        <v>41807583000</v>
+        <v>-11575587000</v>
       </c>
       <c r="O18">
-        <v>-15444300</v>
+        <v>-1900000</v>
       </c>
       <c r="P18">
-        <v>-170000754000</v>
+        <v>-6876706000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1673346900000</v>
+        <v>1673344080000</v>
       </c>
       <c r="B19">
-        <v>2063400</v>
+        <v>1554900</v>
       </c>
       <c r="C19">
-        <v>1630500</v>
+        <v>736100</v>
       </c>
       <c r="D19">
-        <v>11000</v>
+        <v>18500</v>
       </c>
       <c r="E19">
-        <v>34632246000</v>
+        <v>24903330000</v>
       </c>
       <c r="F19">
-        <v>29162510000</v>
+        <v>14326383000</v>
       </c>
       <c r="G19">
-        <v>251281000</v>
+        <v>244211000</v>
       </c>
       <c r="H19">
-        <v>3704900</v>
+        <v>2309500</v>
       </c>
       <c r="I19">
-        <v>64046037000</v>
+        <v>39473924000</v>
       </c>
       <c r="J19" t="str">
-        <v>2023-01-10T10:35:00.000Z</v>
+        <v>2023-01-10T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1691455357000</v>
+        <v>702370798000</v>
       </c>
       <c r="L19">
-        <v>96368700</v>
+        <v>39916800</v>
       </c>
       <c r="M19">
-        <v>-432900</v>
+        <v>-818800</v>
       </c>
       <c r="N19">
-        <v>-5469736000</v>
+        <v>-10576947000</v>
       </c>
       <c r="O19">
-        <v>-15877200</v>
+        <v>-2718800</v>
       </c>
       <c r="P19">
-        <v>-175470490000</v>
+        <v>-17453653000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1673347200000</v>
+        <v>1673344200000</v>
       </c>
       <c r="B20">
-        <v>3108600</v>
+        <v>1105200</v>
       </c>
       <c r="C20">
-        <v>1254600</v>
+        <v>968700</v>
       </c>
       <c r="D20">
-        <v>15800</v>
+        <v>7600</v>
       </c>
       <c r="E20">
-        <v>57679830000</v>
+        <v>19262806000</v>
       </c>
       <c r="F20">
-        <v>25634113000</v>
+        <v>19196656000</v>
       </c>
       <c r="G20">
-        <v>482725000</v>
+        <v>112780000</v>
       </c>
       <c r="H20">
-        <v>4379000</v>
+        <v>2081500</v>
       </c>
       <c r="I20">
-        <v>83796668000</v>
+        <v>38572242000</v>
       </c>
       <c r="J20" t="str">
-        <v>2023-01-10T10:40:00.000Z</v>
+        <v>2023-01-10T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1775252025000</v>
+        <v>740943040000</v>
       </c>
       <c r="L20">
-        <v>100747700</v>
+        <v>41998300</v>
       </c>
       <c r="M20">
-        <v>-1854000</v>
+        <v>-136500</v>
       </c>
       <c r="N20">
-        <v>-32045717000</v>
+        <v>-66150000</v>
       </c>
       <c r="O20">
-        <v>-17731200</v>
+        <v>-2855300</v>
       </c>
       <c r="P20">
-        <v>-207516207000</v>
+        <v>-17519803000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1673347500000</v>
+        <v>1673344320000</v>
       </c>
       <c r="B21">
-        <v>8351200</v>
+        <v>1972600</v>
       </c>
       <c r="C21">
-        <v>1435500</v>
+        <v>631200</v>
       </c>
       <c r="D21">
-        <v>116400</v>
+        <v>51000</v>
       </c>
       <c r="E21">
-        <v>138559573000</v>
+        <v>34216158000</v>
       </c>
       <c r="F21">
-        <v>27125974000</v>
+        <v>13563370000</v>
       </c>
       <c r="G21">
-        <v>2006228000</v>
+        <v>700296000</v>
       </c>
       <c r="H21">
-        <v>9903100</v>
+        <v>2654800</v>
       </c>
       <c r="I21">
-        <v>167691775000</v>
+        <v>48479824000</v>
       </c>
       <c r="J21" t="str">
-        <v>2023-01-10T10:45:00.000Z</v>
+        <v>2023-01-10T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>1942943800000</v>
+        <v>789422864000</v>
       </c>
       <c r="L21">
-        <v>110650800</v>
+        <v>44653100</v>
       </c>
       <c r="M21">
-        <v>-6915700</v>
+        <v>-1341400</v>
       </c>
       <c r="N21">
-        <v>-111433599000</v>
+        <v>-20652788000</v>
       </c>
       <c r="O21">
-        <v>-24646900</v>
+        <v>-4196700</v>
       </c>
       <c r="P21">
-        <v>-318949806000</v>
+        <v>-38172591000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1673347800000</v>
+        <v>1673344440000</v>
       </c>
       <c r="B22">
-        <v>8206900</v>
+        <v>2210800</v>
       </c>
       <c r="C22">
-        <v>2454000</v>
+        <v>630400</v>
       </c>
       <c r="D22">
-        <v>100900</v>
+        <v>24900</v>
       </c>
       <c r="E22">
-        <v>128555544000</v>
+        <v>36768946000</v>
       </c>
       <c r="F22">
-        <v>37322370000</v>
+        <v>12022800000</v>
       </c>
       <c r="G22">
-        <v>1728935000</v>
+        <v>342587000</v>
       </c>
       <c r="H22">
-        <v>10761800</v>
+        <v>2866100</v>
       </c>
       <c r="I22">
-        <v>167606849000</v>
+        <v>49134333000</v>
       </c>
       <c r="J22" t="str">
-        <v>2023-01-10T10:50:00.000Z</v>
+        <v>2023-01-10T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2110550649000</v>
+        <v>838557197000</v>
       </c>
       <c r="L22">
-        <v>121412600</v>
+        <v>47519200</v>
       </c>
       <c r="M22">
-        <v>-5752900</v>
+        <v>-1580400</v>
       </c>
       <c r="N22">
-        <v>-91233174000</v>
+        <v>-24746146000</v>
       </c>
       <c r="O22">
-        <v>-30399800</v>
+        <v>-5777100</v>
       </c>
       <c r="P22">
-        <v>-410182980000</v>
+        <v>-62918737000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1673348100000</v>
+        <v>1673344560000</v>
       </c>
       <c r="B23">
-        <v>4331200</v>
+        <v>2887100</v>
       </c>
       <c r="C23">
-        <v>3528000</v>
+        <v>741000</v>
       </c>
       <c r="D23">
-        <v>110600</v>
+        <v>2300</v>
       </c>
       <c r="E23">
-        <v>73539979000</v>
+        <v>43203009000</v>
       </c>
       <c r="F23">
-        <v>61419337000</v>
+        <v>13023628000</v>
       </c>
       <c r="G23">
-        <v>1492083000</v>
+        <v>34685000</v>
       </c>
       <c r="H23">
-        <v>7969800</v>
+        <v>3630400</v>
       </c>
       <c r="I23">
-        <v>136451399000</v>
+        <v>56261322000</v>
       </c>
       <c r="J23" t="str">
-        <v>2023-01-10T10:55:00.000Z</v>
+        <v>2023-01-10T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2247002048000</v>
+        <v>894818519000</v>
       </c>
       <c r="L23">
-        <v>129382400</v>
+        <v>51149600</v>
       </c>
       <c r="M23">
-        <v>-803200</v>
+        <v>-2146100</v>
       </c>
       <c r="N23">
-        <v>-12120642000</v>
+        <v>-30179381000</v>
       </c>
       <c r="O23">
-        <v>-31203000</v>
+        <v>-7923200</v>
       </c>
       <c r="P23">
-        <v>-422303622000</v>
+        <v>-93098118000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1673348400000</v>
+        <v>1673344680000</v>
       </c>
       <c r="B24">
-        <v>2050200</v>
+        <v>1699200</v>
       </c>
       <c r="C24">
-        <v>6047700</v>
+        <v>745000</v>
       </c>
       <c r="D24">
-        <v>36900</v>
+        <v>25000</v>
       </c>
       <c r="E24">
-        <v>37763125000</v>
+        <v>26006235000</v>
       </c>
       <c r="F24">
-        <v>99434284000</v>
+        <v>12157432000</v>
       </c>
       <c r="G24">
-        <v>649252000</v>
+        <v>290429000</v>
       </c>
       <c r="H24">
-        <v>8134800</v>
+        <v>2469200</v>
       </c>
       <c r="I24">
-        <v>137846661000</v>
+        <v>38454096000</v>
       </c>
       <c r="J24" t="str">
-        <v>2023-01-10T11:00:00.000Z</v>
+        <v>2023-01-10T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2384848709000</v>
+        <v>933272615000</v>
       </c>
       <c r="L24">
-        <v>137517200</v>
+        <v>53618800</v>
       </c>
       <c r="M24">
-        <v>3997500</v>
+        <v>-954200</v>
       </c>
       <c r="N24">
-        <v>61671159000</v>
+        <v>-13848803000</v>
       </c>
       <c r="O24">
-        <v>-27205500</v>
+        <v>-8877400</v>
       </c>
       <c r="P24">
-        <v>-360632463000</v>
+        <v>-106946921000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1673348700000</v>
+        <v>1673344800000</v>
       </c>
       <c r="B25">
-        <v>1609600</v>
+        <v>1073300</v>
       </c>
       <c r="C25">
-        <v>3799000</v>
+        <v>670500</v>
       </c>
       <c r="D25">
-        <v>31400</v>
+        <v>6100</v>
       </c>
       <c r="E25">
-        <v>27505129000</v>
+        <v>17466548000</v>
       </c>
       <c r="F25">
-        <v>60963405000</v>
+        <v>12165848000</v>
       </c>
       <c r="G25">
-        <v>360576000</v>
+        <v>84987000</v>
       </c>
       <c r="H25">
-        <v>5440000</v>
+        <v>1749900</v>
       </c>
       <c r="I25">
-        <v>88829110000</v>
+        <v>29717383000</v>
       </c>
       <c r="J25" t="str">
-        <v>2023-01-10T11:05:00.000Z</v>
+        <v>2023-01-10T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>2473677819000</v>
+        <v>962989998000</v>
       </c>
       <c r="L25">
-        <v>142957200</v>
+        <v>55368700</v>
       </c>
       <c r="M25">
-        <v>2189400</v>
+        <v>-402800</v>
       </c>
       <c r="N25">
-        <v>33458276000</v>
+        <v>-5300700000</v>
       </c>
       <c r="O25">
-        <v>-25016100</v>
+        <v>-9280200</v>
       </c>
       <c r="P25">
-        <v>-327174187000</v>
+        <v>-112247621000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1673349000000</v>
+        <v>1673344920000</v>
       </c>
       <c r="B26">
-        <v>3013900</v>
+        <v>1659600</v>
       </c>
       <c r="C26">
-        <v>9598400</v>
+        <v>599400</v>
       </c>
       <c r="D26">
-        <v>14500</v>
+        <v>4800</v>
       </c>
       <c r="E26">
-        <v>51290822000</v>
+        <v>27055732000</v>
       </c>
       <c r="F26">
-        <v>148252476000</v>
+        <v>11506037000</v>
       </c>
       <c r="G26">
-        <v>350513000</v>
+        <v>120399000</v>
       </c>
       <c r="H26">
-        <v>12626800</v>
+        <v>2263800</v>
       </c>
       <c r="I26">
-        <v>199893811000</v>
+        <v>38682168000</v>
       </c>
       <c r="J26" t="str">
-        <v>2023-01-10T11:10:00.000Z</v>
+        <v>2023-01-10T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>2673571630000</v>
+        <v>1001672166000</v>
       </c>
       <c r="L26">
-        <v>155584000</v>
+        <v>57632500</v>
       </c>
       <c r="M26">
-        <v>6584500</v>
+        <v>-1060200</v>
       </c>
       <c r="N26">
-        <v>96961654000</v>
+        <v>-15549695000</v>
       </c>
       <c r="O26">
-        <v>-18431600</v>
+        <v>-10340400</v>
       </c>
       <c r="P26">
-        <v>-230212533000</v>
+        <v>-127797316000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1673349300000</v>
+        <v>1673345040000</v>
       </c>
       <c r="B27">
-        <v>3119600</v>
+        <v>2209300</v>
       </c>
       <c r="C27">
-        <v>9680800</v>
+        <v>650700</v>
       </c>
       <c r="D27">
-        <v>66500</v>
+        <v>7900</v>
       </c>
       <c r="E27">
-        <v>54430727000</v>
+        <v>31332265000</v>
       </c>
       <c r="F27">
-        <v>157346034000</v>
+        <v>12005607000</v>
       </c>
       <c r="G27">
-        <v>2208666000</v>
+        <v>67112000</v>
       </c>
       <c r="H27">
-        <v>12866900</v>
+        <v>2867900</v>
       </c>
       <c r="I27">
-        <v>213985427000</v>
+        <v>43404984000</v>
       </c>
       <c r="J27" t="str">
-        <v>2023-01-10T11:15:00.000Z</v>
+        <v>2023-01-10T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>2887557057000</v>
+        <v>1045077150000</v>
       </c>
       <c r="L27">
-        <v>168450900</v>
+        <v>60500400</v>
       </c>
       <c r="M27">
-        <v>6561200</v>
+        <v>-1558600</v>
       </c>
       <c r="N27">
-        <v>102915307000</v>
+        <v>-19326658000</v>
       </c>
       <c r="O27">
-        <v>-11870400</v>
+        <v>-11899000</v>
       </c>
       <c r="P27">
-        <v>-127297226000</v>
+        <v>-147123974000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1673349600000</v>
+        <v>1673345160000</v>
       </c>
       <c r="B28">
-        <v>4105000</v>
+        <v>2168500</v>
       </c>
       <c r="C28">
-        <v>2236100</v>
+        <v>699400</v>
       </c>
       <c r="D28">
-        <v>15600</v>
+        <v>2100</v>
       </c>
       <c r="E28">
-        <v>55611769000</v>
+        <v>34939983000</v>
       </c>
       <c r="F28">
-        <v>39659710000</v>
+        <v>13175923000</v>
       </c>
       <c r="G28">
-        <v>270458000</v>
+        <v>33580000</v>
       </c>
       <c r="H28">
-        <v>6356700</v>
+        <v>2870000</v>
       </c>
       <c r="I28">
-        <v>95541937000</v>
+        <v>48149486000</v>
       </c>
       <c r="J28" t="str">
-        <v>2023-01-10T11:20:00.000Z</v>
+        <v>2023-01-10T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>2983098994000</v>
+        <v>1093226636000</v>
       </c>
       <c r="L28">
-        <v>174807600</v>
+        <v>63370400</v>
       </c>
       <c r="M28">
-        <v>-1868900</v>
+        <v>-1469100</v>
       </c>
       <c r="N28">
-        <v>-15952059000</v>
+        <v>-21764060000</v>
       </c>
       <c r="O28">
-        <v>-13739300</v>
+        <v>-13368100</v>
       </c>
       <c r="P28">
-        <v>-143249285000</v>
+        <v>-168888034000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1673349900000</v>
+        <v>1673345280000</v>
       </c>
       <c r="B29">
-        <v>2865900</v>
+        <v>1402700</v>
       </c>
       <c r="C29">
-        <v>1557500</v>
+        <v>758500</v>
       </c>
       <c r="D29">
-        <v>22700</v>
+        <v>7700</v>
       </c>
       <c r="E29">
-        <v>50644654000</v>
+        <v>22758909000</v>
       </c>
       <c r="F29">
-        <v>29630573000</v>
+        <v>16161317000</v>
       </c>
       <c r="G29">
-        <v>371456000</v>
+        <v>113061000</v>
       </c>
       <c r="H29">
-        <v>4446100</v>
+        <v>2168900</v>
       </c>
       <c r="I29">
-        <v>80646683000</v>
+        <v>39033287000</v>
       </c>
       <c r="J29" t="str">
-        <v>2023-01-10T11:25:00.000Z</v>
+        <v>2023-01-10T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>3063745677000</v>
+        <v>1132259923000</v>
       </c>
       <c r="L29">
-        <v>179253700</v>
+        <v>65539300</v>
       </c>
       <c r="M29">
-        <v>-1308400</v>
+        <v>-644200</v>
       </c>
       <c r="N29">
-        <v>-21014081000</v>
+        <v>-6597592000</v>
       </c>
       <c r="O29">
-        <v>-15047700</v>
+        <v>-14012300</v>
       </c>
       <c r="P29">
-        <v>-164263366000</v>
+        <v>-175485626000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1673350200000</v>
+        <v>1673345400000</v>
       </c>
       <c r="B30">
-        <v>600</v>
+        <v>1003100</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1013400</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="E30">
-        <v>5423999.999999999</v>
+        <v>20025210000</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>17730039000</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>168133000</v>
       </c>
       <c r="H30">
-        <v>600</v>
+        <v>2026200</v>
       </c>
       <c r="I30">
-        <v>5423999.999999999</v>
+        <v>37923382000</v>
       </c>
       <c r="J30" t="str">
-        <v>2023-01-10T11:30:00.000Z</v>
+        <v>2023-01-10T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>3063751101000</v>
+        <v>1170183305000</v>
       </c>
       <c r="L30">
-        <v>179254300</v>
+        <v>67565500</v>
       </c>
       <c r="M30">
-        <v>-600</v>
+        <v>10300</v>
       </c>
       <c r="N30">
-        <v>-5423999.999999999</v>
+        <v>-2295171000</v>
       </c>
       <c r="O30">
-        <v>-15048300</v>
+        <v>-14002000</v>
       </c>
       <c r="P30">
-        <v>-164268790000</v>
+        <v>-177780797000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1673355600000</v>
+        <v>1673345520000</v>
       </c>
       <c r="B31">
-        <v>6218000</v>
+        <v>1305800</v>
       </c>
       <c r="C31">
-        <v>4036200</v>
+        <v>916600</v>
       </c>
       <c r="D31">
-        <v>264500</v>
+        <v>6300</v>
       </c>
       <c r="E31">
-        <v>98611758000</v>
+        <v>23339510000</v>
       </c>
       <c r="F31">
-        <v>64461791000</v>
+        <v>17227425000</v>
       </c>
       <c r="G31">
-        <v>3401863000</v>
+        <v>211381000</v>
       </c>
       <c r="H31">
-        <v>10518700</v>
+        <v>2228700</v>
       </c>
       <c r="I31">
-        <v>166475412000</v>
+        <v>40778316000</v>
       </c>
       <c r="J31" t="str">
-        <v>2023-01-10T13:00:00.000Z</v>
+        <v>2023-01-10T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>3230226513000</v>
+        <v>1210961621000</v>
       </c>
       <c r="L31">
-        <v>189773000</v>
+        <v>69794200</v>
       </c>
       <c r="M31">
-        <v>-2181800</v>
+        <v>-389200</v>
       </c>
       <c r="N31">
-        <v>-34149967000</v>
+        <v>-6112085000</v>
       </c>
       <c r="O31">
-        <v>-17230100</v>
+        <v>-14391200</v>
       </c>
       <c r="P31">
-        <v>-198418757000</v>
+        <v>-183892882000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1673355900000</v>
+        <v>1673345640000</v>
       </c>
       <c r="B32">
-        <v>2923200</v>
+        <v>1143500</v>
       </c>
       <c r="C32">
-        <v>6378000</v>
+        <v>853100</v>
       </c>
       <c r="D32">
-        <v>41500</v>
+        <v>2200</v>
       </c>
       <c r="E32">
-        <v>48990116000</v>
+        <v>17982751000</v>
       </c>
       <c r="F32">
-        <v>105812411000</v>
+        <v>16215461000</v>
       </c>
       <c r="G32">
-        <v>906786000</v>
+        <v>71160000</v>
       </c>
       <c r="H32">
-        <v>9342700</v>
+        <v>1998800</v>
       </c>
       <c r="I32">
-        <v>155709313000</v>
+        <v>34269372000</v>
       </c>
       <c r="J32" t="str">
-        <v>2023-01-10T13:05:00.000Z</v>
+        <v>2023-01-10T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>3385935826000</v>
+        <v>1245230993000</v>
       </c>
       <c r="L32">
-        <v>199115700</v>
+        <v>71793000</v>
       </c>
       <c r="M32">
-        <v>3454800</v>
+        <v>-290400</v>
       </c>
       <c r="N32">
-        <v>56822295000</v>
+        <v>-1767290000</v>
       </c>
       <c r="O32">
-        <v>-13775300</v>
+        <v>-14681600</v>
       </c>
       <c r="P32">
-        <v>-141596462000</v>
+        <v>-185660172000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1673356200000</v>
+        <v>1673345760000</v>
       </c>
       <c r="B33">
-        <v>3261000</v>
+        <v>1335100</v>
       </c>
       <c r="C33">
-        <v>7020500</v>
+        <v>730000</v>
       </c>
       <c r="D33">
-        <v>36600</v>
+        <v>23400</v>
       </c>
       <c r="E33">
-        <v>54909164000</v>
+        <v>22985054000</v>
       </c>
       <c r="F33">
-        <v>117244923000</v>
+        <v>14519213000</v>
       </c>
       <c r="G33">
-        <v>809033000</v>
+        <v>265176000</v>
       </c>
       <c r="H33">
-        <v>10318100</v>
+        <v>2088500</v>
       </c>
       <c r="I33">
-        <v>172963120000</v>
+        <v>37769443000</v>
       </c>
       <c r="J33" t="str">
-        <v>2023-01-10T13:10:00.000Z</v>
+        <v>2023-01-10T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>3558898946000</v>
+        <v>1283000436000</v>
       </c>
       <c r="L33">
-        <v>209433800</v>
+        <v>73881500</v>
       </c>
       <c r="M33">
-        <v>3759500</v>
+        <v>-605100</v>
       </c>
       <c r="N33">
-        <v>62335759000</v>
+        <v>-8465841000</v>
       </c>
       <c r="O33">
-        <v>-10015800</v>
+        <v>-15286700</v>
       </c>
       <c r="P33">
-        <v>-79260703000</v>
+        <v>-194126013000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1673356500000</v>
+        <v>1673345880000</v>
       </c>
       <c r="B34">
-        <v>3446200</v>
+        <v>2678700</v>
       </c>
       <c r="C34">
-        <v>10892200</v>
+        <v>706100</v>
       </c>
       <c r="D34">
-        <v>55800</v>
+        <v>18700</v>
       </c>
       <c r="E34">
-        <v>57304369000</v>
+        <v>46991373000</v>
       </c>
       <c r="F34">
-        <v>187629452000</v>
+        <v>14585018000</v>
       </c>
       <c r="G34">
-        <v>968396000</v>
+        <v>232395000</v>
       </c>
       <c r="H34">
-        <v>14394200</v>
+        <v>3403500</v>
       </c>
       <c r="I34">
-        <v>245902217000</v>
+        <v>61808786000</v>
       </c>
       <c r="J34" t="str">
-        <v>2023-01-10T13:15:00.000Z</v>
+        <v>2023-01-10T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>3804801163000</v>
+        <v>1344809222000</v>
       </c>
       <c r="L34">
-        <v>223828000</v>
+        <v>77285000</v>
       </c>
       <c r="M34">
-        <v>7446000</v>
+        <v>-1972600</v>
       </c>
       <c r="N34">
-        <v>130325083000</v>
+        <v>-32406355000</v>
       </c>
       <c r="O34">
-        <v>-2569800</v>
+        <v>-17259300</v>
       </c>
       <c r="P34">
-        <v>51064380000</v>
+        <v>-226532368000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1673356800000</v>
+        <v>1673346000000</v>
       </c>
       <c r="B35">
-        <v>6344000</v>
+        <v>1820900</v>
       </c>
       <c r="C35">
-        <v>10975500</v>
+        <v>1507400</v>
       </c>
       <c r="D35">
-        <v>70700</v>
+        <v>7600</v>
       </c>
       <c r="E35">
-        <v>120893778000</v>
+        <v>29298832000</v>
       </c>
       <c r="F35">
-        <v>169933012000</v>
+        <v>35283097000</v>
       </c>
       <c r="G35">
-        <v>1684183000</v>
+        <v>134199000</v>
       </c>
       <c r="H35">
-        <v>17390200</v>
+        <v>3335900</v>
       </c>
       <c r="I35">
-        <v>292510973000</v>
+        <v>64716128000</v>
       </c>
       <c r="J35" t="str">
-        <v>2023-01-10T13:20:00.000Z</v>
+        <v>2023-01-10T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>4097312136000</v>
+        <v>1409525350000</v>
       </c>
       <c r="L35">
-        <v>241218200</v>
+        <v>80620900</v>
       </c>
       <c r="M35">
-        <v>4631500</v>
+        <v>-313500</v>
       </c>
       <c r="N35">
-        <v>49039234000</v>
+        <v>5984265000</v>
       </c>
       <c r="O35">
-        <v>2061700</v>
+        <v>-17572800</v>
       </c>
       <c r="P35">
-        <v>100103614000</v>
+        <v>-220548103000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1673357100000</v>
+        <v>1673346120000</v>
       </c>
       <c r="B36">
-        <v>3856500</v>
+        <v>1080900</v>
       </c>
       <c r="C36">
-        <v>3391000</v>
+        <v>1084700</v>
       </c>
       <c r="D36">
-        <v>98400</v>
+        <v>14400</v>
       </c>
       <c r="E36">
-        <v>70040688000</v>
+        <v>18190215000</v>
       </c>
       <c r="F36">
-        <v>59832434000</v>
+        <v>17135340000</v>
       </c>
       <c r="G36">
-        <v>1114823000</v>
+        <v>466247000</v>
       </c>
       <c r="H36">
-        <v>7345900</v>
+        <v>2180000</v>
       </c>
       <c r="I36">
-        <v>130987945000</v>
+        <v>35791802000</v>
       </c>
       <c r="J36" t="str">
-        <v>2023-01-10T13:25:00.000Z</v>
+        <v>2023-01-10T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>4228300081000</v>
+        <v>1445317152000</v>
       </c>
       <c r="L36">
-        <v>248564100</v>
+        <v>82800900</v>
       </c>
       <c r="M36">
-        <v>-465500</v>
+        <v>3800</v>
       </c>
       <c r="N36">
-        <v>-10208254000</v>
+        <v>-1054875000</v>
       </c>
       <c r="O36">
-        <v>1596200</v>
+        <v>-17569000</v>
       </c>
       <c r="P36">
-        <v>89895360000</v>
+        <v>-221602978000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1673357400000</v>
+        <v>1673346240000</v>
       </c>
       <c r="B37">
-        <v>3724500</v>
+        <v>978900</v>
       </c>
       <c r="C37">
-        <v>3600300</v>
+        <v>647400</v>
       </c>
       <c r="D37">
-        <v>10600</v>
+        <v>37400</v>
       </c>
       <c r="E37">
-        <v>62074620000</v>
+        <v>15155963000</v>
       </c>
       <c r="F37">
-        <v>69264830000</v>
+        <v>10433471000</v>
       </c>
       <c r="G37">
-        <v>507909000</v>
+        <v>468045000</v>
       </c>
       <c r="H37">
-        <v>7335400</v>
+        <v>1663700</v>
       </c>
       <c r="I37">
-        <v>131847359000</v>
+        <v>26057479000</v>
       </c>
       <c r="J37" t="str">
-        <v>2023-01-10T13:30:00.000Z</v>
+        <v>2023-01-10T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>4360147440000</v>
+        <v>1471374631000</v>
       </c>
       <c r="L37">
-        <v>255899500</v>
+        <v>84464600</v>
       </c>
       <c r="M37">
-        <v>-124200</v>
+        <v>-331500</v>
       </c>
       <c r="N37">
-        <v>7190210000</v>
+        <v>-4722492000</v>
       </c>
       <c r="O37">
-        <v>1472000</v>
+        <v>-17900500</v>
       </c>
       <c r="P37">
-        <v>97085570000</v>
+        <v>-226325470000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1673357700000</v>
+        <v>1673346360000</v>
       </c>
       <c r="B38">
-        <v>2095400</v>
+        <v>952900</v>
       </c>
       <c r="C38">
-        <v>11343400</v>
+        <v>743700</v>
       </c>
       <c r="D38">
-        <v>95700</v>
+        <v>37200</v>
       </c>
       <c r="E38">
-        <v>37752779000</v>
+        <v>15219659000</v>
       </c>
       <c r="F38">
-        <v>196170492000</v>
+        <v>14178814000</v>
       </c>
       <c r="G38">
-        <v>1298918000</v>
+        <v>748841000</v>
       </c>
       <c r="H38">
-        <v>13534500</v>
+        <v>1733800</v>
       </c>
       <c r="I38">
-        <v>235222189000</v>
+        <v>30147314000</v>
       </c>
       <c r="J38" t="str">
-        <v>2023-01-10T13:35:00.000Z</v>
+        <v>2023-01-10T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>4595369629000</v>
+        <v>1501521945000</v>
       </c>
       <c r="L38">
-        <v>269434000</v>
+        <v>86198400</v>
       </c>
       <c r="M38">
-        <v>9248000</v>
+        <v>-209200</v>
       </c>
       <c r="N38">
-        <v>158417713000</v>
+        <v>-1040845000</v>
       </c>
       <c r="O38">
-        <v>10720000</v>
+        <v>-18109700</v>
       </c>
       <c r="P38">
-        <v>255503283000</v>
+        <v>-227366315000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1673358000000</v>
+        <v>1673346480000</v>
       </c>
       <c r="B39">
-        <v>4069000</v>
+        <v>596200</v>
       </c>
       <c r="C39">
-        <v>9604200</v>
+        <v>1197200</v>
       </c>
       <c r="D39">
-        <v>69400</v>
+        <v>18200</v>
       </c>
       <c r="E39">
-        <v>77339689000</v>
+        <v>10340058000</v>
       </c>
       <c r="F39">
-        <v>162173316000</v>
+        <v>25898036000</v>
       </c>
       <c r="G39">
-        <v>1221583000</v>
+        <v>375621000</v>
       </c>
       <c r="H39">
-        <v>13742600</v>
+        <v>1811600</v>
       </c>
       <c r="I39">
-        <v>240734588000</v>
+        <v>36613715000</v>
       </c>
       <c r="J39" t="str">
-        <v>2023-01-10T13:40:00.000Z</v>
+        <v>2023-01-10T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>4836104217000</v>
+        <v>1538135660000</v>
       </c>
       <c r="L39">
-        <v>283176600</v>
+        <v>88010000</v>
       </c>
       <c r="M39">
-        <v>5535200</v>
+        <v>601000</v>
       </c>
       <c r="N39">
-        <v>84833627000</v>
+        <v>15557978000</v>
       </c>
       <c r="O39">
-        <v>16255200</v>
+        <v>-17508700</v>
       </c>
       <c r="P39">
-        <v>340336910000</v>
+        <v>-211808337000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1673358300000</v>
+        <v>1673346600000</v>
       </c>
       <c r="B40">
-        <v>3678300</v>
+        <v>568300</v>
       </c>
       <c r="C40">
-        <v>10801100</v>
+        <v>1486900</v>
       </c>
       <c r="D40">
-        <v>57700</v>
+        <v>16600</v>
       </c>
       <c r="E40">
-        <v>65503943000</v>
+        <v>11082491000</v>
       </c>
       <c r="F40">
-        <v>205029264000</v>
+        <v>29246916000</v>
       </c>
       <c r="G40">
-        <v>961116000</v>
+        <v>99705000</v>
       </c>
       <c r="H40">
-        <v>14537100</v>
+        <v>2071800</v>
       </c>
       <c r="I40">
-        <v>271494323000</v>
+        <v>40429112000</v>
       </c>
       <c r="J40" t="str">
-        <v>2023-01-10T13:45:00.000Z</v>
+        <v>2023-01-10T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>5107598540000</v>
+        <v>1578564772000</v>
       </c>
       <c r="L40">
-        <v>297713700</v>
+        <v>90081800</v>
       </c>
       <c r="M40">
-        <v>7122800</v>
+        <v>918600</v>
       </c>
       <c r="N40">
-        <v>139525321000</v>
+        <v>18164425000</v>
       </c>
       <c r="O40">
-        <v>23378000</v>
+        <v>-16590100</v>
       </c>
       <c r="P40">
-        <v>479862231000</v>
+        <v>-193643912000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1673358600000</v>
+        <v>1673346720000</v>
       </c>
       <c r="B41">
-        <v>5734800</v>
+        <v>515700</v>
       </c>
       <c r="C41">
-        <v>9557600</v>
+        <v>1274500</v>
       </c>
       <c r="D41">
-        <v>56700</v>
+        <v>9200</v>
       </c>
       <c r="E41">
-        <v>104343037000</v>
+        <v>8906100000</v>
       </c>
       <c r="F41">
-        <v>174191025000</v>
+        <v>25883476000</v>
       </c>
       <c r="G41">
-        <v>1334526000</v>
+        <v>396380000</v>
       </c>
       <c r="H41">
-        <v>15349100</v>
+        <v>1799400</v>
       </c>
       <c r="I41">
-        <v>279868588000</v>
+        <v>35185956000</v>
       </c>
       <c r="J41" t="str">
-        <v>2023-01-10T13:50:00.000Z</v>
+        <v>2023-01-10T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>5387467128000</v>
+        <v>1613750728000</v>
       </c>
       <c r="L41">
-        <v>313062800</v>
+        <v>91881200</v>
       </c>
       <c r="M41">
-        <v>3822800</v>
+        <v>758800</v>
       </c>
       <c r="N41">
-        <v>69847988000</v>
+        <v>16977376000</v>
       </c>
       <c r="O41">
-        <v>27200800</v>
+        <v>-15831300</v>
       </c>
       <c r="P41">
-        <v>549710219000</v>
+        <v>-176666536000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1673358900000</v>
+        <v>1673346840000</v>
       </c>
       <c r="B42">
-        <v>8197500</v>
+        <v>430600</v>
       </c>
       <c r="C42">
-        <v>3615400</v>
+        <v>1071000</v>
       </c>
       <c r="D42">
-        <v>30200</v>
+        <v>7700</v>
       </c>
       <c r="E42">
-        <v>139576825000</v>
+        <v>7648826000</v>
       </c>
       <c r="F42">
-        <v>74493262000</v>
+        <v>17975934000</v>
       </c>
       <c r="G42">
-        <v>423169000</v>
+        <v>192860000</v>
       </c>
       <c r="H42">
-        <v>11843100</v>
+        <v>1509300</v>
       </c>
       <c r="I42">
-        <v>214493256000</v>
+        <v>25817620000</v>
       </c>
       <c r="J42" t="str">
-        <v>2023-01-10T13:55:00.000Z</v>
+        <v>2023-01-10T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>5601960384000</v>
+        <v>1639568348000</v>
       </c>
       <c r="L42">
-        <v>324905900</v>
+        <v>93390500</v>
       </c>
       <c r="M42">
-        <v>-4582100</v>
+        <v>640400</v>
       </c>
       <c r="N42">
-        <v>-65083563000</v>
+        <v>10327108000</v>
       </c>
       <c r="O42">
-        <v>22618700</v>
+        <v>-15190900</v>
       </c>
       <c r="P42">
-        <v>484626656000</v>
+        <v>-166339428000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1673359200000</v>
+        <v>1673346960000</v>
       </c>
       <c r="B43">
-        <v>5344800</v>
+        <v>639300</v>
       </c>
       <c r="C43">
-        <v>3441300</v>
+        <v>611200</v>
       </c>
       <c r="D43">
-        <v>27200</v>
+        <v>3000</v>
       </c>
       <c r="E43">
-        <v>89901479000</v>
+        <v>11050854000</v>
       </c>
       <c r="F43">
-        <v>64717149000</v>
+        <v>11059595000</v>
       </c>
       <c r="G43">
-        <v>543682000</v>
+        <v>52991000</v>
       </c>
       <c r="H43">
-        <v>8813300</v>
+        <v>1253500</v>
       </c>
       <c r="I43">
-        <v>155162310000</v>
+        <v>22163440000</v>
       </c>
       <c r="J43" t="str">
-        <v>2023-01-10T14:00:00.000Z</v>
+        <v>2023-01-10T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>5757122694000</v>
+        <v>1661731788000</v>
       </c>
       <c r="L43">
-        <v>333719200</v>
+        <v>94644000</v>
       </c>
       <c r="M43">
-        <v>-1903500</v>
+        <v>-28100</v>
       </c>
       <c r="N43">
-        <v>-25184330000</v>
+        <v>8741000</v>
       </c>
       <c r="O43">
-        <v>20715200</v>
+        <v>-15219000</v>
       </c>
       <c r="P43">
-        <v>459442326000</v>
+        <v>-166330687000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1673359500000</v>
+        <v>1673347080000</v>
       </c>
       <c r="B44">
-        <v>6065900</v>
+        <v>1191300</v>
       </c>
       <c r="C44">
-        <v>2792800</v>
+        <v>533100</v>
       </c>
       <c r="D44">
-        <v>19700</v>
+        <v>300</v>
       </c>
       <c r="E44">
-        <v>108661235000</v>
+        <v>19428971000</v>
       </c>
       <c r="F44">
-        <v>52486965000</v>
+        <v>10289168000</v>
       </c>
       <c r="G44">
-        <v>462774000</v>
+        <v>5430000</v>
       </c>
       <c r="H44">
-        <v>8878400</v>
+        <v>1724700</v>
       </c>
       <c r="I44">
-        <v>161610974000</v>
+        <v>29723569000</v>
       </c>
       <c r="J44" t="str">
-        <v>2023-01-10T14:05:00.000Z</v>
+        <v>2023-01-10T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>5918733668000</v>
+        <v>1691455357000</v>
       </c>
       <c r="L44">
-        <v>342597600</v>
+        <v>96368700</v>
       </c>
       <c r="M44">
-        <v>-3273100</v>
+        <v>-658200</v>
       </c>
       <c r="N44">
-        <v>-56174270000</v>
+        <v>-9139803000</v>
       </c>
       <c r="O44">
-        <v>17442100</v>
+        <v>-15877200</v>
       </c>
       <c r="P44">
-        <v>403268056000</v>
+        <v>-175470490000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1673359800000</v>
+        <v>1673347200000</v>
       </c>
       <c r="B45">
-        <v>2480100</v>
+        <v>825300</v>
       </c>
       <c r="C45">
-        <v>5469800</v>
+        <v>489100</v>
       </c>
       <c r="D45">
-        <v>52900</v>
+        <v>3000</v>
       </c>
       <c r="E45">
-        <v>46409277000</v>
+        <v>16093442000</v>
       </c>
       <c r="F45">
-        <v>106177610000</v>
+        <v>11678773000</v>
       </c>
       <c r="G45">
-        <v>1036783000</v>
+        <v>164874000</v>
       </c>
       <c r="H45">
-        <v>8002800</v>
+        <v>1317400</v>
       </c>
       <c r="I45">
-        <v>153623670000</v>
+        <v>27937089000</v>
       </c>
       <c r="J45" t="str">
-        <v>2023-01-10T14:10:00.000Z</v>
+        <v>2023-01-10T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>6072357338000</v>
+        <v>1719392446000</v>
       </c>
       <c r="L45">
-        <v>350600400</v>
+        <v>97686100</v>
       </c>
       <c r="M45">
-        <v>2989700</v>
+        <v>-336200</v>
       </c>
       <c r="N45">
-        <v>59768333000</v>
+        <v>-4414669000</v>
       </c>
       <c r="O45">
-        <v>20431800</v>
+        <v>-16213400</v>
       </c>
       <c r="P45">
-        <v>463036389000</v>
+        <v>-179885159000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1673360100000</v>
+        <v>1673347320000</v>
       </c>
       <c r="B46">
-        <v>3569400</v>
+        <v>1576900</v>
       </c>
       <c r="C46">
-        <v>10567400</v>
+        <v>482200</v>
       </c>
       <c r="D46">
-        <v>215000</v>
+        <v>8800</v>
       </c>
       <c r="E46">
-        <v>66206345000</v>
+        <v>29215502000</v>
       </c>
       <c r="F46">
-        <v>218990283000</v>
+        <v>8302741000</v>
       </c>
       <c r="G46">
-        <v>4044232000</v>
+        <v>204196000</v>
       </c>
       <c r="H46">
-        <v>14351800</v>
+        <v>2067900</v>
       </c>
       <c r="I46">
-        <v>289240860000</v>
+        <v>37722439000</v>
       </c>
       <c r="J46" t="str">
-        <v>2023-01-10T14:15:00.000Z</v>
+        <v>2023-01-10T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>6361598198000</v>
+        <v>1757114885000</v>
       </c>
       <c r="L46">
-        <v>364952200</v>
+        <v>99754000</v>
       </c>
       <c r="M46">
-        <v>6998000</v>
+        <v>-1094700</v>
       </c>
       <c r="N46">
-        <v>152783938000</v>
+        <v>-20912761000</v>
       </c>
       <c r="O46">
-        <v>27429800</v>
+        <v>-17308100</v>
       </c>
       <c r="P46">
-        <v>615820327000</v>
+        <v>-200797920000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1673360400000</v>
+        <v>1673347440000</v>
       </c>
       <c r="B47">
-        <v>5975700</v>
+        <v>1659600</v>
       </c>
       <c r="C47">
-        <v>2561800</v>
+        <v>448600</v>
       </c>
       <c r="D47">
-        <v>53000</v>
+        <v>4000</v>
       </c>
       <c r="E47">
-        <v>110868360000</v>
+        <v>29996125000</v>
       </c>
       <c r="F47">
-        <v>48279054000</v>
+        <v>9229838000</v>
       </c>
       <c r="G47">
-        <v>1144187000</v>
+        <v>113655000</v>
       </c>
       <c r="H47">
-        <v>8590500</v>
+        <v>2112200</v>
       </c>
       <c r="I47">
-        <v>160291601000</v>
+        <v>39339618000</v>
       </c>
       <c r="J47" t="str">
-        <v>2023-01-10T14:20:00.000Z</v>
+        <v>2023-01-10T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>6521889799000</v>
+        <v>1796454503000</v>
       </c>
       <c r="L47">
-        <v>373542700</v>
+        <v>101866200</v>
       </c>
       <c r="M47">
-        <v>-3413900</v>
+        <v>-1211000</v>
       </c>
       <c r="N47">
-        <v>-62589306000</v>
+        <v>-20766287000</v>
       </c>
       <c r="O47">
-        <v>24015900</v>
+        <v>-18519100</v>
       </c>
       <c r="P47">
-        <v>553231021000</v>
+        <v>-221564207000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1673360700000</v>
+        <v>1673347560000</v>
       </c>
       <c r="B48">
-        <v>4747100</v>
+        <v>3318300</v>
       </c>
       <c r="C48">
-        <v>3709800</v>
+        <v>634600</v>
       </c>
       <c r="D48">
-        <v>26200</v>
+        <v>2400</v>
       </c>
       <c r="E48">
-        <v>85855664000</v>
+        <v>59726084000</v>
       </c>
       <c r="F48">
-        <v>70643773000</v>
+        <v>11486411000</v>
       </c>
       <c r="G48">
-        <v>476394000</v>
+        <v>65668000</v>
       </c>
       <c r="H48">
-        <v>8483100</v>
+        <v>3955300</v>
       </c>
       <c r="I48">
-        <v>156975831000</v>
+        <v>71278163000</v>
       </c>
       <c r="J48" t="str">
-        <v>2023-01-10T14:25:00.000Z</v>
+        <v>2023-01-10T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>6678865630000</v>
+        <v>1867732666000</v>
       </c>
       <c r="L48">
-        <v>382025800</v>
+        <v>105821500</v>
       </c>
       <c r="M48">
-        <v>-1037300</v>
+        <v>-2683700</v>
       </c>
       <c r="N48">
-        <v>-15211891000</v>
+        <v>-48239673000</v>
       </c>
       <c r="O48">
-        <v>22978600</v>
+        <v>-21202800</v>
       </c>
       <c r="P48">
-        <v>538019130000</v>
+        <v>-269803880000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1673361900000</v>
+        <v>1673347680000</v>
       </c>
       <c r="B49">
+        <v>4079700</v>
+      </c>
+      <c r="C49">
+        <v>635600</v>
+      </c>
+      <c r="D49">
+        <v>114000</v>
+      </c>
+      <c r="E49">
+        <v>61208250000</v>
+      </c>
+      <c r="F49">
+        <v>12062324000</v>
+      </c>
+      <c r="G49">
+        <v>1940560000</v>
+      </c>
+      <c r="H49">
+        <v>4829300</v>
+      </c>
+      <c r="I49">
+        <v>75211134000</v>
+      </c>
+      <c r="J49" t="str">
+        <v>2023-01-10T10:48:00.000Z</v>
+      </c>
+      <c r="K49">
+        <v>1942943800000</v>
+      </c>
+      <c r="L49">
+        <v>110650800</v>
+      </c>
+      <c r="M49">
+        <v>-3444100</v>
+      </c>
+      <c r="N49">
+        <v>-49145926000</v>
+      </c>
+      <c r="O49">
+        <v>-24646900</v>
+      </c>
+      <c r="P49">
+        <v>-318949806000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>1673347800000</v>
+      </c>
+      <c r="B50">
+        <v>4076900</v>
+      </c>
+      <c r="C50">
+        <v>568100</v>
+      </c>
+      <c r="D50">
+        <v>34600</v>
+      </c>
+      <c r="E50">
+        <v>56407127000</v>
+      </c>
+      <c r="F50">
+        <v>11051536000</v>
+      </c>
+      <c r="G50">
+        <v>1108018000</v>
+      </c>
+      <c r="H50">
+        <v>4679600</v>
+      </c>
+      <c r="I50">
+        <v>68566681000</v>
+      </c>
+      <c r="J50" t="str">
+        <v>2023-01-10T10:50:00.000Z</v>
+      </c>
+      <c r="K50">
+        <v>2011510481000</v>
+      </c>
+      <c r="L50">
+        <v>115330400</v>
+      </c>
+      <c r="M50">
+        <v>-3508800</v>
+      </c>
+      <c r="N50">
+        <v>-45355591000</v>
+      </c>
+      <c r="O50">
+        <v>-28155700</v>
+      </c>
+      <c r="P50">
+        <v>-364305397000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>1673347920000</v>
+      </c>
+      <c r="B51">
+        <v>3259000</v>
+      </c>
+      <c r="C51">
+        <v>571700</v>
+      </c>
+      <c r="D51">
+        <v>33500</v>
+      </c>
+      <c r="E51">
+        <v>55361830000</v>
+      </c>
+      <c r="F51">
+        <v>10041837000</v>
+      </c>
+      <c r="G51">
+        <v>373501000</v>
+      </c>
+      <c r="H51">
+        <v>3864200</v>
+      </c>
+      <c r="I51">
+        <v>65777168000</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2023-01-10T10:52:00.000Z</v>
+      </c>
+      <c r="K51">
+        <v>2077287649000</v>
+      </c>
+      <c r="L51">
+        <v>119194600</v>
+      </c>
+      <c r="M51">
+        <v>-2687300</v>
+      </c>
+      <c r="N51">
+        <v>-45319993000</v>
+      </c>
+      <c r="O51">
+        <v>-30843000</v>
+      </c>
+      <c r="P51">
+        <v>-409625390000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1673348040000</v>
+      </c>
+      <c r="B52">
+        <v>1843900</v>
+      </c>
+      <c r="C52">
+        <v>1729100</v>
+      </c>
+      <c r="D52">
+        <v>38100</v>
+      </c>
+      <c r="E52">
+        <v>35630036000</v>
+      </c>
+      <c r="F52">
+        <v>23785040000</v>
+      </c>
+      <c r="G52">
+        <v>355346000</v>
+      </c>
+      <c r="H52">
+        <v>3611100</v>
+      </c>
+      <c r="I52">
+        <v>59770422000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2023-01-10T10:54:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>2137058071000</v>
+      </c>
+      <c r="L52">
+        <v>122805700</v>
+      </c>
+      <c r="M52">
+        <v>-114800</v>
+      </c>
+      <c r="N52">
+        <v>-11844996000</v>
+      </c>
+      <c r="O52">
+        <v>-30957800</v>
+      </c>
+      <c r="P52">
+        <v>-421470386000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1673348160000</v>
+      </c>
+      <c r="B53">
+        <v>2488000</v>
+      </c>
+      <c r="C53">
+        <v>1520100</v>
+      </c>
+      <c r="D53">
+        <v>24900</v>
+      </c>
+      <c r="E53">
+        <v>40268946000</v>
+      </c>
+      <c r="F53">
+        <v>25012860000</v>
+      </c>
+      <c r="G53">
+        <v>406910000</v>
+      </c>
+      <c r="H53">
+        <v>4033000</v>
+      </c>
+      <c r="I53">
+        <v>65688716000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2023-01-10T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>2202746787000</v>
+      </c>
+      <c r="L53">
+        <v>126838700</v>
+      </c>
+      <c r="M53">
+        <v>-967900</v>
+      </c>
+      <c r="N53">
+        <v>-15256086000</v>
+      </c>
+      <c r="O53">
+        <v>-31925700</v>
+      </c>
+      <c r="P53">
+        <v>-436726472000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1673348280000</v>
+      </c>
+      <c r="B54">
+        <v>870300</v>
+      </c>
+      <c r="C54">
+        <v>1593000</v>
+      </c>
+      <c r="D54">
+        <v>80400</v>
+      </c>
+      <c r="E54">
+        <v>14427584000</v>
+      </c>
+      <c r="F54">
+        <v>28850434000</v>
+      </c>
+      <c r="G54">
+        <v>977243000</v>
+      </c>
+      <c r="H54">
+        <v>2543700</v>
+      </c>
+      <c r="I54">
+        <v>44255261000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2023-01-10T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>2247002048000</v>
+      </c>
+      <c r="L54">
+        <v>129382400</v>
+      </c>
+      <c r="M54">
+        <v>722700</v>
+      </c>
+      <c r="N54">
+        <v>14422850000</v>
+      </c>
+      <c r="O54">
+        <v>-31203000</v>
+      </c>
+      <c r="P54">
+        <v>-422303622000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1673348400000</v>
+      </c>
+      <c r="B55">
+        <v>877900</v>
+      </c>
+      <c r="C55">
+        <v>2193600</v>
+      </c>
+      <c r="D55">
+        <v>5000</v>
+      </c>
+      <c r="E55">
+        <v>17300228000</v>
+      </c>
+      <c r="F55">
+        <v>37175815000</v>
+      </c>
+      <c r="G55">
+        <v>157951000</v>
+      </c>
+      <c r="H55">
+        <v>3076500</v>
+      </c>
+      <c r="I55">
+        <v>54633994000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2023-01-10T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>2301636042000</v>
+      </c>
+      <c r="L55">
+        <v>132458900</v>
+      </c>
+      <c r="M55">
+        <v>1315700</v>
+      </c>
+      <c r="N55">
+        <v>19875587000</v>
+      </c>
+      <c r="O55">
+        <v>-29887300</v>
+      </c>
+      <c r="P55">
+        <v>-402428035000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1673348520000</v>
+      </c>
+      <c r="B56">
+        <v>728800</v>
+      </c>
+      <c r="C56">
+        <v>2428900</v>
+      </c>
+      <c r="D56">
+        <v>26800</v>
+      </c>
+      <c r="E56">
+        <v>13468466000</v>
+      </c>
+      <c r="F56">
+        <v>38319669000</v>
+      </c>
+      <c r="G56">
+        <v>291410000</v>
+      </c>
+      <c r="H56">
+        <v>3184500</v>
+      </c>
+      <c r="I56">
+        <v>52079545000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2023-01-10T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>2353715587000</v>
+      </c>
+      <c r="L56">
+        <v>135643400</v>
+      </c>
+      <c r="M56">
+        <v>1700100</v>
+      </c>
+      <c r="N56">
+        <v>24851203000</v>
+      </c>
+      <c r="O56">
+        <v>-28187200</v>
+      </c>
+      <c r="P56">
+        <v>-377576832000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1673348640000</v>
+      </c>
+      <c r="B57">
+        <v>732000</v>
+      </c>
+      <c r="C57">
+        <v>2230500</v>
+      </c>
+      <c r="D57">
+        <v>7600</v>
+      </c>
+      <c r="E57">
+        <v>12534612000</v>
+      </c>
+      <c r="F57">
+        <v>36342186000</v>
+      </c>
+      <c r="G57">
+        <v>236873000</v>
+      </c>
+      <c r="H57">
+        <v>2970100</v>
+      </c>
+      <c r="I57">
+        <v>49113671000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2023-01-10T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>2402829258000</v>
+      </c>
+      <c r="L57">
+        <v>138613500</v>
+      </c>
+      <c r="M57">
+        <v>1498500</v>
+      </c>
+      <c r="N57">
+        <v>23807574000</v>
+      </c>
+      <c r="O57">
+        <v>-26688700</v>
+      </c>
+      <c r="P57">
+        <v>-353769258000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1673348760000</v>
+      </c>
+      <c r="B58">
+        <v>697700</v>
+      </c>
+      <c r="C58">
+        <v>1375700</v>
+      </c>
+      <c r="D58">
+        <v>21400</v>
+      </c>
+      <c r="E58">
+        <v>11433961000</v>
+      </c>
+      <c r="F58">
+        <v>21833152000</v>
+      </c>
+      <c r="G58">
+        <v>243978000</v>
+      </c>
+      <c r="H58">
+        <v>2094800</v>
+      </c>
+      <c r="I58">
+        <v>33511091000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2023-01-10T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>2436340349000</v>
+      </c>
+      <c r="L58">
+        <v>140708300</v>
+      </c>
+      <c r="M58">
+        <v>678000</v>
+      </c>
+      <c r="N58">
+        <v>10399191000</v>
+      </c>
+      <c r="O58">
+        <v>-26010700</v>
+      </c>
+      <c r="P58">
+        <v>-343370067000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1673348880000</v>
+      </c>
+      <c r="B59">
+        <v>623400</v>
+      </c>
+      <c r="C59">
+        <v>1618000</v>
+      </c>
+      <c r="D59">
+        <v>7500</v>
+      </c>
+      <c r="E59">
+        <v>10530987000</v>
+      </c>
+      <c r="F59">
+        <v>26726867000</v>
+      </c>
+      <c r="G59">
+        <v>79616000</v>
+      </c>
+      <c r="H59">
+        <v>2248900</v>
+      </c>
+      <c r="I59">
+        <v>37337470000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2023-01-10T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>2473677819000</v>
+      </c>
+      <c r="L59">
+        <v>142957200</v>
+      </c>
+      <c r="M59">
+        <v>994600</v>
+      </c>
+      <c r="N59">
+        <v>16195880000</v>
+      </c>
+      <c r="O59">
+        <v>-25016100</v>
+      </c>
+      <c r="P59">
+        <v>-327174187000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1673349000000</v>
+      </c>
+      <c r="B60">
+        <v>1091500</v>
+      </c>
+      <c r="C60">
+        <v>2296300</v>
+      </c>
+      <c r="D60">
+        <v>10100</v>
+      </c>
+      <c r="E60">
+        <v>16680796000</v>
+      </c>
+      <c r="F60">
+        <v>37792769000</v>
+      </c>
+      <c r="G60">
+        <v>195802000</v>
+      </c>
+      <c r="H60">
+        <v>3397900</v>
+      </c>
+      <c r="I60">
+        <v>54669367000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2023-01-10T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>2528347186000</v>
+      </c>
+      <c r="L60">
+        <v>146355100</v>
+      </c>
+      <c r="M60">
+        <v>1204800</v>
+      </c>
+      <c r="N60">
+        <v>21111973000</v>
+      </c>
+      <c r="O60">
+        <v>-23811300</v>
+      </c>
+      <c r="P60">
+        <v>-306062214000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1673349120000</v>
+      </c>
+      <c r="B61">
+        <v>1197500</v>
+      </c>
+      <c r="C61">
+        <v>4931700</v>
+      </c>
+      <c r="D61">
+        <v>2200</v>
+      </c>
+      <c r="E61">
+        <v>20194598000</v>
+      </c>
+      <c r="F61">
+        <v>70300806000</v>
+      </c>
+      <c r="G61">
+        <v>100464000</v>
+      </c>
+      <c r="H61">
+        <v>6131400</v>
+      </c>
+      <c r="I61">
+        <v>90595868000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2023-01-10T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>2618943054000</v>
+      </c>
+      <c r="L61">
+        <v>152486500</v>
+      </c>
+      <c r="M61">
+        <v>3734200</v>
+      </c>
+      <c r="N61">
+        <v>50106208000</v>
+      </c>
+      <c r="O61">
+        <v>-20077100</v>
+      </c>
+      <c r="P61">
+        <v>-255956006000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1673349240000</v>
+      </c>
+      <c r="B62">
+        <v>1447200</v>
+      </c>
+      <c r="C62">
+        <v>5220100</v>
+      </c>
+      <c r="D62">
+        <v>6800</v>
+      </c>
+      <c r="E62">
+        <v>24618829000</v>
+      </c>
+      <c r="F62">
+        <v>87073641000</v>
+      </c>
+      <c r="G62">
+        <v>188718000</v>
+      </c>
+      <c r="H62">
+        <v>6674100</v>
+      </c>
+      <c r="I62">
+        <v>111881188000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2023-01-10T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>2730824242000</v>
+      </c>
+      <c r="L62">
+        <v>159160600</v>
+      </c>
+      <c r="M62">
+        <v>3772900</v>
+      </c>
+      <c r="N62">
+        <v>62454812000</v>
+      </c>
+      <c r="O62">
+        <v>-16304200</v>
+      </c>
+      <c r="P62">
+        <v>-193501194000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1673349360000</v>
+      </c>
+      <c r="B63">
+        <v>918000</v>
+      </c>
+      <c r="C63">
+        <v>4779800</v>
+      </c>
+      <c r="D63">
+        <v>55900</v>
+      </c>
+      <c r="E63">
+        <v>16513039000</v>
+      </c>
+      <c r="F63">
+        <v>77024819000</v>
+      </c>
+      <c r="G63">
+        <v>1965248000</v>
+      </c>
+      <c r="H63">
+        <v>5753700</v>
+      </c>
+      <c r="I63">
+        <v>95503106000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2023-01-10T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>2826327348000</v>
+      </c>
+      <c r="L63">
+        <v>164914300</v>
+      </c>
+      <c r="M63">
+        <v>3861800</v>
+      </c>
+      <c r="N63">
+        <v>60511780000</v>
+      </c>
+      <c r="O63">
+        <v>-12442400</v>
+      </c>
+      <c r="P63">
+        <v>-132989414000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1673349480000</v>
+      </c>
+      <c r="B64">
+        <v>1479300</v>
+      </c>
+      <c r="C64">
+        <v>2051300</v>
+      </c>
+      <c r="D64">
+        <v>6000</v>
+      </c>
+      <c r="E64">
+        <v>27714287000</v>
+      </c>
+      <c r="F64">
+        <v>33406475000</v>
+      </c>
+      <c r="G64">
+        <v>108947000</v>
+      </c>
+      <c r="H64">
+        <v>3536600</v>
+      </c>
+      <c r="I64">
+        <v>61229709000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2023-01-10T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>2887557057000</v>
+      </c>
+      <c r="L64">
+        <v>168450900</v>
+      </c>
+      <c r="M64">
+        <v>572000</v>
+      </c>
+      <c r="N64">
+        <v>5692188000</v>
+      </c>
+      <c r="O64">
+        <v>-11870400</v>
+      </c>
+      <c r="P64">
+        <v>-127297226000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1673349600000</v>
+      </c>
+      <c r="B65">
+        <v>1349200</v>
+      </c>
+      <c r="C65">
+        <v>1041700</v>
+      </c>
+      <c r="D65">
+        <v>3700</v>
+      </c>
+      <c r="E65">
+        <v>22525848000</v>
+      </c>
+      <c r="F65">
+        <v>16993837000</v>
+      </c>
+      <c r="G65">
+        <v>101894000</v>
+      </c>
+      <c r="H65">
+        <v>2394600</v>
+      </c>
+      <c r="I65">
+        <v>39621579000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2023-01-10T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>2927178636000</v>
+      </c>
+      <c r="L65">
+        <v>170845500</v>
+      </c>
+      <c r="M65">
+        <v>-307500</v>
+      </c>
+      <c r="N65">
+        <v>-5532011000</v>
+      </c>
+      <c r="O65">
+        <v>-12177900</v>
+      </c>
+      <c r="P65">
+        <v>-132829237000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1673349720000</v>
+      </c>
+      <c r="B66">
+        <v>2203700</v>
+      </c>
+      <c r="C66">
+        <v>830500</v>
+      </c>
+      <c r="D66">
+        <v>9000</v>
+      </c>
+      <c r="E66">
+        <v>21918753000</v>
+      </c>
+      <c r="F66">
+        <v>16265703000</v>
+      </c>
+      <c r="G66">
+        <v>124990000</v>
+      </c>
+      <c r="H66">
+        <v>3043200</v>
+      </c>
+      <c r="I66">
+        <v>38309446000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2023-01-10T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>2965488082000</v>
+      </c>
+      <c r="L66">
+        <v>173888700</v>
+      </c>
+      <c r="M66">
+        <v>-1373200</v>
+      </c>
+      <c r="N66">
+        <v>-5653050000</v>
+      </c>
+      <c r="O66">
+        <v>-13551100</v>
+      </c>
+      <c r="P66">
+        <v>-138482287000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1673349840000</v>
+      </c>
+      <c r="B67">
+        <v>1020600</v>
+      </c>
+      <c r="C67">
+        <v>745700</v>
+      </c>
+      <c r="D67">
+        <v>6900</v>
+      </c>
+      <c r="E67">
+        <v>19000500000</v>
+      </c>
+      <c r="F67">
+        <v>13767647000</v>
+      </c>
+      <c r="G67">
+        <v>85974000</v>
+      </c>
+      <c r="H67">
+        <v>1773200</v>
+      </c>
+      <c r="I67">
+        <v>32854121000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2023-01-10T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>2998342203000</v>
+      </c>
+      <c r="L67">
+        <v>175661900</v>
+      </c>
+      <c r="M67">
+        <v>-274900</v>
+      </c>
+      <c r="N67">
+        <v>-5232853000</v>
+      </c>
+      <c r="O67">
+        <v>-13826000</v>
+      </c>
+      <c r="P67">
+        <v>-143715140000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1673349960000</v>
+      </c>
+      <c r="B68">
+        <v>987400</v>
+      </c>
+      <c r="C68">
+        <v>528800</v>
+      </c>
+      <c r="D68">
+        <v>14100</v>
+      </c>
+      <c r="E68">
+        <v>17461417000</v>
+      </c>
+      <c r="F68">
+        <v>9820986000</v>
+      </c>
+      <c r="G68">
+        <v>180076000</v>
+      </c>
+      <c r="H68">
+        <v>1530300</v>
+      </c>
+      <c r="I68">
+        <v>27462479000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2023-01-10T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>3025804682000</v>
+      </c>
+      <c r="L68">
+        <v>177192200</v>
+      </c>
+      <c r="M68">
+        <v>-458600</v>
+      </c>
+      <c r="N68">
+        <v>-7640431000</v>
+      </c>
+      <c r="O68">
+        <v>-14284600</v>
+      </c>
+      <c r="P68">
+        <v>-151355571000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1673350080000</v>
+      </c>
+      <c r="B69">
+        <v>1410000</v>
+      </c>
+      <c r="C69">
+        <v>646900</v>
+      </c>
+      <c r="D69">
+        <v>4600</v>
+      </c>
+      <c r="E69">
+        <v>25349905000</v>
+      </c>
+      <c r="F69">
+        <v>12442110000</v>
+      </c>
+      <c r="G69">
+        <v>148980000</v>
+      </c>
+      <c r="H69">
+        <v>2061500</v>
+      </c>
+      <c r="I69">
+        <v>37940995000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2023-01-10T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>3063745677000</v>
+      </c>
+      <c r="L69">
+        <v>179253700</v>
+      </c>
+      <c r="M69">
+        <v>-763100</v>
+      </c>
+      <c r="N69">
+        <v>-12907795000</v>
+      </c>
+      <c r="O69">
+        <v>-15047700</v>
+      </c>
+      <c r="P69">
+        <v>-164263366000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1673350200000</v>
+      </c>
+      <c r="B70">
+        <v>600</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>5423999.999999999</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>600</v>
+      </c>
+      <c r="I70">
+        <v>5423999.999999999</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2023-01-10T11:30:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>3063751101000</v>
+      </c>
+      <c r="L70">
+        <v>179254300</v>
+      </c>
+      <c r="M70">
+        <v>-600</v>
+      </c>
+      <c r="N70">
+        <v>-5423999.999999999</v>
+      </c>
+      <c r="O70">
+        <v>-15048300</v>
+      </c>
+      <c r="P70">
+        <v>-164268790000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1673355600000</v>
+      </c>
+      <c r="B71">
+        <v>3735700</v>
+      </c>
+      <c r="C71">
+        <v>2444600</v>
+      </c>
+      <c r="D71">
+        <v>255500</v>
+      </c>
+      <c r="E71">
+        <v>58175422000</v>
+      </c>
+      <c r="F71">
+        <v>36959882000</v>
+      </c>
+      <c r="G71">
+        <v>3297368000</v>
+      </c>
+      <c r="H71">
+        <v>6435800</v>
+      </c>
+      <c r="I71">
+        <v>98432672000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2023-01-10T13:00:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>3162183773000</v>
+      </c>
+      <c r="L71">
+        <v>185690100</v>
+      </c>
+      <c r="M71">
+        <v>-1291100</v>
+      </c>
+      <c r="N71">
+        <v>-21215540000</v>
+      </c>
+      <c r="O71">
+        <v>-16339400</v>
+      </c>
+      <c r="P71">
+        <v>-185484330000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1673355720000</v>
+      </c>
+      <c r="B72">
+        <v>1726800</v>
+      </c>
+      <c r="C72">
+        <v>927000</v>
+      </c>
+      <c r="D72">
+        <v>8600</v>
+      </c>
+      <c r="E72">
+        <v>29141623000</v>
+      </c>
+      <c r="F72">
+        <v>16715623000</v>
+      </c>
+      <c r="G72">
+        <v>102457000</v>
+      </c>
+      <c r="H72">
+        <v>2662400</v>
+      </c>
+      <c r="I72">
+        <v>45959703000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2023-01-10T13:02:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>3208143476000</v>
+      </c>
+      <c r="L72">
+        <v>188352500</v>
+      </c>
+      <c r="M72">
+        <v>-799800</v>
+      </c>
+      <c r="N72">
+        <v>-12426000000</v>
+      </c>
+      <c r="O72">
+        <v>-17139200</v>
+      </c>
+      <c r="P72">
+        <v>-197910330000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1673355840000</v>
+      </c>
+      <c r="B73">
+        <v>1515500</v>
+      </c>
+      <c r="C73">
+        <v>1100400</v>
+      </c>
+      <c r="D73">
+        <v>7400</v>
+      </c>
+      <c r="E73">
+        <v>26135989000</v>
+      </c>
+      <c r="F73">
+        <v>16836553000</v>
+      </c>
+      <c r="G73">
+        <v>89812000</v>
+      </c>
+      <c r="H73">
+        <v>2623300</v>
+      </c>
+      <c r="I73">
+        <v>43062354000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2023-01-10T13:04:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>3251205830000</v>
+      </c>
+      <c r="L73">
+        <v>190975800</v>
+      </c>
+      <c r="M73">
+        <v>-415100</v>
+      </c>
+      <c r="N73">
+        <v>-9299436000</v>
+      </c>
+      <c r="O73">
+        <v>-17554300</v>
+      </c>
+      <c r="P73">
+        <v>-207209766000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1673355960000</v>
+      </c>
+      <c r="B74">
+        <v>1214800</v>
+      </c>
+      <c r="C74">
+        <v>2607400</v>
+      </c>
+      <c r="D74">
+        <v>10700</v>
+      </c>
+      <c r="E74">
+        <v>20420628000</v>
+      </c>
+      <c r="F74">
+        <v>48705145000</v>
+      </c>
+      <c r="G74">
+        <v>248786000</v>
+      </c>
+      <c r="H74">
+        <v>3832900</v>
+      </c>
+      <c r="I74">
+        <v>69374559000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2023-01-10T13:06:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>3320580389000</v>
+      </c>
+      <c r="L74">
+        <v>194808700</v>
+      </c>
+      <c r="M74">
+        <v>1392600</v>
+      </c>
+      <c r="N74">
+        <v>28284517000</v>
+      </c>
+      <c r="O74">
+        <v>-16161700</v>
+      </c>
+      <c r="P74">
+        <v>-178925249000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1673356080000</v>
+      </c>
+      <c r="B75">
+        <v>948400</v>
+      </c>
+      <c r="C75">
+        <v>3334800</v>
+      </c>
+      <c r="D75">
+        <v>23800</v>
+      </c>
+      <c r="E75">
+        <v>13728212000</v>
+      </c>
+      <c r="F75">
+        <v>51056999000</v>
+      </c>
+      <c r="G75">
+        <v>570226000</v>
+      </c>
+      <c r="H75">
+        <v>4307000</v>
+      </c>
+      <c r="I75">
+        <v>65355437000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2023-01-10T13:08:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>3385935826000</v>
+      </c>
+      <c r="L75">
+        <v>199115700</v>
+      </c>
+      <c r="M75">
+        <v>2386400</v>
+      </c>
+      <c r="N75">
+        <v>37328787000</v>
+      </c>
+      <c r="O75">
+        <v>-13775300</v>
+      </c>
+      <c r="P75">
+        <v>-141596462000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1673356200000</v>
+      </c>
+      <c r="B76">
+        <v>961200</v>
+      </c>
+      <c r="C76">
+        <v>3002200</v>
+      </c>
+      <c r="D76">
+        <v>31600</v>
+      </c>
+      <c r="E76">
+        <v>16109378000</v>
+      </c>
+      <c r="F76">
+        <v>46330471000</v>
+      </c>
+      <c r="G76">
+        <v>610885000</v>
+      </c>
+      <c r="H76">
+        <v>3995000</v>
+      </c>
+      <c r="I76">
+        <v>63050734000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2023-01-10T13:10:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>3448986560000</v>
+      </c>
+      <c r="L76">
+        <v>203110700</v>
+      </c>
+      <c r="M76">
+        <v>2041000</v>
+      </c>
+      <c r="N76">
+        <v>30221093000</v>
+      </c>
+      <c r="O76">
+        <v>-11734300</v>
+      </c>
+      <c r="P76">
+        <v>-111375369000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1673356320000</v>
+      </c>
+      <c r="B77">
+        <v>1374800</v>
+      </c>
+      <c r="C77">
+        <v>2710800</v>
+      </c>
+      <c r="D77">
+        <v>4600</v>
+      </c>
+      <c r="E77">
+        <v>23728412000</v>
+      </c>
+      <c r="F77">
+        <v>47407724000</v>
+      </c>
+      <c r="G77">
+        <v>174688000</v>
+      </c>
+      <c r="H77">
+        <v>4090200</v>
+      </c>
+      <c r="I77">
+        <v>71310824000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2023-01-10T13:12:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>3520297384000</v>
+      </c>
+      <c r="L77">
+        <v>207200900</v>
+      </c>
+      <c r="M77">
+        <v>1336000</v>
+      </c>
+      <c r="N77">
+        <v>23679312000</v>
+      </c>
+      <c r="O77">
+        <v>-10398300</v>
+      </c>
+      <c r="P77">
+        <v>-87696057000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1673356440000</v>
+      </c>
+      <c r="B78">
+        <v>1377500</v>
+      </c>
+      <c r="C78">
+        <v>2432300</v>
+      </c>
+      <c r="D78">
+        <v>2900</v>
+      </c>
+      <c r="E78">
+        <v>22590867000</v>
+      </c>
+      <c r="F78">
+        <v>44241424000</v>
+      </c>
+      <c r="G78">
+        <v>110900000</v>
+      </c>
+      <c r="H78">
+        <v>3812700</v>
+      </c>
+      <c r="I78">
+        <v>66943191000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2023-01-10T13:14:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>3587240575000</v>
+      </c>
+      <c r="L78">
+        <v>211013600</v>
+      </c>
+      <c r="M78">
+        <v>1054800</v>
+      </c>
+      <c r="N78">
+        <v>21650557000</v>
+      </c>
+      <c r="O78">
+        <v>-9343500</v>
+      </c>
+      <c r="P78">
+        <v>-66045500000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1673356560000</v>
+      </c>
+      <c r="B79">
+        <v>1604800</v>
+      </c>
+      <c r="C79">
+        <v>3759400</v>
+      </c>
+      <c r="D79">
+        <v>25800</v>
+      </c>
+      <c r="E79">
+        <v>23913912000</v>
+      </c>
+      <c r="F79">
+        <v>58025042000</v>
+      </c>
+      <c r="G79">
+        <v>334971000</v>
+      </c>
+      <c r="H79">
+        <v>5390000</v>
+      </c>
+      <c r="I79">
+        <v>82273925000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2023-01-10T13:16:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>3669514500000</v>
+      </c>
+      <c r="L79">
+        <v>216403600</v>
+      </c>
+      <c r="M79">
+        <v>2154600</v>
+      </c>
+      <c r="N79">
+        <v>34111130000</v>
+      </c>
+      <c r="O79">
+        <v>-7188900</v>
+      </c>
+      <c r="P79">
+        <v>-31934370000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1673356680000</v>
+      </c>
+      <c r="B80">
+        <v>1388900</v>
+      </c>
+      <c r="C80">
+        <v>6008000</v>
+      </c>
+      <c r="D80">
+        <v>27500</v>
+      </c>
+      <c r="E80">
+        <v>25870964000</v>
+      </c>
+      <c r="F80">
+        <v>108869714000</v>
+      </c>
+      <c r="G80">
+        <v>545985000</v>
+      </c>
+      <c r="H80">
+        <v>7424400</v>
+      </c>
+      <c r="I80">
+        <v>135286663000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2023-01-10T13:18:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>3804801163000</v>
+      </c>
+      <c r="L80">
+        <v>223828000</v>
+      </c>
+      <c r="M80">
+        <v>4619100</v>
+      </c>
+      <c r="N80">
+        <v>82998750000</v>
+      </c>
+      <c r="O80">
+        <v>-2569800</v>
+      </c>
+      <c r="P80">
+        <v>51064380000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1673356800000</v>
+      </c>
+      <c r="B81">
+        <v>1861100</v>
+      </c>
+      <c r="C81">
+        <v>6472600</v>
+      </c>
+      <c r="D81">
+        <v>32300</v>
+      </c>
+      <c r="E81">
+        <v>38740196000</v>
+      </c>
+      <c r="F81">
+        <v>100907145000</v>
+      </c>
+      <c r="G81">
+        <v>813270000</v>
+      </c>
+      <c r="H81">
+        <v>8366000</v>
+      </c>
+      <c r="I81">
+        <v>140460611000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2023-01-10T13:20:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>3945261774000</v>
+      </c>
+      <c r="L81">
+        <v>232194000</v>
+      </c>
+      <c r="M81">
+        <v>4611500</v>
+      </c>
+      <c r="N81">
+        <v>62166949000</v>
+      </c>
+      <c r="O81">
+        <v>2041700</v>
+      </c>
+      <c r="P81">
+        <v>113231329000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1673356920000</v>
+      </c>
+      <c r="B82">
+        <v>3097500</v>
+      </c>
+      <c r="C82">
+        <v>3761000</v>
+      </c>
+      <c r="D82">
+        <v>35700</v>
+      </c>
+      <c r="E82">
+        <v>58064544000</v>
+      </c>
+      <c r="F82">
+        <v>55957550000</v>
+      </c>
+      <c r="G82">
+        <v>797530000</v>
+      </c>
+      <c r="H82">
+        <v>6894200</v>
+      </c>
+      <c r="I82">
+        <v>114819624000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2023-01-10T13:22:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>4060081398000</v>
+      </c>
+      <c r="L82">
+        <v>239088200</v>
+      </c>
+      <c r="M82">
+        <v>663500</v>
+      </c>
+      <c r="N82">
+        <v>-2106994000</v>
+      </c>
+      <c r="O82">
+        <v>2705200</v>
+      </c>
+      <c r="P82">
+        <v>111124335000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1673357040000</v>
+      </c>
+      <c r="B83">
+        <v>2411000</v>
+      </c>
+      <c r="C83">
+        <v>1675600</v>
+      </c>
+      <c r="D83">
+        <v>45500</v>
+      </c>
+      <c r="E83">
+        <v>40399226000</v>
+      </c>
+      <c r="F83">
+        <v>30232939000</v>
+      </c>
+      <c r="G83">
+        <v>428378000</v>
+      </c>
+      <c r="H83">
+        <v>4132100</v>
+      </c>
+      <c r="I83">
+        <v>71060543000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2023-01-10T13:24:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>4131141941000</v>
+      </c>
+      <c r="L83">
+        <v>243220300</v>
+      </c>
+      <c r="M83">
+        <v>-735400</v>
+      </c>
+      <c r="N83">
+        <v>-10166287000</v>
+      </c>
+      <c r="O83">
+        <v>1969800</v>
+      </c>
+      <c r="P83">
+        <v>100958048000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1673357160000</v>
+      </c>
+      <c r="B84">
+        <v>1215500</v>
+      </c>
+      <c r="C84">
+        <v>1125100</v>
+      </c>
+      <c r="D84">
+        <v>12300</v>
+      </c>
+      <c r="E84">
+        <v>24289763000</v>
+      </c>
+      <c r="F84">
+        <v>19794385000</v>
+      </c>
+      <c r="G84">
+        <v>189696000</v>
+      </c>
+      <c r="H84">
+        <v>2352900</v>
+      </c>
+      <c r="I84">
+        <v>44273844000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2023-01-10T13:26:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>4175415785000</v>
+      </c>
+      <c r="L84">
+        <v>245573200</v>
+      </c>
+      <c r="M84">
+        <v>-90400</v>
+      </c>
+      <c r="N84">
+        <v>-4495378000</v>
+      </c>
+      <c r="O84">
+        <v>1879400</v>
+      </c>
+      <c r="P84">
+        <v>96462670000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1673357280000</v>
+      </c>
+      <c r="B85">
+        <v>1615400</v>
+      </c>
+      <c r="C85">
+        <v>1332200</v>
+      </c>
+      <c r="D85">
+        <v>43300</v>
+      </c>
+      <c r="E85">
+        <v>29440737000</v>
+      </c>
+      <c r="F85">
+        <v>22873427000</v>
+      </c>
+      <c r="G85">
+        <v>570132000</v>
+      </c>
+      <c r="H85">
+        <v>2990900</v>
+      </c>
+      <c r="I85">
+        <v>52884296000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2023-01-10T13:28:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>4228300081000</v>
+      </c>
+      <c r="L85">
+        <v>248564100</v>
+      </c>
+      <c r="M85">
+        <v>-283200</v>
+      </c>
+      <c r="N85">
+        <v>-6567310000</v>
+      </c>
+      <c r="O85">
+        <v>1596200</v>
+      </c>
+      <c r="P85">
+        <v>89895360000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1673357400000</v>
+      </c>
+      <c r="B86">
+        <v>1623900</v>
+      </c>
+      <c r="C86">
+        <v>788400</v>
+      </c>
+      <c r="D86">
+        <v>4600</v>
+      </c>
+      <c r="E86">
+        <v>27057000000</v>
+      </c>
+      <c r="F86">
+        <v>14832573000</v>
+      </c>
+      <c r="G86">
+        <v>308300000</v>
+      </c>
+      <c r="H86">
+        <v>2416900</v>
+      </c>
+      <c r="I86">
+        <v>42197873000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2023-01-10T13:30:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>4270497954000</v>
+      </c>
+      <c r="L86">
+        <v>250981000</v>
+      </c>
+      <c r="M86">
+        <v>-835500</v>
+      </c>
+      <c r="N86">
+        <v>-12224427000</v>
+      </c>
+      <c r="O86">
+        <v>760700</v>
+      </c>
+      <c r="P86">
+        <v>77670933000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1673357520000</v>
+      </c>
+      <c r="B87">
+        <v>1534100</v>
+      </c>
+      <c r="C87">
+        <v>1646800</v>
+      </c>
+      <c r="D87">
+        <v>4300</v>
+      </c>
+      <c r="E87">
+        <v>24035430000</v>
+      </c>
+      <c r="F87">
+        <v>29563208000</v>
+      </c>
+      <c r="G87">
+        <v>108125000</v>
+      </c>
+      <c r="H87">
+        <v>3185200</v>
+      </c>
+      <c r="I87">
+        <v>53706763000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2023-01-10T13:32:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>4324204717000</v>
+      </c>
+      <c r="L87">
+        <v>254166200</v>
+      </c>
+      <c r="M87">
+        <v>112700</v>
+      </c>
+      <c r="N87">
+        <v>5527778000</v>
+      </c>
+      <c r="O87">
+        <v>873400</v>
+      </c>
+      <c r="P87">
+        <v>83198711000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1673357640000</v>
+      </c>
+      <c r="B88">
+        <v>1016800</v>
+      </c>
+      <c r="C88">
+        <v>3201800</v>
+      </c>
+      <c r="D88">
+        <v>61400</v>
+      </c>
+      <c r="E88">
+        <v>17983005000</v>
+      </c>
+      <c r="F88">
+        <v>63607537000</v>
+      </c>
+      <c r="G88">
+        <v>956541000</v>
+      </c>
+      <c r="H88">
+        <v>4280000</v>
+      </c>
+      <c r="I88">
+        <v>82547083000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2023-01-10T13:34:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>4406751800000</v>
+      </c>
+      <c r="L88">
+        <v>258446200</v>
+      </c>
+      <c r="M88">
+        <v>2185000</v>
+      </c>
+      <c r="N88">
+        <v>45624532000</v>
+      </c>
+      <c r="O88">
+        <v>3058400</v>
+      </c>
+      <c r="P88">
+        <v>128823243000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1673357760000</v>
+      </c>
+      <c r="B89">
+        <v>868700</v>
+      </c>
+      <c r="C89">
+        <v>3948500</v>
+      </c>
+      <c r="D89">
+        <v>14500</v>
+      </c>
+      <c r="E89">
+        <v>18702953000</v>
+      </c>
+      <c r="F89">
+        <v>67972595000</v>
+      </c>
+      <c r="G89">
+        <v>229774000</v>
+      </c>
+      <c r="H89">
+        <v>4831700</v>
+      </c>
+      <c r="I89">
+        <v>86905322000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2023-01-10T13:36:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>4493657122000</v>
+      </c>
+      <c r="L89">
+        <v>263277900</v>
+      </c>
+      <c r="M89">
+        <v>3079800</v>
+      </c>
+      <c r="N89">
+        <v>49269642000</v>
+      </c>
+      <c r="O89">
+        <v>6138200</v>
+      </c>
+      <c r="P89">
+        <v>178092885000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1673357880000</v>
+      </c>
+      <c r="B90">
+        <v>776400</v>
+      </c>
+      <c r="C90">
+        <v>5358200</v>
+      </c>
+      <c r="D90">
+        <v>21500</v>
+      </c>
+      <c r="E90">
+        <v>12049011000</v>
+      </c>
+      <c r="F90">
+        <v>89459409000</v>
+      </c>
+      <c r="G90">
+        <v>204087000</v>
+      </c>
+      <c r="H90">
+        <v>6156100</v>
+      </c>
+      <c r="I90">
+        <v>101712507000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2023-01-10T13:38:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>4595369629000</v>
+      </c>
+      <c r="L90">
+        <v>269434000</v>
+      </c>
+      <c r="M90">
+        <v>4581800</v>
+      </c>
+      <c r="N90">
+        <v>77410398000</v>
+      </c>
+      <c r="O90">
+        <v>10720000</v>
+      </c>
+      <c r="P90">
+        <v>255503283000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1673358000000</v>
+      </c>
+      <c r="B91">
+        <v>1400100</v>
+      </c>
+      <c r="C91">
+        <v>6519700</v>
+      </c>
+      <c r="D91">
+        <v>19700</v>
+      </c>
+      <c r="E91">
+        <v>29799117000</v>
+      </c>
+      <c r="F91">
+        <v>103823496000</v>
+      </c>
+      <c r="G91">
+        <v>452839000</v>
+      </c>
+      <c r="H91">
+        <v>7939500</v>
+      </c>
+      <c r="I91">
+        <v>134075452000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2023-01-10T13:40:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>4729445081000</v>
+      </c>
+      <c r="L91">
+        <v>277373500</v>
+      </c>
+      <c r="M91">
+        <v>5119600</v>
+      </c>
+      <c r="N91">
+        <v>74024379000</v>
+      </c>
+      <c r="O91">
+        <v>15839600</v>
+      </c>
+      <c r="P91">
+        <v>329527662000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1673358120000</v>
+      </c>
+      <c r="B92">
+        <v>1923100</v>
+      </c>
+      <c r="C92">
+        <v>2313700</v>
+      </c>
+      <c r="D92">
+        <v>6100</v>
+      </c>
+      <c r="E92">
+        <v>32406611000</v>
+      </c>
+      <c r="F92">
+        <v>39230145000</v>
+      </c>
+      <c r="G92">
+        <v>173055000</v>
+      </c>
+      <c r="H92">
+        <v>4242900</v>
+      </c>
+      <c r="I92">
+        <v>71809811000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2023-01-10T13:42:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>4801254892000</v>
+      </c>
+      <c r="L92">
+        <v>281616400</v>
+      </c>
+      <c r="M92">
+        <v>390600</v>
+      </c>
+      <c r="N92">
+        <v>6823534000</v>
+      </c>
+      <c r="O92">
+        <v>16230200</v>
+      </c>
+      <c r="P92">
+        <v>336351196000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1673358240000</v>
+      </c>
+      <c r="B93">
+        <v>1248500</v>
+      </c>
+      <c r="C93">
+        <v>2223600</v>
+      </c>
+      <c r="D93">
+        <v>47300</v>
+      </c>
+      <c r="E93">
+        <v>23538178000</v>
+      </c>
+      <c r="F93">
+        <v>50876139000</v>
+      </c>
+      <c r="G93">
+        <v>672532000</v>
+      </c>
+      <c r="H93">
+        <v>3519400</v>
+      </c>
+      <c r="I93">
+        <v>75086849000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2023-01-10T13:44:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>4876341741000</v>
+      </c>
+      <c r="L93">
+        <v>285135800</v>
+      </c>
+      <c r="M93">
+        <v>975100</v>
+      </c>
+      <c r="N93">
+        <v>27337961000</v>
+      </c>
+      <c r="O93">
+        <v>17205300</v>
+      </c>
+      <c r="P93">
+        <v>363689157000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1673358360000</v>
+      </c>
+      <c r="B94">
+        <v>1268100</v>
+      </c>
+      <c r="C94">
+        <v>4487800</v>
+      </c>
+      <c r="D94">
+        <v>45200</v>
+      </c>
+      <c r="E94">
+        <v>25527575000</v>
+      </c>
+      <c r="F94">
+        <v>88436412000</v>
+      </c>
+      <c r="G94">
+        <v>648953000</v>
+      </c>
+      <c r="H94">
+        <v>5801100</v>
+      </c>
+      <c r="I94">
+        <v>114612940000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2023-01-10T13:46:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>4990954681000</v>
+      </c>
+      <c r="L94">
+        <v>290936900</v>
+      </c>
+      <c r="M94">
+        <v>3219700</v>
+      </c>
+      <c r="N94">
+        <v>62908837000</v>
+      </c>
+      <c r="O94">
+        <v>20425000</v>
+      </c>
+      <c r="P94">
+        <v>426597994000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1673358480000</v>
+      </c>
+      <c r="B95">
+        <v>1907500</v>
+      </c>
+      <c r="C95">
+        <v>4860500</v>
+      </c>
+      <c r="D95">
+        <v>8800</v>
+      </c>
+      <c r="E95">
+        <v>31572151000</v>
+      </c>
+      <c r="F95">
+        <v>84836388000</v>
+      </c>
+      <c r="G95">
+        <v>235320000</v>
+      </c>
+      <c r="H95">
+        <v>6776800</v>
+      </c>
+      <c r="I95">
+        <v>116643859000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2023-01-10T13:48:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>5107598540000</v>
+      </c>
+      <c r="L95">
+        <v>297713700</v>
+      </c>
+      <c r="M95">
+        <v>2953000</v>
+      </c>
+      <c r="N95">
+        <v>53264237000</v>
+      </c>
+      <c r="O95">
+        <v>23378000</v>
+      </c>
+      <c r="P95">
+        <v>479862231000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1673358600000</v>
+      </c>
+      <c r="B96">
+        <v>1761500</v>
+      </c>
+      <c r="C96">
+        <v>5576900</v>
+      </c>
+      <c r="D96">
+        <v>27300</v>
+      </c>
+      <c r="E96">
+        <v>32013479000</v>
+      </c>
+      <c r="F96">
+        <v>107594512000</v>
+      </c>
+      <c r="G96">
+        <v>883671000</v>
+      </c>
+      <c r="H96">
+        <v>7365700</v>
+      </c>
+      <c r="I96">
+        <v>140491662000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2023-01-10T13:50:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>5248090202000</v>
+      </c>
+      <c r="L96">
+        <v>305079400</v>
+      </c>
+      <c r="M96">
+        <v>3815400</v>
+      </c>
+      <c r="N96">
+        <v>75581033000</v>
+      </c>
+      <c r="O96">
+        <v>27193400</v>
+      </c>
+      <c r="P96">
+        <v>555443264000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1673358720000</v>
+      </c>
+      <c r="B97">
+        <v>2585200</v>
+      </c>
+      <c r="C97">
+        <v>3093700</v>
+      </c>
+      <c r="D97">
+        <v>18400</v>
+      </c>
+      <c r="E97">
+        <v>44944716000</v>
+      </c>
+      <c r="F97">
+        <v>52294136000</v>
+      </c>
+      <c r="G97">
+        <v>307034000</v>
+      </c>
+      <c r="H97">
+        <v>5697300</v>
+      </c>
+      <c r="I97">
+        <v>97545886000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2023-01-10T13:52:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>5345636088000</v>
+      </c>
+      <c r="L97">
+        <v>310776700</v>
+      </c>
+      <c r="M97">
+        <v>508500</v>
+      </c>
+      <c r="N97">
+        <v>7349420000</v>
+      </c>
+      <c r="O97">
+        <v>27701900</v>
+      </c>
+      <c r="P97">
+        <v>562792684000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1673358840000</v>
+      </c>
+      <c r="B98">
+        <v>3507500</v>
+      </c>
+      <c r="C98">
+        <v>1221000</v>
+      </c>
+      <c r="D98">
+        <v>23100</v>
+      </c>
+      <c r="E98">
+        <v>63148838000</v>
+      </c>
+      <c r="F98">
+        <v>19857222000</v>
+      </c>
+      <c r="G98">
+        <v>315578000</v>
+      </c>
+      <c r="H98">
+        <v>4751600</v>
+      </c>
+      <c r="I98">
+        <v>83321638000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2023-01-10T13:54:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>5428957726000</v>
+      </c>
+      <c r="L98">
+        <v>315528300</v>
+      </c>
+      <c r="M98">
+        <v>-2286500</v>
+      </c>
+      <c r="N98">
+        <v>-43291616000</v>
+      </c>
+      <c r="O98">
+        <v>25415400</v>
+      </c>
+      <c r="P98">
+        <v>519501068000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1673358960000</v>
+      </c>
+      <c r="B99">
+        <v>4429900</v>
+      </c>
+      <c r="C99">
+        <v>1266900</v>
+      </c>
+      <c r="D99">
+        <v>5200</v>
+      </c>
+      <c r="E99">
+        <v>74961018000</v>
+      </c>
+      <c r="F99">
+        <v>26799807000</v>
+      </c>
+      <c r="G99">
+        <v>45553000</v>
+      </c>
+      <c r="H99">
+        <v>5702000</v>
+      </c>
+      <c r="I99">
+        <v>101806378000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2023-01-10T13:56:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>5530764104000</v>
+      </c>
+      <c r="L99">
+        <v>321230300</v>
+      </c>
+      <c r="M99">
+        <v>-3163000</v>
+      </c>
+      <c r="N99">
+        <v>-48161211000</v>
+      </c>
+      <c r="O99">
+        <v>22252400</v>
+      </c>
+      <c r="P99">
+        <v>471339857000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1673359080000</v>
+      </c>
+      <c r="B100">
+        <v>1648200</v>
+      </c>
+      <c r="C100">
+        <v>2014500</v>
+      </c>
+      <c r="D100">
+        <v>12900</v>
+      </c>
+      <c r="E100">
+        <v>28851811000</v>
+      </c>
+      <c r="F100">
+        <v>42138610000</v>
+      </c>
+      <c r="G100">
+        <v>205859000</v>
+      </c>
+      <c r="H100">
+        <v>3675600</v>
+      </c>
+      <c r="I100">
+        <v>71196280000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2023-01-10T13:58:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>5601960384000</v>
+      </c>
+      <c r="L100">
+        <v>324905900</v>
+      </c>
+      <c r="M100">
+        <v>366300</v>
+      </c>
+      <c r="N100">
+        <v>13286799000</v>
+      </c>
+      <c r="O100">
+        <v>22618700</v>
+      </c>
+      <c r="P100">
+        <v>484626656000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1673359200000</v>
+      </c>
+      <c r="B101">
+        <v>1155800</v>
+      </c>
+      <c r="C101">
+        <v>1765600</v>
+      </c>
+      <c r="D101">
+        <v>10200</v>
+      </c>
+      <c r="E101">
+        <v>19507636000</v>
+      </c>
+      <c r="F101">
+        <v>34113899000</v>
+      </c>
+      <c r="G101">
+        <v>217327000</v>
+      </c>
+      <c r="H101">
+        <v>2931600</v>
+      </c>
+      <c r="I101">
+        <v>53838862000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2023-01-10T14:00:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>5655799246000</v>
+      </c>
+      <c r="L101">
+        <v>327837500</v>
+      </c>
+      <c r="M101">
+        <v>609800</v>
+      </c>
+      <c r="N101">
+        <v>14606263000</v>
+      </c>
+      <c r="O101">
+        <v>23228500</v>
+      </c>
+      <c r="P101">
+        <v>499232919000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1673359320000</v>
+      </c>
+      <c r="B102">
+        <v>2974000</v>
+      </c>
+      <c r="C102">
+        <v>1057000</v>
+      </c>
+      <c r="D102">
+        <v>14900</v>
+      </c>
+      <c r="E102">
+        <v>48796350000</v>
+      </c>
+      <c r="F102">
+        <v>19766798000</v>
+      </c>
+      <c r="G102">
+        <v>173020000</v>
+      </c>
+      <c r="H102">
+        <v>4045900</v>
+      </c>
+      <c r="I102">
+        <v>68736168000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2023-01-10T14:02:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>5724535414000</v>
+      </c>
+      <c r="L102">
+        <v>331883400</v>
+      </c>
+      <c r="M102">
+        <v>-1917000</v>
+      </c>
+      <c r="N102">
+        <v>-29029552000</v>
+      </c>
+      <c r="O102">
+        <v>21311500</v>
+      </c>
+      <c r="P102">
+        <v>470203367000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1673359440000</v>
+      </c>
+      <c r="B103">
+        <v>2395700</v>
+      </c>
+      <c r="C103">
+        <v>1131200</v>
+      </c>
+      <c r="D103">
+        <v>5500</v>
+      </c>
+      <c r="E103">
+        <v>45159258000</v>
+      </c>
+      <c r="F103">
+        <v>22591406000</v>
+      </c>
+      <c r="G103">
+        <v>184500000</v>
+      </c>
+      <c r="H103">
+        <v>3532400</v>
+      </c>
+      <c r="I103">
+        <v>67935164000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2023-01-10T14:04:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>5792470578000</v>
+      </c>
+      <c r="L103">
+        <v>335415800</v>
+      </c>
+      <c r="M103">
+        <v>-1264500</v>
+      </c>
+      <c r="N103">
+        <v>-22567852000</v>
+      </c>
+      <c r="O103">
+        <v>20047000</v>
+      </c>
+      <c r="P103">
+        <v>447635515000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1673359560000</v>
+      </c>
+      <c r="B104">
+        <v>2979300</v>
+      </c>
+      <c r="C104">
+        <v>774500</v>
+      </c>
+      <c r="D104">
+        <v>5400</v>
+      </c>
+      <c r="E104">
+        <v>52999188000</v>
+      </c>
+      <c r="F104">
+        <v>14112745000</v>
+      </c>
+      <c r="G104">
+        <v>233864000</v>
+      </c>
+      <c r="H104">
+        <v>3759200</v>
+      </c>
+      <c r="I104">
+        <v>67345797000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2023-01-10T14:06:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>5859816375000</v>
+      </c>
+      <c r="L104">
+        <v>339175000</v>
+      </c>
+      <c r="M104">
+        <v>-2204800</v>
+      </c>
+      <c r="N104">
+        <v>-38886443000</v>
+      </c>
+      <c r="O104">
+        <v>17842200</v>
+      </c>
+      <c r="P104">
+        <v>408749072000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1673359680000</v>
+      </c>
+      <c r="B105">
+        <v>1905900</v>
+      </c>
+      <c r="C105">
+        <v>1505800</v>
+      </c>
+      <c r="D105">
+        <v>10900</v>
+      </c>
+      <c r="E105">
+        <v>32100282000</v>
+      </c>
+      <c r="F105">
+        <v>26619266000</v>
+      </c>
+      <c r="G105">
+        <v>197745000</v>
+      </c>
+      <c r="H105">
+        <v>3422600</v>
+      </c>
+      <c r="I105">
+        <v>58917293000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2023-01-10T14:08:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>5918733668000</v>
+      </c>
+      <c r="L105">
+        <v>342597600</v>
+      </c>
+      <c r="M105">
+        <v>-400100</v>
+      </c>
+      <c r="N105">
+        <v>-5481016000</v>
+      </c>
+      <c r="O105">
+        <v>17442100</v>
+      </c>
+      <c r="P105">
+        <v>403268056000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1673359800000</v>
+      </c>
+      <c r="B106">
+        <v>926400</v>
+      </c>
+      <c r="C106">
+        <v>1825300</v>
+      </c>
+      <c r="D106">
+        <v>11700</v>
+      </c>
+      <c r="E106">
+        <v>18887440000</v>
+      </c>
+      <c r="F106">
+        <v>33658727000</v>
+      </c>
+      <c r="G106">
+        <v>229835000</v>
+      </c>
+      <c r="H106">
+        <v>2763400</v>
+      </c>
+      <c r="I106">
+        <v>52776002000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2023-01-10T14:10:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>5971509670000</v>
+      </c>
+      <c r="L106">
+        <v>345361000</v>
+      </c>
+      <c r="M106">
+        <v>898900</v>
+      </c>
+      <c r="N106">
+        <v>14771287000</v>
+      </c>
+      <c r="O106">
+        <v>18341000</v>
+      </c>
+      <c r="P106">
+        <v>418039343000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1673359920000</v>
+      </c>
+      <c r="B107">
+        <v>1139100</v>
+      </c>
+      <c r="C107">
+        <v>2555300</v>
+      </c>
+      <c r="D107">
+        <v>13400</v>
+      </c>
+      <c r="E107">
+        <v>20099625000</v>
+      </c>
+      <c r="F107">
+        <v>51687273000</v>
+      </c>
+      <c r="G107">
+        <v>329063000</v>
+      </c>
+      <c r="H107">
+        <v>3707800</v>
+      </c>
+      <c r="I107">
+        <v>72115961000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2023-01-10T14:12:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>6043625631000</v>
+      </c>
+      <c r="L107">
+        <v>349068800</v>
+      </c>
+      <c r="M107">
+        <v>1416200</v>
+      </c>
+      <c r="N107">
+        <v>31587648000</v>
+      </c>
+      <c r="O107">
+        <v>19757200</v>
+      </c>
+      <c r="P107">
+        <v>449626991000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1673360040000</v>
+      </c>
+      <c r="B108">
+        <v>1055900</v>
+      </c>
+      <c r="C108">
+        <v>3974900</v>
+      </c>
+      <c r="D108">
+        <v>36800</v>
+      </c>
+      <c r="E108">
+        <v>21129582000</v>
+      </c>
+      <c r="F108">
+        <v>85465139000</v>
+      </c>
+      <c r="G108">
+        <v>818510000</v>
+      </c>
+      <c r="H108">
+        <v>5067600</v>
+      </c>
+      <c r="I108">
+        <v>107413231000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2023-01-10T14:14:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>6151038862000</v>
+      </c>
+      <c r="L108">
+        <v>354136400</v>
+      </c>
+      <c r="M108">
+        <v>2919000</v>
+      </c>
+      <c r="N108">
+        <v>64335557000</v>
+      </c>
+      <c r="O108">
+        <v>22676200</v>
+      </c>
+      <c r="P108">
+        <v>513962548000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1673360160000</v>
+      </c>
+      <c r="B109">
+        <v>1103700</v>
+      </c>
+      <c r="C109">
+        <v>5836100</v>
+      </c>
+      <c r="D109">
+        <v>100200</v>
+      </c>
+      <c r="E109">
+        <v>21637496000</v>
+      </c>
+      <c r="F109">
+        <v>116131264000</v>
+      </c>
+      <c r="G109">
+        <v>1856603000</v>
+      </c>
+      <c r="H109">
+        <v>7040000</v>
+      </c>
+      <c r="I109">
+        <v>139625363000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2023-01-10T14:16:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>6290664225000</v>
+      </c>
+      <c r="L109">
+        <v>361176400</v>
+      </c>
+      <c r="M109">
+        <v>4732400</v>
+      </c>
+      <c r="N109">
+        <v>94493768000</v>
+      </c>
+      <c r="O109">
+        <v>27408600</v>
+      </c>
+      <c r="P109">
+        <v>608456316000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1673360280000</v>
+      </c>
+      <c r="B110">
+        <v>1824400</v>
+      </c>
+      <c r="C110">
+        <v>1845600</v>
+      </c>
+      <c r="D110">
+        <v>105800</v>
+      </c>
+      <c r="E110">
+        <v>30861479000</v>
+      </c>
+      <c r="F110">
+        <v>38225490000</v>
+      </c>
+      <c r="G110">
+        <v>1847004000</v>
+      </c>
+      <c r="H110">
+        <v>3775800</v>
+      </c>
+      <c r="I110">
+        <v>70933973000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2023-01-10T14:18:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>6361598198000</v>
+      </c>
+      <c r="L110">
+        <v>364952200</v>
+      </c>
+      <c r="M110">
+        <v>21200</v>
+      </c>
+      <c r="N110">
+        <v>7364011000</v>
+      </c>
+      <c r="O110">
+        <v>27429800</v>
+      </c>
+      <c r="P110">
+        <v>615820327000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1673360400000</v>
+      </c>
+      <c r="B111">
+        <v>2052200</v>
+      </c>
+      <c r="C111">
+        <v>1204600</v>
+      </c>
+      <c r="D111">
+        <v>2100</v>
+      </c>
+      <c r="E111">
+        <v>34224931000</v>
+      </c>
+      <c r="F111">
+        <v>22207004000</v>
+      </c>
+      <c r="G111">
+        <v>36862000</v>
+      </c>
+      <c r="H111">
+        <v>3258900</v>
+      </c>
+      <c r="I111">
+        <v>56468797000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2023-01-10T14:20:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>6418066995000</v>
+      </c>
+      <c r="L111">
+        <v>368211100</v>
+      </c>
+      <c r="M111">
+        <v>-847600</v>
+      </c>
+      <c r="N111">
+        <v>-12017927000</v>
+      </c>
+      <c r="O111">
+        <v>26582200</v>
+      </c>
+      <c r="P111">
+        <v>603802400000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1673360520000</v>
+      </c>
+      <c r="B112">
+        <v>2405400</v>
+      </c>
+      <c r="C112">
+        <v>1019500</v>
+      </c>
+      <c r="D112">
+        <v>19900</v>
+      </c>
+      <c r="E112">
+        <v>47568907000</v>
+      </c>
+      <c r="F112">
+        <v>18922293000</v>
+      </c>
+      <c r="G112">
+        <v>534635000</v>
+      </c>
+      <c r="H112">
+        <v>3444800</v>
+      </c>
+      <c r="I112">
+        <v>67025835000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2023-01-10T14:22:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>6485092830000</v>
+      </c>
+      <c r="L112">
+        <v>371655900</v>
+      </c>
+      <c r="M112">
+        <v>-1385900</v>
+      </c>
+      <c r="N112">
+        <v>-28646614000</v>
+      </c>
+      <c r="O112">
+        <v>25196300</v>
+      </c>
+      <c r="P112">
+        <v>575155786000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1673360640000</v>
+      </c>
+      <c r="B113">
+        <v>2483200</v>
+      </c>
+      <c r="C113">
+        <v>1145100</v>
+      </c>
+      <c r="D113">
+        <v>34500</v>
+      </c>
+      <c r="E113">
+        <v>45788984000</v>
+      </c>
+      <c r="F113">
+        <v>24819725000</v>
+      </c>
+      <c r="G113">
+        <v>608060000</v>
+      </c>
+      <c r="H113">
+        <v>3662800</v>
+      </c>
+      <c r="I113">
+        <v>71216769000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2023-01-10T14:24:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>6556309599000</v>
+      </c>
+      <c r="L113">
+        <v>375318700</v>
+      </c>
+      <c r="M113">
+        <v>-1338100</v>
+      </c>
+      <c r="N113">
+        <v>-20969259000</v>
+      </c>
+      <c r="O113">
+        <v>23858200</v>
+      </c>
+      <c r="P113">
+        <v>554186527000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1673360760000</v>
+      </c>
+      <c r="B114">
+        <v>1428800</v>
+      </c>
+      <c r="C114">
+        <v>1411200</v>
+      </c>
+      <c r="D114">
+        <v>3300</v>
+      </c>
+      <c r="E114">
+        <v>28044575000</v>
+      </c>
+      <c r="F114">
+        <v>27363582000</v>
+      </c>
+      <c r="G114">
+        <v>69255000</v>
+      </c>
+      <c r="H114">
+        <v>2843300</v>
+      </c>
+      <c r="I114">
+        <v>55477412000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2023-01-10T14:26:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>6611787011000</v>
+      </c>
+      <c r="L114">
+        <v>378162000</v>
+      </c>
+      <c r="M114">
+        <v>-17600</v>
+      </c>
+      <c r="N114">
+        <v>-680993000</v>
+      </c>
+      <c r="O114">
+        <v>23840600</v>
+      </c>
+      <c r="P114">
+        <v>553505534000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1673360880000</v>
+      </c>
+      <c r="B115">
+        <v>2353200</v>
+      </c>
+      <c r="C115">
+        <v>1491200</v>
+      </c>
+      <c r="D115">
+        <v>19400</v>
+      </c>
+      <c r="E115">
+        <v>41096627000</v>
+      </c>
+      <c r="F115">
+        <v>25610223000</v>
+      </c>
+      <c r="G115">
+        <v>371769000</v>
+      </c>
+      <c r="H115">
+        <v>3863800</v>
+      </c>
+      <c r="I115">
+        <v>67078619000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2023-01-10T14:28:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>6678865630000</v>
+      </c>
+      <c r="L115">
+        <v>382025800</v>
+      </c>
+      <c r="M115">
+        <v>-862000</v>
+      </c>
+      <c r="N115">
+        <v>-15486404000</v>
+      </c>
+      <c r="O115">
+        <v>22978600</v>
+      </c>
+      <c r="P115">
+        <v>538019130000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1673361840000</v>
+      </c>
+      <c r="B116">
         <v>1169900</v>
       </c>
-      <c r="C49">
+      <c r="C116">
         <v>1172300</v>
       </c>
-      <c r="D49">
+      <c r="D116">
         <v>16403100</v>
       </c>
-      <c r="E49">
+      <c r="E116">
         <v>23595518000</v>
       </c>
-      <c r="F49">
+      <c r="F116">
         <v>30284241000</v>
       </c>
-      <c r="G49">
+      <c r="G116">
         <v>321977365000</v>
       </c>
-      <c r="H49">
+      <c r="H116">
         <v>18745300</v>
       </c>
-      <c r="I49">
+      <c r="I116">
         <v>375857124000</v>
       </c>
-      <c r="J49" t="str">
-        <v>2023-01-10T14:45:00.000Z</v>
-      </c>
-      <c r="K49">
+      <c r="J116" t="str">
+        <v>2023-01-10T14:44:00.000Z</v>
+      </c>
+      <c r="K116">
         <v>7054722754000</v>
       </c>
-      <c r="L49">
+      <c r="L116">
         <v>400771100</v>
       </c>
-      <c r="M49">
+      <c r="M116">
         <v>2400</v>
       </c>
-      <c r="N49">
+      <c r="N116">
         <v>6688723000</v>
       </c>
-      <c r="O49">
+      <c r="O116">
         <v>22981000</v>
       </c>
-      <c r="P49">
+      <c r="P116">
         <v>544707853000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P49"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P116"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20230110/VNINDEX_HOSE_5p_20230110.xlsx
+++ b/name/vnindex/20230110/VNINDEX_HOSE_5p_20230110.xlsx
@@ -466,25 +466,25 @@
         <v>787200</v>
       </c>
       <c r="E2">
-        <v>25974835000</v>
+        <v>23687724400</v>
       </c>
       <c r="F2">
-        <v>20764888000</v>
+        <v>16855801000</v>
       </c>
       <c r="G2">
-        <v>11812193000</v>
+        <v>11179726100</v>
       </c>
       <c r="H2">
         <v>4197900</v>
       </c>
       <c r="I2">
-        <v>58551916000</v>
+        <v>51723251500</v>
       </c>
       <c r="J2" t="str">
         <v>2023-01-10T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>58551916000</v>
+        <v>51723251500</v>
       </c>
       <c r="L2">
         <v>4197900</v>
@@ -493,13 +493,13 @@
         <v>-1052900</v>
       </c>
       <c r="N2">
-        <v>-5209947000</v>
+        <v>-6831923400</v>
       </c>
       <c r="O2">
         <v>-1052900</v>
       </c>
       <c r="P2">
-        <v>-5209947000</v>
+        <v>-6831923400</v>
       </c>
     </row>
     <row r="3">
@@ -516,10 +516,10 @@
         <v>3800</v>
       </c>
       <c r="E3">
-        <v>9065106000</v>
+        <v>8687583900</v>
       </c>
       <c r="F3">
-        <v>19732501000</v>
+        <v>15632005600</v>
       </c>
       <c r="G3">
         <v>207370000</v>
@@ -528,13 +528,13 @@
         <v>1756700</v>
       </c>
       <c r="I3">
-        <v>29004977000</v>
+        <v>24526959500</v>
       </c>
       <c r="J3" t="str">
         <v>2023-01-10T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>87556893000</v>
+        <v>76250211000</v>
       </c>
       <c r="L3">
         <v>5954600</v>
@@ -543,13 +543,13 @@
         <v>542100</v>
       </c>
       <c r="N3">
-        <v>10667395000</v>
+        <v>6944421700</v>
       </c>
       <c r="O3">
         <v>-510800</v>
       </c>
       <c r="P3">
-        <v>5457448000</v>
+        <v>112498300</v>
       </c>
     </row>
     <row r="4">
@@ -566,25 +566,25 @@
         <v>17500</v>
       </c>
       <c r="E4">
-        <v>14530085000</v>
+        <v>13358457800</v>
       </c>
       <c r="F4">
-        <v>28941828000</v>
+        <v>27054017700</v>
       </c>
       <c r="G4">
-        <v>563767000</v>
+        <v>542987800</v>
       </c>
       <c r="H4">
         <v>2670600</v>
       </c>
       <c r="I4">
-        <v>44035680000</v>
+        <v>40955463300</v>
       </c>
       <c r="J4" t="str">
         <v>2023-01-10T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>131592573000</v>
+        <v>117205674300</v>
       </c>
       <c r="L4">
         <v>8625200</v>
@@ -593,13 +593,13 @@
         <v>846100</v>
       </c>
       <c r="N4">
-        <v>14411743000</v>
+        <v>13695559900</v>
       </c>
       <c r="O4">
         <v>335300</v>
       </c>
       <c r="P4">
-        <v>19869191000</v>
+        <v>13808058200</v>
       </c>
     </row>
     <row r="5">
@@ -616,10 +616,10 @@
         <v>12700</v>
       </c>
       <c r="E5">
-        <v>16224519000</v>
+        <v>15287357100</v>
       </c>
       <c r="F5">
-        <v>16834026000</v>
+        <v>15266894700</v>
       </c>
       <c r="G5">
         <v>288577000</v>
@@ -628,13 +628,13 @@
         <v>2055300</v>
       </c>
       <c r="I5">
-        <v>33347122000</v>
+        <v>30842828800</v>
       </c>
       <c r="J5" t="str">
         <v>2023-01-10T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>164939695000</v>
+        <v>148048503100</v>
       </c>
       <c r="L5">
         <v>10680500</v>
@@ -643,13 +643,13 @@
         <v>28400</v>
       </c>
       <c r="N5">
-        <v>609507000</v>
+        <v>-20462400</v>
       </c>
       <c r="O5">
         <v>363700</v>
       </c>
       <c r="P5">
-        <v>20478698000</v>
+        <v>13787595800</v>
       </c>
     </row>
     <row r="6">
@@ -666,25 +666,25 @@
         <v>10800</v>
       </c>
       <c r="E6">
-        <v>17754147000</v>
+        <v>15852250800</v>
       </c>
       <c r="F6">
-        <v>11550117000</v>
+        <v>11374193100</v>
       </c>
       <c r="G6">
-        <v>178359000</v>
+        <v>171166200</v>
       </c>
       <c r="H6">
         <v>1857800</v>
       </c>
       <c r="I6">
-        <v>29482623000</v>
+        <v>27397610100</v>
       </c>
       <c r="J6" t="str">
         <v>2023-01-10T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>194422318000</v>
+        <v>175446113200</v>
       </c>
       <c r="L6">
         <v>12538300</v>
@@ -693,13 +693,13 @@
         <v>-333400</v>
       </c>
       <c r="N6">
-        <v>-6204030000</v>
+        <v>-4478057700</v>
       </c>
       <c r="O6">
         <v>30300</v>
       </c>
       <c r="P6">
-        <v>14274668000</v>
+        <v>9309538100</v>
       </c>
     </row>
     <row r="7">
@@ -716,25 +716,25 @@
         <v>22600</v>
       </c>
       <c r="E7">
-        <v>21542943000</v>
+        <v>19236651600</v>
       </c>
       <c r="F7">
-        <v>15657975000</v>
+        <v>14580253800</v>
       </c>
       <c r="G7">
-        <v>535232000</v>
+        <v>472295000</v>
       </c>
       <c r="H7">
         <v>2047900</v>
       </c>
       <c r="I7">
-        <v>37736150000</v>
+        <v>34289200400</v>
       </c>
       <c r="J7" t="str">
         <v>2023-01-10T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>232158468000</v>
+        <v>209735313600</v>
       </c>
       <c r="L7">
         <v>14586200</v>
@@ -743,13 +743,13 @@
         <v>-363100</v>
       </c>
       <c r="N7">
-        <v>-5884968000</v>
+        <v>-4656397800</v>
       </c>
       <c r="O7">
         <v>-332800</v>
       </c>
       <c r="P7">
-        <v>8389700000</v>
+        <v>4653140300</v>
       </c>
     </row>
     <row r="8">
@@ -766,25 +766,25 @@
         <v>28500</v>
       </c>
       <c r="E8">
-        <v>26597300000</v>
+        <v>22213987700</v>
       </c>
       <c r="F8">
-        <v>22273409000</v>
+        <v>18148837700</v>
       </c>
       <c r="G8">
-        <v>519545000</v>
+        <v>475589000</v>
       </c>
       <c r="H8">
         <v>2405400</v>
       </c>
       <c r="I8">
-        <v>49390254000</v>
+        <v>40838414400</v>
       </c>
       <c r="J8" t="str">
         <v>2023-01-10T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>281548722000</v>
+        <v>250573728000</v>
       </c>
       <c r="L8">
         <v>16991600</v>
@@ -793,13 +793,13 @@
         <v>-533900</v>
       </c>
       <c r="N8">
-        <v>-4323891000</v>
+        <v>-4065150000</v>
       </c>
       <c r="O8">
         <v>-866700</v>
       </c>
       <c r="P8">
-        <v>4065809000</v>
+        <v>587990300</v>
       </c>
     </row>
     <row r="9">
@@ -816,25 +816,25 @@
         <v>14000</v>
       </c>
       <c r="E9">
-        <v>30756400000</v>
+        <v>28557601000</v>
       </c>
       <c r="F9">
-        <v>17072364000</v>
+        <v>13457982000</v>
       </c>
       <c r="G9">
-        <v>330702000</v>
+        <v>280752000</v>
       </c>
       <c r="H9">
         <v>2721400</v>
       </c>
       <c r="I9">
-        <v>48159466000</v>
+        <v>42296335000</v>
       </c>
       <c r="J9" t="str">
         <v>2023-01-10T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>329708188000</v>
+        <v>292870063000</v>
       </c>
       <c r="L9">
         <v>19713000</v>
@@ -843,13 +843,13 @@
         <v>-1025600</v>
       </c>
       <c r="N9">
-        <v>-13684036000</v>
+        <v>-15099619000</v>
       </c>
       <c r="O9">
         <v>-1892300</v>
       </c>
       <c r="P9">
-        <v>-9618227000</v>
+        <v>-14511628700</v>
       </c>
     </row>
     <row r="10">
@@ -866,25 +866,25 @@
         <v>29600</v>
       </c>
       <c r="E10">
-        <v>26582841000</v>
+        <v>22183644600</v>
       </c>
       <c r="F10">
-        <v>24308168000</v>
+        <v>20398381700</v>
       </c>
       <c r="G10">
-        <v>418068000</v>
+        <v>412673400</v>
       </c>
       <c r="H10">
         <v>2740800</v>
       </c>
       <c r="I10">
-        <v>51309077000</v>
+        <v>42994699700</v>
       </c>
       <c r="J10" t="str">
         <v>2023-01-10T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>381017265000</v>
+        <v>335864762700</v>
       </c>
       <c r="L10">
         <v>22453800</v>
@@ -893,13 +893,13 @@
         <v>-310200</v>
       </c>
       <c r="N10">
-        <v>-2274673000</v>
+        <v>-1785262900</v>
       </c>
       <c r="O10">
         <v>-2202500</v>
       </c>
       <c r="P10">
-        <v>-11892900000</v>
+        <v>-16296891600</v>
       </c>
     </row>
     <row r="11">
@@ -916,25 +916,25 @@
         <v>5700</v>
       </c>
       <c r="E11">
-        <v>16756186000</v>
+        <v>13619226100</v>
       </c>
       <c r="F11">
-        <v>16179701000</v>
+        <v>13829753300</v>
       </c>
       <c r="G11">
-        <v>105375000</v>
+        <v>65415000</v>
       </c>
       <c r="H11">
         <v>1864300</v>
       </c>
       <c r="I11">
-        <v>33041262000</v>
+        <v>27514394400</v>
       </c>
       <c r="J11" t="str">
         <v>2023-01-10T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>414058527000</v>
+        <v>363379157100</v>
       </c>
       <c r="L11">
         <v>24318100</v>
@@ -943,13 +943,13 @@
         <v>-132000</v>
       </c>
       <c r="N11">
-        <v>-576485000</v>
+        <v>210527200</v>
       </c>
       <c r="O11">
         <v>-2334500</v>
       </c>
       <c r="P11">
-        <v>-12469385000</v>
+        <v>-16086364400</v>
       </c>
     </row>
     <row r="12">
@@ -966,25 +966,25 @@
         <v>17900</v>
       </c>
       <c r="E12">
-        <v>13837554000</v>
+        <v>11609784000</v>
       </c>
       <c r="F12">
-        <v>15655988000</v>
+        <v>12915731000</v>
       </c>
       <c r="G12">
-        <v>396841000</v>
+        <v>391046800</v>
       </c>
       <c r="H12">
         <v>1626000</v>
       </c>
       <c r="I12">
-        <v>29890383000</v>
+        <v>24916561800</v>
       </c>
       <c r="J12" t="str">
         <v>2023-01-10T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>443948910000</v>
+        <v>388295718900</v>
       </c>
       <c r="L12">
         <v>25944100</v>
@@ -993,13 +993,13 @@
         <v>-13100</v>
       </c>
       <c r="N12">
-        <v>1818434000</v>
+        <v>1305947000</v>
       </c>
       <c r="O12">
         <v>-2347600</v>
       </c>
       <c r="P12">
-        <v>-10650951000</v>
+        <v>-14780417400</v>
       </c>
     </row>
     <row r="13">
@@ -1016,25 +1016,25 @@
         <v>26800</v>
       </c>
       <c r="E13">
-        <v>10260965000</v>
+        <v>9559966700</v>
       </c>
       <c r="F13">
-        <v>23792976000</v>
+        <v>22347323100</v>
       </c>
       <c r="G13">
-        <v>309988000</v>
+        <v>264034000</v>
       </c>
       <c r="H13">
         <v>1811600</v>
       </c>
       <c r="I13">
-        <v>34363929000</v>
+        <v>32171323800</v>
       </c>
       <c r="J13" t="str">
         <v>2023-01-10T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>478312839000</v>
+        <v>420467042700</v>
       </c>
       <c r="L13">
         <v>27755700</v>
@@ -1043,13 +1043,13 @@
         <v>619200</v>
       </c>
       <c r="N13">
-        <v>13532011000</v>
+        <v>12787356400</v>
       </c>
       <c r="O13">
         <v>-1728400</v>
       </c>
       <c r="P13">
-        <v>2881060000</v>
+        <v>-1993061000</v>
       </c>
     </row>
     <row r="14">
@@ -1066,10 +1066,10 @@
         <v>6800</v>
       </c>
       <c r="E14">
-        <v>18753392000</v>
+        <v>18051494600</v>
       </c>
       <c r="F14">
-        <v>23900165000</v>
+        <v>17747523800</v>
       </c>
       <c r="G14">
         <v>197960000</v>
@@ -1078,13 +1078,13 @@
         <v>2231100</v>
       </c>
       <c r="I14">
-        <v>42851517000</v>
+        <v>35996978400</v>
       </c>
       <c r="J14" t="str">
         <v>2023-01-10T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>521164356000</v>
+        <v>456464021100</v>
       </c>
       <c r="L14">
         <v>29986800</v>
@@ -1093,13 +1093,13 @@
         <v>289500</v>
       </c>
       <c r="N14">
-        <v>5146773000</v>
+        <v>-303970800</v>
       </c>
       <c r="O14">
         <v>-1438900</v>
       </c>
       <c r="P14">
-        <v>8027833000</v>
+        <v>-2297031800</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>200</v>
       </c>
       <c r="E15">
-        <v>11171109000</v>
+        <v>8932250100</v>
       </c>
       <c r="F15">
-        <v>16284280000</v>
+        <v>14893372300</v>
       </c>
       <c r="G15">
         <v>4100000</v>
@@ -1128,13 +1128,13 @@
         <v>1625100</v>
       </c>
       <c r="I15">
-        <v>27459489000</v>
+        <v>23829722400</v>
       </c>
       <c r="J15" t="str">
         <v>2023-01-10T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>548623845000</v>
+        <v>480293743500</v>
       </c>
       <c r="L15">
         <v>31611900</v>
@@ -1143,13 +1143,13 @@
         <v>400900</v>
       </c>
       <c r="N15">
-        <v>5113171000</v>
+        <v>5961122200</v>
       </c>
       <c r="O15">
         <v>-1038000</v>
       </c>
       <c r="P15">
-        <v>13141004000</v>
+        <v>3664090400</v>
       </c>
     </row>
     <row r="16">
@@ -1166,25 +1166,25 @@
         <v>16900</v>
       </c>
       <c r="E16">
-        <v>20618619000</v>
+        <v>16038703500</v>
       </c>
       <c r="F16">
-        <v>16107413000</v>
+        <v>12763160600</v>
       </c>
       <c r="G16">
-        <v>230542000</v>
+        <v>191980600</v>
       </c>
       <c r="H16">
         <v>1961100</v>
       </c>
       <c r="I16">
-        <v>36956574000</v>
+        <v>28993844700</v>
       </c>
       <c r="J16" t="str">
         <v>2023-01-10T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>585580419000</v>
+        <v>509287588200</v>
       </c>
       <c r="L16">
         <v>33573000</v>
@@ -1193,13 +1193,13 @@
         <v>-65000</v>
       </c>
       <c r="N16">
-        <v>-4511206000</v>
+        <v>-3275542900</v>
       </c>
       <c r="O16">
         <v>-1103000</v>
       </c>
       <c r="P16">
-        <v>8629798000</v>
+        <v>388547500</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>31000</v>
       </c>
       <c r="E17">
-        <v>20665892000</v>
+        <v>16888573100</v>
       </c>
       <c r="F17">
-        <v>16734975000</v>
+        <v>15037474200</v>
       </c>
       <c r="G17">
         <v>414631000</v>
@@ -1228,13 +1228,13 @@
         <v>1894500</v>
       </c>
       <c r="I17">
-        <v>37815498000</v>
+        <v>32340678300</v>
       </c>
       <c r="J17" t="str">
         <v>2023-01-10T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>623395917000</v>
+        <v>541628266500</v>
       </c>
       <c r="L17">
         <v>35467500</v>
@@ -1243,13 +1243,13 @@
         <v>-358100</v>
       </c>
       <c r="N17">
-        <v>-3930917000</v>
+        <v>-1851098900</v>
       </c>
       <c r="O17">
         <v>-1461100</v>
       </c>
       <c r="P17">
-        <v>4698881000</v>
+        <v>-1462551400</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>10100</v>
       </c>
       <c r="E18">
-        <v>25473512000</v>
+        <v>18050642300</v>
       </c>
       <c r="F18">
-        <v>13897925000</v>
+        <v>13283140400</v>
       </c>
       <c r="G18">
         <v>129520000</v>
@@ -1278,13 +1278,13 @@
         <v>2139800</v>
       </c>
       <c r="I18">
-        <v>39500957000</v>
+        <v>31463302700</v>
       </c>
       <c r="J18" t="str">
         <v>2023-01-10T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>662896874000</v>
+        <v>573091569200</v>
       </c>
       <c r="L18">
         <v>37607300</v>
@@ -1293,13 +1293,13 @@
         <v>-438900</v>
       </c>
       <c r="N18">
-        <v>-11575587000</v>
+        <v>-4767501900</v>
       </c>
       <c r="O18">
         <v>-1900000</v>
       </c>
       <c r="P18">
-        <v>-6876706000</v>
+        <v>-6230053300</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>18500</v>
       </c>
       <c r="E19">
-        <v>24903330000</v>
+        <v>23216818200</v>
       </c>
       <c r="F19">
-        <v>14326383000</v>
+        <v>13481728500</v>
       </c>
       <c r="G19">
         <v>244211000</v>
@@ -1328,13 +1328,13 @@
         <v>2309500</v>
       </c>
       <c r="I19">
-        <v>39473924000</v>
+        <v>36942757700</v>
       </c>
       <c r="J19" t="str">
         <v>2023-01-10T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>702370798000</v>
+        <v>610034326900</v>
       </c>
       <c r="L19">
         <v>39916800</v>
@@ -1343,13 +1343,13 @@
         <v>-818800</v>
       </c>
       <c r="N19">
-        <v>-10576947000</v>
+        <v>-9735089700</v>
       </c>
       <c r="O19">
         <v>-2718800</v>
       </c>
       <c r="P19">
-        <v>-17453653000</v>
+        <v>-15965143000</v>
       </c>
     </row>
     <row r="20">
@@ -1366,25 +1366,25 @@
         <v>7600</v>
       </c>
       <c r="E20">
-        <v>19262806000</v>
+        <v>17178892000</v>
       </c>
       <c r="F20">
-        <v>19196656000</v>
+        <v>17209645000</v>
       </c>
       <c r="G20">
-        <v>112780000</v>
+        <v>80312500</v>
       </c>
       <c r="H20">
         <v>2081500</v>
       </c>
       <c r="I20">
-        <v>38572242000</v>
+        <v>34468849500</v>
       </c>
       <c r="J20" t="str">
         <v>2023-01-10T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>740943040000</v>
+        <v>644503176400</v>
       </c>
       <c r="L20">
         <v>41998300</v>
@@ -1393,13 +1393,13 @@
         <v>-136500</v>
       </c>
       <c r="N20">
-        <v>-66150000</v>
+        <v>30753000</v>
       </c>
       <c r="O20">
         <v>-2855300</v>
       </c>
       <c r="P20">
-        <v>-17519803000</v>
+        <v>-15934390000</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>51000</v>
       </c>
       <c r="E21">
-        <v>34216158000</v>
+        <v>31927948500</v>
       </c>
       <c r="F21">
-        <v>13563370000</v>
+        <v>11510025400</v>
       </c>
       <c r="G21">
         <v>700296000</v>
@@ -1428,13 +1428,13 @@
         <v>2654800</v>
       </c>
       <c r="I21">
-        <v>48479824000</v>
+        <v>44138269900</v>
       </c>
       <c r="J21" t="str">
         <v>2023-01-10T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>789422864000</v>
+        <v>688641446300</v>
       </c>
       <c r="L21">
         <v>44653100</v>
@@ -1443,13 +1443,13 @@
         <v>-1341400</v>
       </c>
       <c r="N21">
-        <v>-20652788000</v>
+        <v>-20417923100</v>
       </c>
       <c r="O21">
         <v>-4196700</v>
       </c>
       <c r="P21">
-        <v>-38172591000</v>
+        <v>-36352313100</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>24900</v>
       </c>
       <c r="E22">
-        <v>36768946000</v>
+        <v>35442673600</v>
       </c>
       <c r="F22">
-        <v>12022800000</v>
+        <v>10520204100</v>
       </c>
       <c r="G22">
         <v>342587000</v>
@@ -1478,13 +1478,13 @@
         <v>2866100</v>
       </c>
       <c r="I22">
-        <v>49134333000</v>
+        <v>46305464700</v>
       </c>
       <c r="J22" t="str">
         <v>2023-01-10T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>838557197000</v>
+        <v>734946911000</v>
       </c>
       <c r="L22">
         <v>47519200</v>
@@ -1493,13 +1493,13 @@
         <v>-1580400</v>
       </c>
       <c r="N22">
-        <v>-24746146000</v>
+        <v>-24922469500</v>
       </c>
       <c r="O22">
         <v>-5777100</v>
       </c>
       <c r="P22">
-        <v>-62918737000</v>
+        <v>-61274782600</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>2300</v>
       </c>
       <c r="E23">
-        <v>43203009000</v>
+        <v>40945069200</v>
       </c>
       <c r="F23">
-        <v>13023628000</v>
+        <v>12498353800</v>
       </c>
       <c r="G23">
         <v>34685000</v>
@@ -1528,13 +1528,13 @@
         <v>3630400</v>
       </c>
       <c r="I23">
-        <v>56261322000</v>
+        <v>53478108000</v>
       </c>
       <c r="J23" t="str">
         <v>2023-01-10T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>894818519000</v>
+        <v>788425019000</v>
       </c>
       <c r="L23">
         <v>51149600</v>
@@ -1543,13 +1543,13 @@
         <v>-2146100</v>
       </c>
       <c r="N23">
-        <v>-30179381000</v>
+        <v>-28446715400</v>
       </c>
       <c r="O23">
         <v>-7923200</v>
       </c>
       <c r="P23">
-        <v>-93098118000</v>
+        <v>-89721498000</v>
       </c>
     </row>
     <row r="24">
@@ -1566,25 +1566,25 @@
         <v>25000</v>
       </c>
       <c r="E24">
-        <v>26006235000</v>
+        <v>22798545900</v>
       </c>
       <c r="F24">
-        <v>12157432000</v>
+        <v>11220969400</v>
       </c>
       <c r="G24">
-        <v>290429000</v>
+        <v>265254200</v>
       </c>
       <c r="H24">
         <v>2469200</v>
       </c>
       <c r="I24">
-        <v>38454096000</v>
+        <v>34284769500</v>
       </c>
       <c r="J24" t="str">
         <v>2023-01-10T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>933272615000</v>
+        <v>822709788500</v>
       </c>
       <c r="L24">
         <v>53618800</v>
@@ -1593,13 +1593,13 @@
         <v>-954200</v>
       </c>
       <c r="N24">
-        <v>-13848803000</v>
+        <v>-11577576500</v>
       </c>
       <c r="O24">
         <v>-8877400</v>
       </c>
       <c r="P24">
-        <v>-106946921000</v>
+        <v>-101299074500</v>
       </c>
     </row>
     <row r="25">
@@ -1616,10 +1616,10 @@
         <v>6100</v>
       </c>
       <c r="E25">
-        <v>17466548000</v>
+        <v>15869246900</v>
       </c>
       <c r="F25">
-        <v>12165848000</v>
+        <v>9104212700</v>
       </c>
       <c r="G25">
         <v>84987000</v>
@@ -1628,13 +1628,13 @@
         <v>1749900</v>
       </c>
       <c r="I25">
-        <v>29717383000</v>
+        <v>25058446600</v>
       </c>
       <c r="J25" t="str">
         <v>2023-01-10T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>962989998000</v>
+        <v>847768235100</v>
       </c>
       <c r="L25">
         <v>55368700</v>
@@ -1643,13 +1643,13 @@
         <v>-402800</v>
       </c>
       <c r="N25">
-        <v>-5300700000</v>
+        <v>-6765034200</v>
       </c>
       <c r="O25">
         <v>-9280200</v>
       </c>
       <c r="P25">
-        <v>-112247621000</v>
+        <v>-108064108700</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>4800</v>
       </c>
       <c r="E26">
-        <v>27055732000</v>
+        <v>23534356900</v>
       </c>
       <c r="F26">
-        <v>11506037000</v>
+        <v>10614529400</v>
       </c>
       <c r="G26">
         <v>120399000</v>
@@ -1678,13 +1678,13 @@
         <v>2263800</v>
       </c>
       <c r="I26">
-        <v>38682168000</v>
+        <v>34269285300</v>
       </c>
       <c r="J26" t="str">
         <v>2023-01-10T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>1001672166000</v>
+        <v>882037520400</v>
       </c>
       <c r="L26">
         <v>57632500</v>
@@ -1693,13 +1693,13 @@
         <v>-1060200</v>
       </c>
       <c r="N26">
-        <v>-15549695000</v>
+        <v>-12919827500</v>
       </c>
       <c r="O26">
         <v>-10340400</v>
       </c>
       <c r="P26">
-        <v>-127797316000</v>
+        <v>-120983936200</v>
       </c>
     </row>
     <row r="27">
@@ -1716,25 +1716,25 @@
         <v>7900</v>
       </c>
       <c r="E27">
-        <v>31332265000</v>
+        <v>27591609400</v>
       </c>
       <c r="F27">
-        <v>12005607000</v>
+        <v>11081831700</v>
       </c>
       <c r="G27">
-        <v>67112000</v>
+        <v>59619500</v>
       </c>
       <c r="H27">
         <v>2867900</v>
       </c>
       <c r="I27">
-        <v>43404984000</v>
+        <v>38733060600</v>
       </c>
       <c r="J27" t="str">
         <v>2023-01-10T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>1045077150000</v>
+        <v>920770581000</v>
       </c>
       <c r="L27">
         <v>60500400</v>
@@ -1743,13 +1743,13 @@
         <v>-1558600</v>
       </c>
       <c r="N27">
-        <v>-19326658000</v>
+        <v>-16509777700</v>
       </c>
       <c r="O27">
         <v>-11899000</v>
       </c>
       <c r="P27">
-        <v>-147123974000</v>
+        <v>-137493713900</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>2100</v>
       </c>
       <c r="E28">
-        <v>34939983000</v>
+        <v>31249577100</v>
       </c>
       <c r="F28">
-        <v>13175923000</v>
+        <v>11625974500</v>
       </c>
       <c r="G28">
         <v>33580000</v>
@@ -1778,13 +1778,13 @@
         <v>2870000</v>
       </c>
       <c r="I28">
-        <v>48149486000</v>
+        <v>42909131600</v>
       </c>
       <c r="J28" t="str">
         <v>2023-01-10T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>1093226636000</v>
+        <v>963679712600</v>
       </c>
       <c r="L28">
         <v>63370400</v>
@@ -1793,13 +1793,13 @@
         <v>-1469100</v>
       </c>
       <c r="N28">
-        <v>-21764060000</v>
+        <v>-19623602600</v>
       </c>
       <c r="O28">
         <v>-13368100</v>
       </c>
       <c r="P28">
-        <v>-168888034000</v>
+        <v>-157117316500</v>
       </c>
     </row>
     <row r="29">
@@ -1816,25 +1816,25 @@
         <v>7700</v>
       </c>
       <c r="E29">
-        <v>22758909000</v>
+        <v>19572898200</v>
       </c>
       <c r="F29">
-        <v>16161317000</v>
+        <v>14618561300</v>
       </c>
       <c r="G29">
-        <v>113061000</v>
+        <v>102671400</v>
       </c>
       <c r="H29">
         <v>2168900</v>
       </c>
       <c r="I29">
-        <v>39033287000</v>
+        <v>34294130900</v>
       </c>
       <c r="J29" t="str">
         <v>2023-01-10T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>1132259923000</v>
+        <v>997973843500</v>
       </c>
       <c r="L29">
         <v>65539300</v>
@@ -1843,13 +1843,13 @@
         <v>-644200</v>
       </c>
       <c r="N29">
-        <v>-6597592000</v>
+        <v>-4954336900</v>
       </c>
       <c r="O29">
         <v>-14012300</v>
       </c>
       <c r="P29">
-        <v>-175485626000</v>
+        <v>-162071653400</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>9700</v>
       </c>
       <c r="E30">
-        <v>20025210000</v>
+        <v>18551485200</v>
       </c>
       <c r="F30">
-        <v>17730039000</v>
+        <v>14698573500</v>
       </c>
       <c r="G30">
         <v>168133000</v>
@@ -1878,13 +1878,13 @@
         <v>2026200</v>
       </c>
       <c r="I30">
-        <v>37923382000</v>
+        <v>33418191700</v>
       </c>
       <c r="J30" t="str">
         <v>2023-01-10T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>1170183305000</v>
+        <v>1031392035200</v>
       </c>
       <c r="L30">
         <v>67565500</v>
@@ -1893,13 +1893,13 @@
         <v>10300</v>
       </c>
       <c r="N30">
-        <v>-2295171000</v>
+        <v>-3852911700</v>
       </c>
       <c r="O30">
         <v>-14002000</v>
       </c>
       <c r="P30">
-        <v>-177780797000</v>
+        <v>-165924565100</v>
       </c>
     </row>
     <row r="31">
@@ -1916,25 +1916,25 @@
         <v>6300</v>
       </c>
       <c r="E31">
-        <v>23339510000</v>
+        <v>22868081900</v>
       </c>
       <c r="F31">
-        <v>17227425000</v>
+        <v>15761492400</v>
       </c>
       <c r="G31">
-        <v>211381000</v>
+        <v>19672900</v>
       </c>
       <c r="H31">
         <v>2228700</v>
       </c>
       <c r="I31">
-        <v>40778316000</v>
+        <v>38649247200</v>
       </c>
       <c r="J31" t="str">
         <v>2023-01-10T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>1210961621000</v>
+        <v>1070041282400</v>
       </c>
       <c r="L31">
         <v>69794200</v>
@@ -1943,13 +1943,13 @@
         <v>-389200</v>
       </c>
       <c r="N31">
-        <v>-6112085000</v>
+        <v>-7106589500</v>
       </c>
       <c r="O31">
         <v>-14391200</v>
       </c>
       <c r="P31">
-        <v>-183892882000</v>
+        <v>-173031154600</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>2200</v>
       </c>
       <c r="E32">
-        <v>17982751000</v>
+        <v>16496738500</v>
       </c>
       <c r="F32">
-        <v>16215461000</v>
+        <v>14775002900</v>
       </c>
       <c r="G32">
         <v>71160000</v>
@@ -1978,13 +1978,13 @@
         <v>1998800</v>
       </c>
       <c r="I32">
-        <v>34269372000</v>
+        <v>31342901400</v>
       </c>
       <c r="J32" t="str">
         <v>2023-01-10T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>1245230993000</v>
+        <v>1101384183800</v>
       </c>
       <c r="L32">
         <v>71793000</v>
@@ -1993,13 +1993,13 @@
         <v>-290400</v>
       </c>
       <c r="N32">
-        <v>-1767290000</v>
+        <v>-1721735600</v>
       </c>
       <c r="O32">
         <v>-14681600</v>
       </c>
       <c r="P32">
-        <v>-185660172000</v>
+        <v>-174752890200</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>23400</v>
       </c>
       <c r="E33">
-        <v>22985054000</v>
+        <v>19905236900</v>
       </c>
       <c r="F33">
-        <v>14519213000</v>
+        <v>13092541100</v>
       </c>
       <c r="G33">
         <v>265176000</v>
@@ -2028,13 +2028,13 @@
         <v>2088500</v>
       </c>
       <c r="I33">
-        <v>37769443000</v>
+        <v>33262954000</v>
       </c>
       <c r="J33" t="str">
         <v>2023-01-10T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>1283000436000</v>
+        <v>1134647137800</v>
       </c>
       <c r="L33">
         <v>73881500</v>
@@ -2043,13 +2043,13 @@
         <v>-605100</v>
       </c>
       <c r="N33">
-        <v>-8465841000</v>
+        <v>-6812695800</v>
       </c>
       <c r="O33">
         <v>-15286700</v>
       </c>
       <c r="P33">
-        <v>-194126013000</v>
+        <v>-181565586000</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>18700</v>
       </c>
       <c r="E34">
-        <v>46991373000</v>
+        <v>41916053400</v>
       </c>
       <c r="F34">
-        <v>14585018000</v>
+        <v>14018085500</v>
       </c>
       <c r="G34">
         <v>232395000</v>
@@ -2078,13 +2078,13 @@
         <v>3403500</v>
       </c>
       <c r="I34">
-        <v>61808786000</v>
+        <v>56166533900</v>
       </c>
       <c r="J34" t="str">
         <v>2023-01-10T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>1344809222000</v>
+        <v>1190813671700</v>
       </c>
       <c r="L34">
         <v>77285000</v>
@@ -2093,13 +2093,13 @@
         <v>-1972600</v>
       </c>
       <c r="N34">
-        <v>-32406355000</v>
+        <v>-27897967900</v>
       </c>
       <c r="O34">
         <v>-17259300</v>
       </c>
       <c r="P34">
-        <v>-226532368000</v>
+        <v>-209463553900</v>
       </c>
     </row>
     <row r="35">
@@ -2116,10 +2116,10 @@
         <v>7600</v>
       </c>
       <c r="E35">
-        <v>29298832000</v>
+        <v>27584248300</v>
       </c>
       <c r="F35">
-        <v>35283097000</v>
+        <v>32671910800</v>
       </c>
       <c r="G35">
         <v>134199000</v>
@@ -2128,13 +2128,13 @@
         <v>3335900</v>
       </c>
       <c r="I35">
-        <v>64716128000</v>
+        <v>60390358100</v>
       </c>
       <c r="J35" t="str">
         <v>2023-01-10T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>1409525350000</v>
+        <v>1251204029800</v>
       </c>
       <c r="L35">
         <v>80620900</v>
@@ -2143,13 +2143,13 @@
         <v>-313500</v>
       </c>
       <c r="N35">
-        <v>5984265000</v>
+        <v>5087662500</v>
       </c>
       <c r="O35">
         <v>-17572800</v>
       </c>
       <c r="P35">
-        <v>-220548103000</v>
+        <v>-204375891400</v>
       </c>
     </row>
     <row r="36">
@@ -2166,25 +2166,25 @@
         <v>14400</v>
       </c>
       <c r="E36">
-        <v>18190215000</v>
+        <v>17281624500</v>
       </c>
       <c r="F36">
-        <v>17135340000</v>
+        <v>15572204700</v>
       </c>
       <c r="G36">
-        <v>466247000</v>
+        <v>146966600</v>
       </c>
       <c r="H36">
         <v>2180000</v>
       </c>
       <c r="I36">
-        <v>35791802000</v>
+        <v>33000795800</v>
       </c>
       <c r="J36" t="str">
         <v>2023-01-10T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>1445317152000</v>
+        <v>1284204825600</v>
       </c>
       <c r="L36">
         <v>82800900</v>
@@ -2193,13 +2193,13 @@
         <v>3800</v>
       </c>
       <c r="N36">
-        <v>-1054875000</v>
+        <v>-1709419800</v>
       </c>
       <c r="O36">
         <v>-17569000</v>
       </c>
       <c r="P36">
-        <v>-221602978000</v>
+        <v>-206085311200</v>
       </c>
     </row>
     <row r="37">
@@ -2216,25 +2216,25 @@
         <v>37400</v>
       </c>
       <c r="E37">
-        <v>15155963000</v>
+        <v>14407512200</v>
       </c>
       <c r="F37">
-        <v>10433471000</v>
+        <v>10221483200</v>
       </c>
       <c r="G37">
-        <v>468045000</v>
+        <v>465447600</v>
       </c>
       <c r="H37">
         <v>1663700</v>
       </c>
       <c r="I37">
-        <v>26057479000</v>
+        <v>25094443000</v>
       </c>
       <c r="J37" t="str">
         <v>2023-01-10T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>1471374631000</v>
+        <v>1309299268600</v>
       </c>
       <c r="L37">
         <v>84464600</v>
@@ -2243,13 +2243,13 @@
         <v>-331500</v>
       </c>
       <c r="N37">
-        <v>-4722492000</v>
+        <v>-4186029000</v>
       </c>
       <c r="O37">
         <v>-17900500</v>
       </c>
       <c r="P37">
-        <v>-226325470000</v>
+        <v>-210271340200</v>
       </c>
     </row>
     <row r="38">
@@ -2266,25 +2266,25 @@
         <v>37200</v>
       </c>
       <c r="E38">
-        <v>15219659000</v>
+        <v>15041237600</v>
       </c>
       <c r="F38">
-        <v>14178814000</v>
+        <v>13423470100</v>
       </c>
       <c r="G38">
-        <v>748841000</v>
+        <v>541049000</v>
       </c>
       <c r="H38">
         <v>1733800</v>
       </c>
       <c r="I38">
-        <v>30147314000</v>
+        <v>29005756700</v>
       </c>
       <c r="J38" t="str">
         <v>2023-01-10T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>1501521945000</v>
+        <v>1338305025300</v>
       </c>
       <c r="L38">
         <v>86198400</v>
@@ -2293,13 +2293,13 @@
         <v>-209200</v>
       </c>
       <c r="N38">
-        <v>-1040845000</v>
+        <v>-1617767500</v>
       </c>
       <c r="O38">
         <v>-18109700</v>
       </c>
       <c r="P38">
-        <v>-227366315000</v>
+        <v>-211889107700</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>18200</v>
       </c>
       <c r="E39">
-        <v>10340058000</v>
+        <v>8788111500</v>
       </c>
       <c r="F39">
-        <v>25898036000</v>
+        <v>24874760300</v>
       </c>
       <c r="G39">
         <v>375621000</v>
@@ -2328,13 +2328,13 @@
         <v>1811600</v>
       </c>
       <c r="I39">
-        <v>36613715000</v>
+        <v>34038492800</v>
       </c>
       <c r="J39" t="str">
         <v>2023-01-10T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>1538135660000</v>
+        <v>1372343518100</v>
       </c>
       <c r="L39">
         <v>88010000</v>
@@ -2343,13 +2343,13 @@
         <v>601000</v>
       </c>
       <c r="N39">
-        <v>15557978000</v>
+        <v>16086648800</v>
       </c>
       <c r="O39">
         <v>-17508700</v>
       </c>
       <c r="P39">
-        <v>-211808337000</v>
+        <v>-195802458900</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>16600</v>
       </c>
       <c r="E40">
-        <v>11082491000</v>
+        <v>10767406400</v>
       </c>
       <c r="F40">
-        <v>29246916000</v>
+        <v>25096470600</v>
       </c>
       <c r="G40">
         <v>99705000</v>
@@ -2378,13 +2378,13 @@
         <v>2071800</v>
       </c>
       <c r="I40">
-        <v>40429112000</v>
+        <v>35963582000</v>
       </c>
       <c r="J40" t="str">
         <v>2023-01-10T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>1578564772000</v>
+        <v>1408307100100</v>
       </c>
       <c r="L40">
         <v>90081800</v>
@@ -2393,13 +2393,13 @@
         <v>918600</v>
       </c>
       <c r="N40">
-        <v>18164425000</v>
+        <v>14329064200</v>
       </c>
       <c r="O40">
         <v>-16590100</v>
       </c>
       <c r="P40">
-        <v>-193643912000</v>
+        <v>-181473394700</v>
       </c>
     </row>
     <row r="41">
@@ -2416,10 +2416,10 @@
         <v>9200</v>
       </c>
       <c r="E41">
-        <v>8906100000</v>
+        <v>8453153400</v>
       </c>
       <c r="F41">
-        <v>25883476000</v>
+        <v>24060201100</v>
       </c>
       <c r="G41">
         <v>396380000</v>
@@ -2428,13 +2428,13 @@
         <v>1799400</v>
       </c>
       <c r="I41">
-        <v>35185956000</v>
+        <v>32909734500</v>
       </c>
       <c r="J41" t="str">
         <v>2023-01-10T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>1613750728000</v>
+        <v>1441216834600</v>
       </c>
       <c r="L41">
         <v>91881200</v>
@@ -2443,13 +2443,13 @@
         <v>758800</v>
       </c>
       <c r="N41">
-        <v>16977376000</v>
+        <v>15607047700</v>
       </c>
       <c r="O41">
         <v>-15831300</v>
       </c>
       <c r="P41">
-        <v>-176666536000</v>
+        <v>-165866347000</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>7700</v>
       </c>
       <c r="E42">
-        <v>7648826000</v>
+        <v>7231144100</v>
       </c>
       <c r="F42">
-        <v>17975934000</v>
+        <v>17761848300</v>
       </c>
       <c r="G42">
         <v>192860000</v>
@@ -2478,13 +2478,13 @@
         <v>1509300</v>
       </c>
       <c r="I42">
-        <v>25817620000</v>
+        <v>25185852400</v>
       </c>
       <c r="J42" t="str">
         <v>2023-01-10T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>1639568348000</v>
+        <v>1466402687000</v>
       </c>
       <c r="L42">
         <v>93390500</v>
@@ -2493,13 +2493,13 @@
         <v>640400</v>
       </c>
       <c r="N42">
-        <v>10327108000</v>
+        <v>10530704200</v>
       </c>
       <c r="O42">
         <v>-15190900</v>
       </c>
       <c r="P42">
-        <v>-166339428000</v>
+        <v>-155335642800</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>3000</v>
       </c>
       <c r="E43">
-        <v>11050854000</v>
+        <v>10642063200</v>
       </c>
       <c r="F43">
-        <v>11059595000</v>
+        <v>10558396700</v>
       </c>
       <c r="G43">
         <v>52991000</v>
@@ -2528,13 +2528,13 @@
         <v>1253500</v>
       </c>
       <c r="I43">
-        <v>22163440000</v>
+        <v>21253450900</v>
       </c>
       <c r="J43" t="str">
         <v>2023-01-10T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>1661731788000</v>
+        <v>1487656137900</v>
       </c>
       <c r="L43">
         <v>94644000</v>
@@ -2543,13 +2543,13 @@
         <v>-28100</v>
       </c>
       <c r="N43">
-        <v>8741000</v>
+        <v>-83666500</v>
       </c>
       <c r="O43">
         <v>-15219000</v>
       </c>
       <c r="P43">
-        <v>-166330687000</v>
+        <v>-155419309300</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>300</v>
       </c>
       <c r="E44">
-        <v>19428971000</v>
+        <v>18924476000</v>
       </c>
       <c r="F44">
-        <v>10289168000</v>
+        <v>10160596700</v>
       </c>
       <c r="G44">
         <v>5430000</v>
@@ -2578,13 +2578,13 @@
         <v>1724700</v>
       </c>
       <c r="I44">
-        <v>29723569000</v>
+        <v>29090502700</v>
       </c>
       <c r="J44" t="str">
         <v>2023-01-10T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>1691455357000</v>
+        <v>1516746640600</v>
       </c>
       <c r="L44">
         <v>96368700</v>
@@ -2593,13 +2593,13 @@
         <v>-658200</v>
       </c>
       <c r="N44">
-        <v>-9139803000</v>
+        <v>-8763879300</v>
       </c>
       <c r="O44">
         <v>-15877200</v>
       </c>
       <c r="P44">
-        <v>-175470490000</v>
+        <v>-164183188600</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>3000</v>
       </c>
       <c r="E45">
-        <v>16093442000</v>
+        <v>15417218900</v>
       </c>
       <c r="F45">
-        <v>11678773000</v>
+        <v>11407244800</v>
       </c>
       <c r="G45">
         <v>164874000</v>
@@ -2628,13 +2628,13 @@
         <v>1317400</v>
       </c>
       <c r="I45">
-        <v>27937089000</v>
+        <v>26989337700</v>
       </c>
       <c r="J45" t="str">
         <v>2023-01-10T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>1719392446000</v>
+        <v>1543735978300</v>
       </c>
       <c r="L45">
         <v>97686100</v>
@@ -2643,13 +2643,13 @@
         <v>-336200</v>
       </c>
       <c r="N45">
-        <v>-4414669000</v>
+        <v>-4009974100</v>
       </c>
       <c r="O45">
         <v>-16213400</v>
       </c>
       <c r="P45">
-        <v>-179885159000</v>
+        <v>-168193162700</v>
       </c>
     </row>
     <row r="46">
@@ -2666,25 +2666,25 @@
         <v>8800</v>
       </c>
       <c r="E46">
-        <v>29215502000</v>
+        <v>26262557900</v>
       </c>
       <c r="F46">
-        <v>8302741000</v>
+        <v>8083560400</v>
       </c>
       <c r="G46">
-        <v>204196000</v>
+        <v>14386000</v>
       </c>
       <c r="H46">
         <v>2067900</v>
       </c>
       <c r="I46">
-        <v>37722439000</v>
+        <v>34360504300</v>
       </c>
       <c r="J46" t="str">
         <v>2023-01-10T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>1757114885000</v>
+        <v>1578096482600</v>
       </c>
       <c r="L46">
         <v>99754000</v>
@@ -2693,13 +2693,13 @@
         <v>-1094700</v>
       </c>
       <c r="N46">
-        <v>-20912761000</v>
+        <v>-18178997500</v>
       </c>
       <c r="O46">
         <v>-17308100</v>
       </c>
       <c r="P46">
-        <v>-200797920000</v>
+        <v>-186372160200</v>
       </c>
     </row>
     <row r="47">
@@ -2716,25 +2716,25 @@
         <v>4000</v>
       </c>
       <c r="E47">
-        <v>29996125000</v>
+        <v>27949773400</v>
       </c>
       <c r="F47">
-        <v>9229838000</v>
+        <v>8803065200</v>
       </c>
       <c r="G47">
-        <v>113655000</v>
+        <v>73695000</v>
       </c>
       <c r="H47">
         <v>2112200</v>
       </c>
       <c r="I47">
-        <v>39339618000</v>
+        <v>36826533600</v>
       </c>
       <c r="J47" t="str">
         <v>2023-01-10T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>1796454503000</v>
+        <v>1614923016200</v>
       </c>
       <c r="L47">
         <v>101866200</v>
@@ -2743,13 +2743,13 @@
         <v>-1211000</v>
       </c>
       <c r="N47">
-        <v>-20766287000</v>
+        <v>-19146708200</v>
       </c>
       <c r="O47">
         <v>-18519100</v>
       </c>
       <c r="P47">
-        <v>-221564207000</v>
+        <v>-205518868400</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>2400</v>
       </c>
       <c r="E48">
-        <v>59726084000</v>
+        <v>56671441700</v>
       </c>
       <c r="F48">
-        <v>11486411000</v>
+        <v>9440658800</v>
       </c>
       <c r="G48">
         <v>65668000</v>
@@ -2778,13 +2778,13 @@
         <v>3955300</v>
       </c>
       <c r="I48">
-        <v>71278163000</v>
+        <v>66177768500</v>
       </c>
       <c r="J48" t="str">
         <v>2023-01-10T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>1867732666000</v>
+        <v>1681100784700</v>
       </c>
       <c r="L48">
         <v>105821500</v>
@@ -2793,13 +2793,13 @@
         <v>-2683700</v>
       </c>
       <c r="N48">
-        <v>-48239673000</v>
+        <v>-47230782900</v>
       </c>
       <c r="O48">
         <v>-21202800</v>
       </c>
       <c r="P48">
-        <v>-269803880000</v>
+        <v>-252749651300</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>114000</v>
       </c>
       <c r="E49">
-        <v>61208250000</v>
+        <v>54738726000</v>
       </c>
       <c r="F49">
-        <v>12062324000</v>
+        <v>10243744400</v>
       </c>
       <c r="G49">
         <v>1940560000</v>
@@ -2828,13 +2828,13 @@
         <v>4829300</v>
       </c>
       <c r="I49">
-        <v>75211134000</v>
+        <v>66923030400</v>
       </c>
       <c r="J49" t="str">
         <v>2023-01-10T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>1942943800000</v>
+        <v>1748023815100</v>
       </c>
       <c r="L49">
         <v>110650800</v>
@@ -2843,13 +2843,13 @@
         <v>-3444100</v>
       </c>
       <c r="N49">
-        <v>-49145926000</v>
+        <v>-44494981600</v>
       </c>
       <c r="O49">
         <v>-24646900</v>
       </c>
       <c r="P49">
-        <v>-318949806000</v>
+        <v>-297244632900</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>34600</v>
       </c>
       <c r="E50">
-        <v>56407127000</v>
+        <v>53222115200</v>
       </c>
       <c r="F50">
-        <v>11051536000</v>
+        <v>9299789500</v>
       </c>
       <c r="G50">
         <v>1108018000</v>
@@ -2878,13 +2878,13 @@
         <v>4679600</v>
       </c>
       <c r="I50">
-        <v>68566681000</v>
+        <v>63629922700</v>
       </c>
       <c r="J50" t="str">
         <v>2023-01-10T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>2011510481000</v>
+        <v>1811653737800</v>
       </c>
       <c r="L50">
         <v>115330400</v>
@@ -2893,13 +2893,13 @@
         <v>-3508800</v>
       </c>
       <c r="N50">
-        <v>-45355591000</v>
+        <v>-43922325700</v>
       </c>
       <c r="O50">
         <v>-28155700</v>
       </c>
       <c r="P50">
-        <v>-364305397000</v>
+        <v>-341166958600</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>33500</v>
       </c>
       <c r="E51">
-        <v>55361830000</v>
+        <v>52275719200</v>
       </c>
       <c r="F51">
-        <v>10041837000</v>
+        <v>9427851600</v>
       </c>
       <c r="G51">
         <v>373501000</v>
@@ -2928,13 +2928,13 @@
         <v>3864200</v>
       </c>
       <c r="I51">
-        <v>65777168000</v>
+        <v>62077071800</v>
       </c>
       <c r="J51" t="str">
         <v>2023-01-10T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>2077287649000</v>
+        <v>1873730809600</v>
       </c>
       <c r="L51">
         <v>119194600</v>
@@ -2943,13 +2943,13 @@
         <v>-2687300</v>
       </c>
       <c r="N51">
-        <v>-45319993000</v>
+        <v>-42847867600</v>
       </c>
       <c r="O51">
         <v>-30843000</v>
       </c>
       <c r="P51">
-        <v>-409625390000</v>
+        <v>-384014826200</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>38100</v>
       </c>
       <c r="E52">
-        <v>35630036000</v>
+        <v>31380290000</v>
       </c>
       <c r="F52">
-        <v>23785040000</v>
+        <v>23614710500</v>
       </c>
       <c r="G52">
         <v>355346000</v>
@@ -2978,13 +2978,13 @@
         <v>3611100</v>
       </c>
       <c r="I52">
-        <v>59770422000</v>
+        <v>55350346500</v>
       </c>
       <c r="J52" t="str">
         <v>2023-01-10T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>2137058071000</v>
+        <v>1929081156100</v>
       </c>
       <c r="L52">
         <v>122805700</v>
@@ -2993,13 +2993,13 @@
         <v>-114800</v>
       </c>
       <c r="N52">
-        <v>-11844996000</v>
+        <v>-7765579500</v>
       </c>
       <c r="O52">
         <v>-30957800</v>
       </c>
       <c r="P52">
-        <v>-421470386000</v>
+        <v>-391780405700</v>
       </c>
     </row>
     <row r="53">
@@ -3016,25 +3016,25 @@
         <v>24900</v>
       </c>
       <c r="E53">
-        <v>40268946000</v>
+        <v>38960855400</v>
       </c>
       <c r="F53">
-        <v>25012860000</v>
+        <v>24509264100</v>
       </c>
       <c r="G53">
-        <v>406910000</v>
+        <v>379937000</v>
       </c>
       <c r="H53">
         <v>4033000</v>
       </c>
       <c r="I53">
-        <v>65688716000</v>
+        <v>63850056500</v>
       </c>
       <c r="J53" t="str">
         <v>2023-01-10T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>2202746787000</v>
+        <v>1992931212600</v>
       </c>
       <c r="L53">
         <v>126838700</v>
@@ -3043,13 +3043,13 @@
         <v>-967900</v>
       </c>
       <c r="N53">
-        <v>-15256086000</v>
+        <v>-14451591300</v>
       </c>
       <c r="O53">
         <v>-31925700</v>
       </c>
       <c r="P53">
-        <v>-436726472000</v>
+        <v>-406231997000</v>
       </c>
     </row>
     <row r="54">
@@ -3066,25 +3066,25 @@
         <v>80400</v>
       </c>
       <c r="E54">
-        <v>14427584000</v>
+        <v>12845267900</v>
       </c>
       <c r="F54">
-        <v>28850434000</v>
+        <v>26604682000</v>
       </c>
       <c r="G54">
-        <v>977243000</v>
+        <v>409411400</v>
       </c>
       <c r="H54">
         <v>2543700</v>
       </c>
       <c r="I54">
-        <v>44255261000</v>
+        <v>39859361300</v>
       </c>
       <c r="J54" t="str">
         <v>2023-01-10T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>2247002048000</v>
+        <v>2032790573900</v>
       </c>
       <c r="L54">
         <v>129382400</v>
@@ -3093,13 +3093,13 @@
         <v>722700</v>
       </c>
       <c r="N54">
-        <v>14422850000</v>
+        <v>13759414100</v>
       </c>
       <c r="O54">
         <v>-31203000</v>
       </c>
       <c r="P54">
-        <v>-422303622000</v>
+        <v>-392472582900</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>5000</v>
       </c>
       <c r="E55">
-        <v>17300228000</v>
+        <v>16448880200</v>
       </c>
       <c r="F55">
-        <v>37175815000</v>
+        <v>32361634000</v>
       </c>
       <c r="G55">
         <v>157951000</v>
@@ -3128,13 +3128,13 @@
         <v>3076500</v>
       </c>
       <c r="I55">
-        <v>54633994000</v>
+        <v>48968465200</v>
       </c>
       <c r="J55" t="str">
         <v>2023-01-10T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>2301636042000</v>
+        <v>2081759039100</v>
       </c>
       <c r="L55">
         <v>132458900</v>
@@ -3143,13 +3143,13 @@
         <v>1315700</v>
       </c>
       <c r="N55">
-        <v>19875587000</v>
+        <v>15912753800</v>
       </c>
       <c r="O55">
         <v>-29887300</v>
       </c>
       <c r="P55">
-        <v>-402428035000</v>
+        <v>-376559829100</v>
       </c>
     </row>
     <row r="56">
@@ -3166,25 +3166,25 @@
         <v>26800</v>
       </c>
       <c r="E56">
-        <v>13468466000</v>
+        <v>12402133400</v>
       </c>
       <c r="F56">
-        <v>38319669000</v>
+        <v>36699790500</v>
       </c>
       <c r="G56">
-        <v>291410000</v>
+        <v>286415000</v>
       </c>
       <c r="H56">
         <v>3184500</v>
       </c>
       <c r="I56">
-        <v>52079545000</v>
+        <v>49388338900</v>
       </c>
       <c r="J56" t="str">
         <v>2023-01-10T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>2353715587000</v>
+        <v>2131147378000</v>
       </c>
       <c r="L56">
         <v>135643400</v>
@@ -3193,13 +3193,13 @@
         <v>1700100</v>
       </c>
       <c r="N56">
-        <v>24851203000</v>
+        <v>24297657100</v>
       </c>
       <c r="O56">
         <v>-28187200</v>
       </c>
       <c r="P56">
-        <v>-377576832000</v>
+        <v>-352262172000</v>
       </c>
     </row>
     <row r="57">
@@ -3216,25 +3216,25 @@
         <v>7600</v>
       </c>
       <c r="E57">
-        <v>12534612000</v>
+        <v>12041205900</v>
       </c>
       <c r="F57">
-        <v>36342186000</v>
+        <v>32944087500</v>
       </c>
       <c r="G57">
-        <v>236873000</v>
+        <v>143766200</v>
       </c>
       <c r="H57">
         <v>2970100</v>
       </c>
       <c r="I57">
-        <v>49113671000</v>
+        <v>45129059600</v>
       </c>
       <c r="J57" t="str">
         <v>2023-01-10T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>2402829258000</v>
+        <v>2176276437600</v>
       </c>
       <c r="L57">
         <v>138613500</v>
@@ -3243,13 +3243,13 @@
         <v>1498500</v>
       </c>
       <c r="N57">
-        <v>23807574000</v>
+        <v>20902881600</v>
       </c>
       <c r="O57">
         <v>-26688700</v>
       </c>
       <c r="P57">
-        <v>-353769258000</v>
+        <v>-331359290400</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>21400</v>
       </c>
       <c r="E58">
-        <v>11433961000</v>
+        <v>11256039100</v>
       </c>
       <c r="F58">
-        <v>21833152000</v>
+        <v>18821666500</v>
       </c>
       <c r="G58">
         <v>243978000</v>
@@ -3278,13 +3278,13 @@
         <v>2094800</v>
       </c>
       <c r="I58">
-        <v>33511091000</v>
+        <v>30321683600</v>
       </c>
       <c r="J58" t="str">
         <v>2023-01-10T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>2436340349000</v>
+        <v>2206598121200</v>
       </c>
       <c r="L58">
         <v>140708300</v>
@@ -3293,13 +3293,13 @@
         <v>678000</v>
       </c>
       <c r="N58">
-        <v>10399191000</v>
+        <v>7565627400</v>
       </c>
       <c r="O58">
         <v>-26010700</v>
       </c>
       <c r="P58">
-        <v>-343370067000</v>
+        <v>-323793663000</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>7500</v>
       </c>
       <c r="E59">
-        <v>10530987000</v>
+        <v>9696622200</v>
       </c>
       <c r="F59">
-        <v>26726867000</v>
+        <v>22867530200</v>
       </c>
       <c r="G59">
         <v>79616000</v>
@@ -3328,13 +3328,13 @@
         <v>2248900</v>
       </c>
       <c r="I59">
-        <v>37337470000</v>
+        <v>32643768400</v>
       </c>
       <c r="J59" t="str">
         <v>2023-01-10T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>2473677819000</v>
+        <v>2239241889600</v>
       </c>
       <c r="L59">
         <v>142957200</v>
@@ -3343,13 +3343,13 @@
         <v>994600</v>
       </c>
       <c r="N59">
-        <v>16195880000</v>
+        <v>13170908000</v>
       </c>
       <c r="O59">
         <v>-25016100</v>
       </c>
       <c r="P59">
-        <v>-327174187000</v>
+        <v>-310622755000</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>10100</v>
       </c>
       <c r="E60">
-        <v>16680796000</v>
+        <v>15907570000</v>
       </c>
       <c r="F60">
-        <v>37792769000</v>
+        <v>33769696100</v>
       </c>
       <c r="G60">
         <v>195802000</v>
@@ -3378,13 +3378,13 @@
         <v>3397900</v>
       </c>
       <c r="I60">
-        <v>54669367000</v>
+        <v>49873068100</v>
       </c>
       <c r="J60" t="str">
         <v>2023-01-10T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>2528347186000</v>
+        <v>2289114957700</v>
       </c>
       <c r="L60">
         <v>146355100</v>
@@ -3393,13 +3393,13 @@
         <v>1204800</v>
       </c>
       <c r="N60">
-        <v>21111973000</v>
+        <v>17862126100</v>
       </c>
       <c r="O60">
         <v>-23811300</v>
       </c>
       <c r="P60">
-        <v>-306062214000</v>
+        <v>-292760628900</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>2200</v>
       </c>
       <c r="E61">
-        <v>20194598000</v>
+        <v>19494798500</v>
       </c>
       <c r="F61">
-        <v>70300806000</v>
+        <v>64794318000</v>
       </c>
       <c r="G61">
         <v>100464000</v>
@@ -3428,13 +3428,13 @@
         <v>6131400</v>
       </c>
       <c r="I61">
-        <v>90595868000</v>
+        <v>84389580500</v>
       </c>
       <c r="J61" t="str">
         <v>2023-01-10T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>2618943054000</v>
+        <v>2373504538200</v>
       </c>
       <c r="L61">
         <v>152486500</v>
@@ -3443,13 +3443,13 @@
         <v>3734200</v>
       </c>
       <c r="N61">
-        <v>50106208000</v>
+        <v>45299519500</v>
       </c>
       <c r="O61">
         <v>-20077100</v>
       </c>
       <c r="P61">
-        <v>-255956006000</v>
+        <v>-247461109400</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>6800</v>
       </c>
       <c r="E62">
-        <v>24618829000</v>
+        <v>22425124900</v>
       </c>
       <c r="F62">
-        <v>87073641000</v>
+        <v>81671049000</v>
       </c>
       <c r="G62">
         <v>188718000</v>
@@ -3478,13 +3478,13 @@
         <v>6674100</v>
       </c>
       <c r="I62">
-        <v>111881188000</v>
+        <v>104284891900</v>
       </c>
       <c r="J62" t="str">
         <v>2023-01-10T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>2730824242000</v>
+        <v>2477789430100</v>
       </c>
       <c r="L62">
         <v>159160600</v>
@@ -3493,13 +3493,13 @@
         <v>3772900</v>
       </c>
       <c r="N62">
-        <v>62454812000</v>
+        <v>59245924100</v>
       </c>
       <c r="O62">
         <v>-16304200</v>
       </c>
       <c r="P62">
-        <v>-193501194000</v>
+        <v>-188215185300</v>
       </c>
     </row>
     <row r="63">
@@ -3516,25 +3516,25 @@
         <v>55900</v>
       </c>
       <c r="E63">
-        <v>16513039000</v>
+        <v>15736016800</v>
       </c>
       <c r="F63">
-        <v>77024819000</v>
+        <v>71698250900</v>
       </c>
       <c r="G63">
-        <v>1965248000</v>
+        <v>1652561000</v>
       </c>
       <c r="H63">
         <v>5753700</v>
       </c>
       <c r="I63">
-        <v>95503106000</v>
+        <v>89086828700</v>
       </c>
       <c r="J63" t="str">
         <v>2023-01-10T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>2826327348000</v>
+        <v>2566876258800</v>
       </c>
       <c r="L63">
         <v>164914300</v>
@@ -3543,13 +3543,13 @@
         <v>3861800</v>
       </c>
       <c r="N63">
-        <v>60511780000</v>
+        <v>55962234100</v>
       </c>
       <c r="O63">
         <v>-12442400</v>
       </c>
       <c r="P63">
-        <v>-132989414000</v>
+        <v>-132252951200</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>6000</v>
       </c>
       <c r="E64">
-        <v>27714287000</v>
+        <v>25782221000</v>
       </c>
       <c r="F64">
-        <v>33406475000</v>
+        <v>30519764600</v>
       </c>
       <c r="G64">
         <v>108947000</v>
@@ -3578,13 +3578,13 @@
         <v>3536600</v>
       </c>
       <c r="I64">
-        <v>61229709000</v>
+        <v>56410932600</v>
       </c>
       <c r="J64" t="str">
         <v>2023-01-10T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>2887557057000</v>
+        <v>2623287191400</v>
       </c>
       <c r="L64">
         <v>168450900</v>
@@ -3593,13 +3593,13 @@
         <v>572000</v>
       </c>
       <c r="N64">
-        <v>5692188000</v>
+        <v>4737543600</v>
       </c>
       <c r="O64">
         <v>-11870400</v>
       </c>
       <c r="P64">
-        <v>-127297226000</v>
+        <v>-127515407600</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>3700</v>
       </c>
       <c r="E65">
-        <v>22525848000</v>
+        <v>21542132700</v>
       </c>
       <c r="F65">
-        <v>16993837000</v>
+        <v>16497034300</v>
       </c>
       <c r="G65">
         <v>101894000</v>
@@ -3628,13 +3628,13 @@
         <v>2394600</v>
       </c>
       <c r="I65">
-        <v>39621579000</v>
+        <v>38141061000</v>
       </c>
       <c r="J65" t="str">
         <v>2023-01-10T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>2927178636000</v>
+        <v>2661428252400</v>
       </c>
       <c r="L65">
         <v>170845500</v>
@@ -3643,13 +3643,13 @@
         <v>-307500</v>
       </c>
       <c r="N65">
-        <v>-5532011000</v>
+        <v>-5045098400</v>
       </c>
       <c r="O65">
         <v>-12177900</v>
       </c>
       <c r="P65">
-        <v>-132829237000</v>
+        <v>-132560506000</v>
       </c>
     </row>
     <row r="66">
@@ -3666,25 +3666,25 @@
         <v>9000</v>
       </c>
       <c r="E66">
-        <v>21918753000</v>
+        <v>21418054200</v>
       </c>
       <c r="F66">
-        <v>16265703000</v>
+        <v>15915453600</v>
       </c>
       <c r="G66">
-        <v>124990000</v>
+        <v>123091900</v>
       </c>
       <c r="H66">
         <v>3043200</v>
       </c>
       <c r="I66">
-        <v>38309446000</v>
+        <v>37456599700</v>
       </c>
       <c r="J66" t="str">
         <v>2023-01-10T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>2965488082000</v>
+        <v>2698884852100</v>
       </c>
       <c r="L66">
         <v>173888700</v>
@@ -3693,13 +3693,13 @@
         <v>-1373200</v>
       </c>
       <c r="N66">
-        <v>-5653050000</v>
+        <v>-5502600600</v>
       </c>
       <c r="O66">
         <v>-13551100</v>
       </c>
       <c r="P66">
-        <v>-138482287000</v>
+        <v>-138063106600</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>6900</v>
       </c>
       <c r="E67">
-        <v>19000500000</v>
+        <v>15047956500</v>
       </c>
       <c r="F67">
-        <v>13767647000</v>
+        <v>13308107000</v>
       </c>
       <c r="G67">
         <v>85974000</v>
@@ -3728,13 +3728,13 @@
         <v>1773200</v>
       </c>
       <c r="I67">
-        <v>32854121000</v>
+        <v>28442037500</v>
       </c>
       <c r="J67" t="str">
         <v>2023-01-10T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>2998342203000</v>
+        <v>2727326889600</v>
       </c>
       <c r="L67">
         <v>175661900</v>
@@ -3743,13 +3743,13 @@
         <v>-274900</v>
       </c>
       <c r="N67">
-        <v>-5232853000</v>
+        <v>-1739849500</v>
       </c>
       <c r="O67">
         <v>-13826000</v>
       </c>
       <c r="P67">
-        <v>-143715140000</v>
+        <v>-139802956100</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>14100</v>
       </c>
       <c r="E68">
-        <v>17461417000</v>
+        <v>16165214500</v>
       </c>
       <c r="F68">
-        <v>9820986000</v>
+        <v>8991016800</v>
       </c>
       <c r="G68">
         <v>180076000</v>
@@ -3778,13 +3778,13 @@
         <v>1530300</v>
       </c>
       <c r="I68">
-        <v>27462479000</v>
+        <v>25336307300</v>
       </c>
       <c r="J68" t="str">
         <v>2023-01-10T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>3025804682000</v>
+        <v>2752663196900</v>
       </c>
       <c r="L68">
         <v>177192200</v>
@@ -3793,13 +3793,13 @@
         <v>-458600</v>
       </c>
       <c r="N68">
-        <v>-7640431000</v>
+        <v>-7174197700</v>
       </c>
       <c r="O68">
         <v>-14284600</v>
       </c>
       <c r="P68">
-        <v>-151355571000</v>
+        <v>-146977153800</v>
       </c>
     </row>
     <row r="69">
@@ -3816,25 +3816,25 @@
         <v>4600</v>
       </c>
       <c r="E69">
-        <v>25349905000</v>
+        <v>24466689100</v>
       </c>
       <c r="F69">
-        <v>12442110000</v>
+        <v>11065388100</v>
       </c>
       <c r="G69">
-        <v>148980000</v>
+        <v>92037000</v>
       </c>
       <c r="H69">
         <v>2061500</v>
       </c>
       <c r="I69">
-        <v>37940995000</v>
+        <v>35624114200</v>
       </c>
       <c r="J69" t="str">
         <v>2023-01-10T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>3063745677000</v>
+        <v>2788287311100</v>
       </c>
       <c r="L69">
         <v>179253700</v>
@@ -3843,13 +3843,13 @@
         <v>-763100</v>
       </c>
       <c r="N69">
-        <v>-12907795000</v>
+        <v>-13401301000</v>
       </c>
       <c r="O69">
         <v>-15047700</v>
       </c>
       <c r="P69">
-        <v>-164263366000</v>
+        <v>-160378454800</v>
       </c>
     </row>
     <row r="70">
@@ -3884,7 +3884,7 @@
         <v>2023-01-10T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>3063751101000</v>
+        <v>2788292735100</v>
       </c>
       <c r="L70">
         <v>179254300</v>
@@ -3899,7 +3899,7 @@
         <v>-15048300</v>
       </c>
       <c r="P70">
-        <v>-164268790000</v>
+        <v>-160383878800</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>255500</v>
       </c>
       <c r="E71">
-        <v>58175422000</v>
+        <v>55481418700</v>
       </c>
       <c r="F71">
-        <v>36959882000</v>
+        <v>35181462200</v>
       </c>
       <c r="G71">
-        <v>3297368000</v>
+        <v>2689176800</v>
       </c>
       <c r="H71">
         <v>6435800</v>
       </c>
       <c r="I71">
-        <v>98432672000</v>
+        <v>93352057700</v>
       </c>
       <c r="J71" t="str">
         <v>2023-01-10T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>3162183773000</v>
+        <v>2881644792800</v>
       </c>
       <c r="L71">
         <v>185690100</v>
@@ -3943,13 +3943,13 @@
         <v>-1291100</v>
       </c>
       <c r="N71">
-        <v>-21215540000</v>
+        <v>-20299956500</v>
       </c>
       <c r="O71">
         <v>-16339400</v>
       </c>
       <c r="P71">
-        <v>-185484330000</v>
+        <v>-180683835300</v>
       </c>
     </row>
     <row r="72">
@@ -3966,10 +3966,10 @@
         <v>8600</v>
       </c>
       <c r="E72">
-        <v>29141623000</v>
+        <v>27568497700</v>
       </c>
       <c r="F72">
-        <v>16715623000</v>
+        <v>16303935100</v>
       </c>
       <c r="G72">
         <v>102457000</v>
@@ -3978,13 +3978,13 @@
         <v>2662400</v>
       </c>
       <c r="I72">
-        <v>45959703000</v>
+        <v>43974889800</v>
       </c>
       <c r="J72" t="str">
         <v>2023-01-10T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>3208143476000</v>
+        <v>2925619682600</v>
       </c>
       <c r="L72">
         <v>188352500</v>
@@ -3993,13 +3993,13 @@
         <v>-799800</v>
       </c>
       <c r="N72">
-        <v>-12426000000</v>
+        <v>-11264562600</v>
       </c>
       <c r="O72">
         <v>-17139200</v>
       </c>
       <c r="P72">
-        <v>-197910330000</v>
+        <v>-191948397900</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>7400</v>
       </c>
       <c r="E73">
-        <v>26135989000</v>
+        <v>22753375000</v>
       </c>
       <c r="F73">
-        <v>16836553000</v>
+        <v>15702088600</v>
       </c>
       <c r="G73">
         <v>89812000</v>
@@ -4028,13 +4028,13 @@
         <v>2623300</v>
       </c>
       <c r="I73">
-        <v>43062354000</v>
+        <v>38545275600</v>
       </c>
       <c r="J73" t="str">
         <v>2023-01-10T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>3251205830000</v>
+        <v>2964164958200</v>
       </c>
       <c r="L73">
         <v>190975800</v>
@@ -4043,13 +4043,13 @@
         <v>-415100</v>
       </c>
       <c r="N73">
-        <v>-9299436000</v>
+        <v>-7051286400</v>
       </c>
       <c r="O73">
         <v>-17554300</v>
       </c>
       <c r="P73">
-        <v>-207209766000</v>
+        <v>-198999684300</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>10700</v>
       </c>
       <c r="E74">
-        <v>20420628000</v>
+        <v>19773875400</v>
       </c>
       <c r="F74">
-        <v>48705145000</v>
+        <v>44543311000</v>
       </c>
       <c r="G74">
         <v>248786000</v>
@@ -4078,13 +4078,13 @@
         <v>3832900</v>
       </c>
       <c r="I74">
-        <v>69374559000</v>
+        <v>64565972400</v>
       </c>
       <c r="J74" t="str">
         <v>2023-01-10T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>3320580389000</v>
+        <v>3028730930600</v>
       </c>
       <c r="L74">
         <v>194808700</v>
@@ -4093,13 +4093,13 @@
         <v>1392600</v>
       </c>
       <c r="N74">
-        <v>28284517000</v>
+        <v>24769435600</v>
       </c>
       <c r="O74">
         <v>-16161700</v>
       </c>
       <c r="P74">
-        <v>-178925249000</v>
+        <v>-174230248700</v>
       </c>
     </row>
     <row r="75">
@@ -4116,25 +4116,25 @@
         <v>23800</v>
       </c>
       <c r="E75">
-        <v>13728212000</v>
+        <v>12781559600</v>
       </c>
       <c r="F75">
-        <v>51056999000</v>
+        <v>44276586200</v>
       </c>
       <c r="G75">
-        <v>570226000</v>
+        <v>539257000</v>
       </c>
       <c r="H75">
         <v>4307000</v>
       </c>
       <c r="I75">
-        <v>65355437000</v>
+        <v>57597402800</v>
       </c>
       <c r="J75" t="str">
         <v>2023-01-10T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>3385935826000</v>
+        <v>3086328333400</v>
       </c>
       <c r="L75">
         <v>199115700</v>
@@ -4143,13 +4143,13 @@
         <v>2386400</v>
       </c>
       <c r="N75">
-        <v>37328787000</v>
+        <v>31495026600</v>
       </c>
       <c r="O75">
         <v>-13775300</v>
       </c>
       <c r="P75">
-        <v>-141596462000</v>
+        <v>-142735222100</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>31600</v>
       </c>
       <c r="E76">
-        <v>16109378000</v>
+        <v>15143245100</v>
       </c>
       <c r="F76">
-        <v>46330471000</v>
+        <v>45106096600</v>
       </c>
       <c r="G76">
         <v>610885000</v>
@@ -4178,13 +4178,13 @@
         <v>3995000</v>
       </c>
       <c r="I76">
-        <v>63050734000</v>
+        <v>60860226700</v>
       </c>
       <c r="J76" t="str">
         <v>2023-01-10T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>3448986560000</v>
+        <v>3147188560100</v>
       </c>
       <c r="L76">
         <v>203110700</v>
@@ -4193,13 +4193,13 @@
         <v>2041000</v>
       </c>
       <c r="N76">
-        <v>30221093000</v>
+        <v>29962851500</v>
       </c>
       <c r="O76">
         <v>-11734300</v>
       </c>
       <c r="P76">
-        <v>-111375369000</v>
+        <v>-112772370600</v>
       </c>
     </row>
     <row r="77">
@@ -4216,25 +4216,25 @@
         <v>4600</v>
       </c>
       <c r="E77">
-        <v>23728412000</v>
+        <v>21583459100</v>
       </c>
       <c r="F77">
-        <v>47407724000</v>
+        <v>40728609800</v>
       </c>
       <c r="G77">
-        <v>174688000</v>
+        <v>118744000</v>
       </c>
       <c r="H77">
         <v>4090200</v>
       </c>
       <c r="I77">
-        <v>71310824000</v>
+        <v>62430812900</v>
       </c>
       <c r="J77" t="str">
         <v>2023-01-10T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>3520297384000</v>
+        <v>3209619373000</v>
       </c>
       <c r="L77">
         <v>207200900</v>
@@ -4243,13 +4243,13 @@
         <v>1336000</v>
       </c>
       <c r="N77">
-        <v>23679312000</v>
+        <v>19145150700</v>
       </c>
       <c r="O77">
         <v>-10398300</v>
       </c>
       <c r="P77">
-        <v>-87696057000</v>
+        <v>-93627219900</v>
       </c>
     </row>
     <row r="78">
@@ -4266,10 +4266,10 @@
         <v>2900</v>
       </c>
       <c r="E78">
-        <v>22590867000</v>
+        <v>18832029600</v>
       </c>
       <c r="F78">
-        <v>44241424000</v>
+        <v>41890377400</v>
       </c>
       <c r="G78">
         <v>110900000</v>
@@ -4278,13 +4278,13 @@
         <v>3812700</v>
       </c>
       <c r="I78">
-        <v>66943191000</v>
+        <v>60833307000</v>
       </c>
       <c r="J78" t="str">
         <v>2023-01-10T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>3587240575000</v>
+        <v>3270452680000</v>
       </c>
       <c r="L78">
         <v>211013600</v>
@@ -4293,13 +4293,13 @@
         <v>1054800</v>
       </c>
       <c r="N78">
-        <v>21650557000</v>
+        <v>23058347800</v>
       </c>
       <c r="O78">
         <v>-9343500</v>
       </c>
       <c r="P78">
-        <v>-66045500000</v>
+        <v>-70568872100</v>
       </c>
     </row>
     <row r="79">
@@ -4316,25 +4316,25 @@
         <v>25800</v>
       </c>
       <c r="E79">
-        <v>23913912000</v>
+        <v>23567358900</v>
       </c>
       <c r="F79">
-        <v>58025042000</v>
+        <v>56590278200</v>
       </c>
       <c r="G79">
-        <v>334971000</v>
+        <v>277428600</v>
       </c>
       <c r="H79">
         <v>5390000</v>
       </c>
       <c r="I79">
-        <v>82273925000</v>
+        <v>80435065700</v>
       </c>
       <c r="J79" t="str">
         <v>2023-01-10T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>3669514500000</v>
+        <v>3350887745700</v>
       </c>
       <c r="L79">
         <v>216403600</v>
@@ -4343,13 +4343,13 @@
         <v>2154600</v>
       </c>
       <c r="N79">
-        <v>34111130000</v>
+        <v>33022919300</v>
       </c>
       <c r="O79">
         <v>-7188900</v>
       </c>
       <c r="P79">
-        <v>-31934370000</v>
+        <v>-37545952800</v>
       </c>
     </row>
     <row r="80">
@@ -4366,25 +4366,25 @@
         <v>27500</v>
       </c>
       <c r="E80">
-        <v>25870964000</v>
+        <v>22086752000</v>
       </c>
       <c r="F80">
-        <v>108869714000</v>
+        <v>77865249500</v>
       </c>
       <c r="G80">
-        <v>545985000</v>
+        <v>390141000</v>
       </c>
       <c r="H80">
         <v>7424400</v>
       </c>
       <c r="I80">
-        <v>135286663000</v>
+        <v>100342142500</v>
       </c>
       <c r="J80" t="str">
         <v>2023-01-10T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>3804801163000</v>
+        <v>3451229888200</v>
       </c>
       <c r="L80">
         <v>223828000</v>
@@ -4393,13 +4393,13 @@
         <v>4619100</v>
       </c>
       <c r="N80">
-        <v>82998750000</v>
+        <v>55778497500</v>
       </c>
       <c r="O80">
         <v>-2569800</v>
       </c>
       <c r="P80">
-        <v>51064380000</v>
+        <v>18232544700</v>
       </c>
     </row>
     <row r="81">
@@ -4416,25 +4416,25 @@
         <v>32300</v>
       </c>
       <c r="E81">
-        <v>38740196000</v>
+        <v>34664775500</v>
       </c>
       <c r="F81">
-        <v>100907145000</v>
+        <v>88981682400</v>
       </c>
       <c r="G81">
-        <v>813270000</v>
+        <v>788994300</v>
       </c>
       <c r="H81">
         <v>8366000</v>
       </c>
       <c r="I81">
-        <v>140460611000</v>
+        <v>124435452200</v>
       </c>
       <c r="J81" t="str">
         <v>2023-01-10T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>3945261774000</v>
+        <v>3575665340400</v>
       </c>
       <c r="L81">
         <v>232194000</v>
@@ -4443,13 +4443,13 @@
         <v>4611500</v>
       </c>
       <c r="N81">
-        <v>62166949000</v>
+        <v>54316906900</v>
       </c>
       <c r="O81">
         <v>2041700</v>
       </c>
       <c r="P81">
-        <v>113231329000</v>
+        <v>72549451600</v>
       </c>
     </row>
     <row r="82">
@@ -4466,25 +4466,25 @@
         <v>35700</v>
       </c>
       <c r="E82">
-        <v>58064544000</v>
+        <v>48544273800</v>
       </c>
       <c r="F82">
-        <v>55957550000</v>
+        <v>51638972900</v>
       </c>
       <c r="G82">
-        <v>797530000</v>
+        <v>759568000</v>
       </c>
       <c r="H82">
         <v>6894200</v>
       </c>
       <c r="I82">
-        <v>114819624000</v>
+        <v>100942814700</v>
       </c>
       <c r="J82" t="str">
         <v>2023-01-10T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>4060081398000</v>
+        <v>3676608155100</v>
       </c>
       <c r="L82">
         <v>239088200</v>
@@ -4493,13 +4493,13 @@
         <v>663500</v>
       </c>
       <c r="N82">
-        <v>-2106994000</v>
+        <v>3094699100</v>
       </c>
       <c r="O82">
         <v>2705200</v>
       </c>
       <c r="P82">
-        <v>111124335000</v>
+        <v>75644150700</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>45500</v>
       </c>
       <c r="E83">
-        <v>40399226000</v>
+        <v>37903324400</v>
       </c>
       <c r="F83">
-        <v>30232939000</v>
+        <v>28208365600</v>
       </c>
       <c r="G83">
         <v>428378000</v>
@@ -4528,13 +4528,13 @@
         <v>4132100</v>
       </c>
       <c r="I83">
-        <v>71060543000</v>
+        <v>66540068000</v>
       </c>
       <c r="J83" t="str">
         <v>2023-01-10T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>4131141941000</v>
+        <v>3743148223100</v>
       </c>
       <c r="L83">
         <v>243220300</v>
@@ -4543,13 +4543,13 @@
         <v>-735400</v>
       </c>
       <c r="N83">
-        <v>-10166287000</v>
+        <v>-9694958800</v>
       </c>
       <c r="O83">
         <v>1969800</v>
       </c>
       <c r="P83">
-        <v>100958048000</v>
+        <v>65949191900</v>
       </c>
     </row>
     <row r="84">
@@ -4566,10 +4566,10 @@
         <v>12300</v>
       </c>
       <c r="E84">
-        <v>24289763000</v>
+        <v>20586170300</v>
       </c>
       <c r="F84">
-        <v>19794385000</v>
+        <v>18070011100</v>
       </c>
       <c r="G84">
         <v>189696000</v>
@@ -4578,13 +4578,13 @@
         <v>2352900</v>
       </c>
       <c r="I84">
-        <v>44273844000</v>
+        <v>38845877400</v>
       </c>
       <c r="J84" t="str">
         <v>2023-01-10T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>4175415785000</v>
+        <v>3781994100500</v>
       </c>
       <c r="L84">
         <v>245573200</v>
@@ -4593,13 +4593,13 @@
         <v>-90400</v>
       </c>
       <c r="N84">
-        <v>-4495378000</v>
+        <v>-2516159200</v>
       </c>
       <c r="O84">
         <v>1879400</v>
       </c>
       <c r="P84">
-        <v>96462670000</v>
+        <v>63433032700</v>
       </c>
     </row>
     <row r="85">
@@ -4616,25 +4616,25 @@
         <v>43300</v>
       </c>
       <c r="E85">
-        <v>29440737000</v>
+        <v>26330550300</v>
       </c>
       <c r="F85">
-        <v>22873427000</v>
+        <v>21019882400</v>
       </c>
       <c r="G85">
-        <v>570132000</v>
+        <v>255447000</v>
       </c>
       <c r="H85">
         <v>2990900</v>
       </c>
       <c r="I85">
-        <v>52884296000</v>
+        <v>47605879700</v>
       </c>
       <c r="J85" t="str">
         <v>2023-01-10T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>4228300081000</v>
+        <v>3829599980200</v>
       </c>
       <c r="L85">
         <v>248564100</v>
@@ -4643,13 +4643,13 @@
         <v>-283200</v>
       </c>
       <c r="N85">
-        <v>-6567310000</v>
+        <v>-5310667900</v>
       </c>
       <c r="O85">
         <v>1596200</v>
       </c>
       <c r="P85">
-        <v>89895360000</v>
+        <v>58122364800</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>4600</v>
       </c>
       <c r="E86">
-        <v>27057000000</v>
+        <v>25584174300</v>
       </c>
       <c r="F86">
-        <v>14832573000</v>
+        <v>13152954300</v>
       </c>
       <c r="G86">
         <v>308300000</v>
@@ -4678,13 +4678,13 @@
         <v>2416900</v>
       </c>
       <c r="I86">
-        <v>42197873000</v>
+        <v>39045428600</v>
       </c>
       <c r="J86" t="str">
         <v>2023-01-10T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>4270497954000</v>
+        <v>3868645408800</v>
       </c>
       <c r="L86">
         <v>250981000</v>
@@ -4693,13 +4693,13 @@
         <v>-835500</v>
       </c>
       <c r="N86">
-        <v>-12224427000</v>
+        <v>-12431220000</v>
       </c>
       <c r="O86">
         <v>760700</v>
       </c>
       <c r="P86">
-        <v>77670933000</v>
+        <v>45691144800</v>
       </c>
     </row>
     <row r="87">
@@ -4716,10 +4716,10 @@
         <v>4300</v>
       </c>
       <c r="E87">
-        <v>24035430000</v>
+        <v>23106360000</v>
       </c>
       <c r="F87">
-        <v>29563208000</v>
+        <v>21901976900</v>
       </c>
       <c r="G87">
         <v>108125000</v>
@@ -4728,13 +4728,13 @@
         <v>3185200</v>
       </c>
       <c r="I87">
-        <v>53706763000</v>
+        <v>45116461900</v>
       </c>
       <c r="J87" t="str">
         <v>2023-01-10T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>4324204717000</v>
+        <v>3913761870700</v>
       </c>
       <c r="L87">
         <v>254166200</v>
@@ -4743,13 +4743,13 @@
         <v>112700</v>
       </c>
       <c r="N87">
-        <v>5527778000</v>
+        <v>-1204383100</v>
       </c>
       <c r="O87">
         <v>873400</v>
       </c>
       <c r="P87">
-        <v>83198711000</v>
+        <v>44486761700</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>61400</v>
       </c>
       <c r="E88">
-        <v>17983005000</v>
+        <v>16615274100</v>
       </c>
       <c r="F88">
-        <v>63607537000</v>
+        <v>58247102800</v>
       </c>
       <c r="G88">
         <v>956541000</v>
@@ -4778,13 +4778,13 @@
         <v>4280000</v>
       </c>
       <c r="I88">
-        <v>82547083000</v>
+        <v>75818917900</v>
       </c>
       <c r="J88" t="str">
         <v>2023-01-10T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>4406751800000</v>
+        <v>3989580788600</v>
       </c>
       <c r="L88">
         <v>258446200</v>
@@ -4793,13 +4793,13 @@
         <v>2185000</v>
       </c>
       <c r="N88">
-        <v>45624532000</v>
+        <v>41631828700</v>
       </c>
       <c r="O88">
         <v>3058400</v>
       </c>
       <c r="P88">
-        <v>128823243000</v>
+        <v>86118590400</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>14500</v>
       </c>
       <c r="E89">
-        <v>18702953000</v>
+        <v>16469988200</v>
       </c>
       <c r="F89">
-        <v>67972595000</v>
+        <v>56646532400</v>
       </c>
       <c r="G89">
         <v>229774000</v>
@@ -4828,13 +4828,13 @@
         <v>4831700</v>
       </c>
       <c r="I89">
-        <v>86905322000</v>
+        <v>73346294600</v>
       </c>
       <c r="J89" t="str">
         <v>2023-01-10T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>4493657122000</v>
+        <v>4062927083200</v>
       </c>
       <c r="L89">
         <v>263277900</v>
@@ -4843,13 +4843,13 @@
         <v>3079800</v>
       </c>
       <c r="N89">
-        <v>49269642000</v>
+        <v>40176544200</v>
       </c>
       <c r="O89">
         <v>6138200</v>
       </c>
       <c r="P89">
-        <v>178092885000</v>
+        <v>126295134600</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>21500</v>
       </c>
       <c r="E90">
-        <v>12049011000</v>
+        <v>11344316400</v>
       </c>
       <c r="F90">
-        <v>89459409000</v>
+        <v>66977713200</v>
       </c>
       <c r="G90">
         <v>204087000</v>
@@ -4878,13 +4878,13 @@
         <v>6156100</v>
       </c>
       <c r="I90">
-        <v>101712507000</v>
+        <v>78526116600</v>
       </c>
       <c r="J90" t="str">
         <v>2023-01-10T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>4595369629000</v>
+        <v>4141453199800</v>
       </c>
       <c r="L90">
         <v>269434000</v>
@@ -4893,13 +4893,13 @@
         <v>4581800</v>
       </c>
       <c r="N90">
-        <v>77410398000</v>
+        <v>55633396800</v>
       </c>
       <c r="O90">
         <v>10720000</v>
       </c>
       <c r="P90">
-        <v>255503283000</v>
+        <v>181928531400</v>
       </c>
     </row>
     <row r="91">
@@ -4916,25 +4916,25 @@
         <v>19700</v>
       </c>
       <c r="E91">
-        <v>29799117000</v>
+        <v>27690527700</v>
       </c>
       <c r="F91">
-        <v>103823496000</v>
+        <v>98518406400</v>
       </c>
       <c r="G91">
-        <v>452839000</v>
+        <v>422069800</v>
       </c>
       <c r="H91">
         <v>7939500</v>
       </c>
       <c r="I91">
-        <v>134075452000</v>
+        <v>126631003900</v>
       </c>
       <c r="J91" t="str">
         <v>2023-01-10T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>4729445081000</v>
+        <v>4268084203700</v>
       </c>
       <c r="L91">
         <v>277373500</v>
@@ -4943,13 +4943,13 @@
         <v>5119600</v>
       </c>
       <c r="N91">
-        <v>74024379000</v>
+        <v>70827878700</v>
       </c>
       <c r="O91">
         <v>15839600</v>
       </c>
       <c r="P91">
-        <v>329527662000</v>
+        <v>252756410100</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>6100</v>
       </c>
       <c r="E92">
-        <v>32406611000</v>
+        <v>31125193700</v>
       </c>
       <c r="F92">
-        <v>39230145000</v>
+        <v>36766411200</v>
       </c>
       <c r="G92">
         <v>173055000</v>
@@ -4978,13 +4978,13 @@
         <v>4242900</v>
       </c>
       <c r="I92">
-        <v>71809811000</v>
+        <v>68064659900</v>
       </c>
       <c r="J92" t="str">
         <v>2023-01-10T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>4801254892000</v>
+        <v>4336148863600</v>
       </c>
       <c r="L92">
         <v>281616400</v>
@@ -4993,13 +4993,13 @@
         <v>390600</v>
       </c>
       <c r="N92">
-        <v>6823534000</v>
+        <v>5641217500</v>
       </c>
       <c r="O92">
         <v>16230200</v>
       </c>
       <c r="P92">
-        <v>336351196000</v>
+        <v>258397627600</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>47300</v>
       </c>
       <c r="E93">
-        <v>23538178000</v>
+        <v>21347371000</v>
       </c>
       <c r="F93">
-        <v>50876139000</v>
+        <v>44206015800</v>
       </c>
       <c r="G93">
         <v>672532000</v>
@@ -5028,13 +5028,13 @@
         <v>3519400</v>
       </c>
       <c r="I93">
-        <v>75086849000</v>
+        <v>66225918800</v>
       </c>
       <c r="J93" t="str">
         <v>2023-01-10T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>4876341741000</v>
+        <v>4402374782400</v>
       </c>
       <c r="L93">
         <v>285135800</v>
@@ -5043,13 +5043,13 @@
         <v>975100</v>
       </c>
       <c r="N93">
-        <v>27337961000</v>
+        <v>22858644800</v>
       </c>
       <c r="O93">
         <v>17205300</v>
       </c>
       <c r="P93">
-        <v>363689157000</v>
+        <v>281256272400</v>
       </c>
     </row>
     <row r="94">
@@ -5066,25 +5066,25 @@
         <v>45200</v>
       </c>
       <c r="E94">
-        <v>25527575000</v>
+        <v>25258644200</v>
       </c>
       <c r="F94">
-        <v>88436412000</v>
+        <v>83985867000</v>
       </c>
       <c r="G94">
-        <v>648953000</v>
+        <v>599003000</v>
       </c>
       <c r="H94">
         <v>5801100</v>
       </c>
       <c r="I94">
-        <v>114612940000</v>
+        <v>109843514200</v>
       </c>
       <c r="J94" t="str">
         <v>2023-01-10T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>4990954681000</v>
+        <v>4512218296600</v>
       </c>
       <c r="L94">
         <v>290936900</v>
@@ -5093,13 +5093,13 @@
         <v>3219700</v>
       </c>
       <c r="N94">
-        <v>62908837000</v>
+        <v>58727222800</v>
       </c>
       <c r="O94">
         <v>20425000</v>
       </c>
       <c r="P94">
-        <v>426597994000</v>
+        <v>339983495200</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>8800</v>
       </c>
       <c r="E95">
-        <v>31572151000</v>
+        <v>28929196600</v>
       </c>
       <c r="F95">
-        <v>84836388000</v>
+        <v>74781453000</v>
       </c>
       <c r="G95">
         <v>235320000</v>
@@ -5128,13 +5128,13 @@
         <v>6776800</v>
       </c>
       <c r="I95">
-        <v>116643859000</v>
+        <v>103945969600</v>
       </c>
       <c r="J95" t="str">
         <v>2023-01-10T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>5107598540000</v>
+        <v>4616164266200</v>
       </c>
       <c r="L95">
         <v>297713700</v>
@@ -5143,13 +5143,13 @@
         <v>2953000</v>
       </c>
       <c r="N95">
-        <v>53264237000</v>
+        <v>45852256400</v>
       </c>
       <c r="O95">
         <v>23378000</v>
       </c>
       <c r="P95">
-        <v>479862231000</v>
+        <v>385835751600</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>27300</v>
       </c>
       <c r="E96">
-        <v>32013479000</v>
+        <v>28960535000</v>
       </c>
       <c r="F96">
-        <v>107594512000</v>
+        <v>68794650700</v>
       </c>
       <c r="G96">
         <v>883671000</v>
@@ -5178,13 +5178,13 @@
         <v>7365700</v>
       </c>
       <c r="I96">
-        <v>140491662000</v>
+        <v>98638856700</v>
       </c>
       <c r="J96" t="str">
         <v>2023-01-10T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>5248090202000</v>
+        <v>4714803122900</v>
       </c>
       <c r="L96">
         <v>305079400</v>
@@ -5193,13 +5193,13 @@
         <v>3815400</v>
       </c>
       <c r="N96">
-        <v>75581033000</v>
+        <v>39834115700</v>
       </c>
       <c r="O96">
         <v>27193400</v>
       </c>
       <c r="P96">
-        <v>555443264000</v>
+        <v>425669867300</v>
       </c>
     </row>
     <row r="97">
@@ -5216,10 +5216,10 @@
         <v>18400</v>
       </c>
       <c r="E97">
-        <v>44944716000</v>
+        <v>42337226100</v>
       </c>
       <c r="F97">
-        <v>52294136000</v>
+        <v>50884746800</v>
       </c>
       <c r="G97">
         <v>307034000</v>
@@ -5228,13 +5228,13 @@
         <v>5697300</v>
       </c>
       <c r="I97">
-        <v>97545886000</v>
+        <v>93529006900</v>
       </c>
       <c r="J97" t="str">
         <v>2023-01-10T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>5345636088000</v>
+        <v>4808332129800</v>
       </c>
       <c r="L97">
         <v>310776700</v>
@@ -5243,13 +5243,13 @@
         <v>508500</v>
       </c>
       <c r="N97">
-        <v>7349420000</v>
+        <v>8547520700</v>
       </c>
       <c r="O97">
         <v>27701900</v>
       </c>
       <c r="P97">
-        <v>562792684000</v>
+        <v>434217388000</v>
       </c>
     </row>
     <row r="98">
@@ -5266,10 +5266,10 @@
         <v>23100</v>
       </c>
       <c r="E98">
-        <v>63148838000</v>
+        <v>52981615400</v>
       </c>
       <c r="F98">
-        <v>19857222000</v>
+        <v>15171612300</v>
       </c>
       <c r="G98">
         <v>315578000</v>
@@ -5278,13 +5278,13 @@
         <v>4751600</v>
       </c>
       <c r="I98">
-        <v>83321638000</v>
+        <v>68468805700</v>
       </c>
       <c r="J98" t="str">
         <v>2023-01-10T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>5428957726000</v>
+        <v>4876800935500</v>
       </c>
       <c r="L98">
         <v>315528300</v>
@@ -5293,13 +5293,13 @@
         <v>-2286500</v>
       </c>
       <c r="N98">
-        <v>-43291616000</v>
+        <v>-37810003100</v>
       </c>
       <c r="O98">
         <v>25415400</v>
       </c>
       <c r="P98">
-        <v>519501068000</v>
+        <v>396407384900</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>5200</v>
       </c>
       <c r="E99">
-        <v>74961018000</v>
+        <v>65214774000</v>
       </c>
       <c r="F99">
-        <v>26799807000</v>
+        <v>19214899500</v>
       </c>
       <c r="G99">
         <v>45553000</v>
@@ -5328,13 +5328,13 @@
         <v>5702000</v>
       </c>
       <c r="I99">
-        <v>101806378000</v>
+        <v>84475226500</v>
       </c>
       <c r="J99" t="str">
         <v>2023-01-10T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>5530764104000</v>
+        <v>4961276162000</v>
       </c>
       <c r="L99">
         <v>321230300</v>
@@ -5343,13 +5343,13 @@
         <v>-3163000</v>
       </c>
       <c r="N99">
-        <v>-48161211000</v>
+        <v>-45999874500</v>
       </c>
       <c r="O99">
         <v>22252400</v>
       </c>
       <c r="P99">
-        <v>471339857000</v>
+        <v>350407510400</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>12900</v>
       </c>
       <c r="E100">
-        <v>28851811000</v>
+        <v>25755210700</v>
       </c>
       <c r="F100">
-        <v>42138610000</v>
+        <v>31991767000</v>
       </c>
       <c r="G100">
         <v>205859000</v>
@@ -5378,13 +5378,13 @@
         <v>3675600</v>
       </c>
       <c r="I100">
-        <v>71196280000</v>
+        <v>57952836700</v>
       </c>
       <c r="J100" t="str">
         <v>2023-01-10T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>5601960384000</v>
+        <v>5019228998700</v>
       </c>
       <c r="L100">
         <v>324905900</v>
@@ -5393,13 +5393,13 @@
         <v>366300</v>
       </c>
       <c r="N100">
-        <v>13286799000</v>
+        <v>6236556300</v>
       </c>
       <c r="O100">
         <v>22618700</v>
       </c>
       <c r="P100">
-        <v>484626656000</v>
+        <v>356644066700</v>
       </c>
     </row>
     <row r="101">
@@ -5416,10 +5416,10 @@
         <v>10200</v>
       </c>
       <c r="E101">
-        <v>19507636000</v>
+        <v>18307337500</v>
       </c>
       <c r="F101">
-        <v>34113899000</v>
+        <v>28277041700</v>
       </c>
       <c r="G101">
         <v>217327000</v>
@@ -5428,13 +5428,13 @@
         <v>2931600</v>
       </c>
       <c r="I101">
-        <v>53838862000</v>
+        <v>46801706200</v>
       </c>
       <c r="J101" t="str">
         <v>2023-01-10T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>5655799246000</v>
+        <v>5066030704900</v>
       </c>
       <c r="L101">
         <v>327837500</v>
@@ -5443,13 +5443,13 @@
         <v>609800</v>
       </c>
       <c r="N101">
-        <v>14606263000</v>
+        <v>9969704200</v>
       </c>
       <c r="O101">
         <v>23228500</v>
       </c>
       <c r="P101">
-        <v>499232919000</v>
+        <v>366613770900</v>
       </c>
     </row>
     <row r="102">
@@ -5466,25 +5466,25 @@
         <v>14900</v>
       </c>
       <c r="E102">
-        <v>48796350000</v>
+        <v>46009939200</v>
       </c>
       <c r="F102">
-        <v>19766798000</v>
+        <v>16095073400</v>
       </c>
       <c r="G102">
-        <v>173020000</v>
+        <v>125068000</v>
       </c>
       <c r="H102">
         <v>4045900</v>
       </c>
       <c r="I102">
-        <v>68736168000</v>
+        <v>62230080600</v>
       </c>
       <c r="J102" t="str">
         <v>2023-01-10T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>5724535414000</v>
+        <v>5128260785500</v>
       </c>
       <c r="L102">
         <v>331883400</v>
@@ -5493,13 +5493,13 @@
         <v>-1917000</v>
       </c>
       <c r="N102">
-        <v>-29029552000</v>
+        <v>-29914865800</v>
       </c>
       <c r="O102">
         <v>21311500</v>
       </c>
       <c r="P102">
-        <v>470203367000</v>
+        <v>336698905100</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>5500</v>
       </c>
       <c r="E103">
-        <v>45159258000</v>
+        <v>42890229300</v>
       </c>
       <c r="F103">
-        <v>22591406000</v>
+        <v>18651449900</v>
       </c>
       <c r="G103">
         <v>184500000</v>
@@ -5528,13 +5528,13 @@
         <v>3532400</v>
       </c>
       <c r="I103">
-        <v>67935164000</v>
+        <v>61726179200</v>
       </c>
       <c r="J103" t="str">
         <v>2023-01-10T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>5792470578000</v>
+        <v>5189986964700</v>
       </c>
       <c r="L103">
         <v>335415800</v>
@@ -5543,13 +5543,13 @@
         <v>-1264500</v>
       </c>
       <c r="N103">
-        <v>-22567852000</v>
+        <v>-24238779400</v>
       </c>
       <c r="O103">
         <v>20047000</v>
       </c>
       <c r="P103">
-        <v>447635515000</v>
+        <v>312460125700</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>5400</v>
       </c>
       <c r="E104">
-        <v>52999188000</v>
+        <v>50157632400</v>
       </c>
       <c r="F104">
-        <v>14112745000</v>
+        <v>12488870500</v>
       </c>
       <c r="G104">
         <v>233864000</v>
@@ -5578,13 +5578,13 @@
         <v>3759200</v>
       </c>
       <c r="I104">
-        <v>67345797000</v>
+        <v>62880366900</v>
       </c>
       <c r="J104" t="str">
         <v>2023-01-10T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>5859816375000</v>
+        <v>5252867331600</v>
       </c>
       <c r="L104">
         <v>339175000</v>
@@ -5593,13 +5593,13 @@
         <v>-2204800</v>
       </c>
       <c r="N104">
-        <v>-38886443000</v>
+        <v>-37668761900</v>
       </c>
       <c r="O104">
         <v>17842200</v>
       </c>
       <c r="P104">
-        <v>408749072000</v>
+        <v>274791363800</v>
       </c>
     </row>
     <row r="105">
@@ -5616,10 +5616,10 @@
         <v>10900</v>
       </c>
       <c r="E105">
-        <v>32100282000</v>
+        <v>29820464100</v>
       </c>
       <c r="F105">
-        <v>26619266000</v>
+        <v>23179009700</v>
       </c>
       <c r="G105">
         <v>197745000</v>
@@ -5628,13 +5628,13 @@
         <v>3422600</v>
       </c>
       <c r="I105">
-        <v>58917293000</v>
+        <v>53197218800</v>
       </c>
       <c r="J105" t="str">
         <v>2023-01-10T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>5918733668000</v>
+        <v>5306064550400</v>
       </c>
       <c r="L105">
         <v>342597600</v>
@@ -5643,13 +5643,13 @@
         <v>-400100</v>
       </c>
       <c r="N105">
-        <v>-5481016000</v>
+        <v>-6641454400</v>
       </c>
       <c r="O105">
         <v>17442100</v>
       </c>
       <c r="P105">
-        <v>403268056000</v>
+        <v>268149909400</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>11700</v>
       </c>
       <c r="E106">
-        <v>18887440000</v>
+        <v>18433194700</v>
       </c>
       <c r="F106">
-        <v>33658727000</v>
+        <v>31350837200</v>
       </c>
       <c r="G106">
         <v>229835000</v>
@@ -5678,13 +5678,13 @@
         <v>2763400</v>
       </c>
       <c r="I106">
-        <v>52776002000</v>
+        <v>50013866900</v>
       </c>
       <c r="J106" t="str">
         <v>2023-01-10T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>5971509670000</v>
+        <v>5356078417300</v>
       </c>
       <c r="L106">
         <v>345361000</v>
@@ -5693,13 +5693,13 @@
         <v>898900</v>
       </c>
       <c r="N106">
-        <v>14771287000</v>
+        <v>12917642500</v>
       </c>
       <c r="O106">
         <v>18341000</v>
       </c>
       <c r="P106">
-        <v>418039343000</v>
+        <v>281067551900</v>
       </c>
     </row>
     <row r="107">
@@ -5716,10 +5716,10 @@
         <v>13400</v>
       </c>
       <c r="E107">
-        <v>20099625000</v>
+        <v>18704421600</v>
       </c>
       <c r="F107">
-        <v>51687273000</v>
+        <v>46509256200</v>
       </c>
       <c r="G107">
         <v>329063000</v>
@@ -5728,13 +5728,13 @@
         <v>3707800</v>
       </c>
       <c r="I107">
-        <v>72115961000</v>
+        <v>65542740800</v>
       </c>
       <c r="J107" t="str">
         <v>2023-01-10T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>6043625631000</v>
+        <v>5421621158100</v>
       </c>
       <c r="L107">
         <v>349068800</v>
@@ -5743,13 +5743,13 @@
         <v>1416200</v>
       </c>
       <c r="N107">
-        <v>31587648000</v>
+        <v>27804834600</v>
       </c>
       <c r="O107">
         <v>19757200</v>
       </c>
       <c r="P107">
-        <v>449626991000</v>
+        <v>308872386500</v>
       </c>
     </row>
     <row r="108">
@@ -5766,10 +5766,10 @@
         <v>36800</v>
       </c>
       <c r="E108">
-        <v>21129582000</v>
+        <v>20250162300</v>
       </c>
       <c r="F108">
-        <v>85465139000</v>
+        <v>56234898500</v>
       </c>
       <c r="G108">
         <v>818510000</v>
@@ -5778,13 +5778,13 @@
         <v>5067600</v>
       </c>
       <c r="I108">
-        <v>107413231000</v>
+        <v>77303570800</v>
       </c>
       <c r="J108" t="str">
         <v>2023-01-10T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>6151038862000</v>
+        <v>5498924728900</v>
       </c>
       <c r="L108">
         <v>354136400</v>
@@ -5793,13 +5793,13 @@
         <v>2919000</v>
       </c>
       <c r="N108">
-        <v>64335557000</v>
+        <v>35984736200</v>
       </c>
       <c r="O108">
         <v>22676200</v>
       </c>
       <c r="P108">
-        <v>513962548000</v>
+        <v>344857122700</v>
       </c>
     </row>
     <row r="109">
@@ -5816,25 +5816,25 @@
         <v>100200</v>
       </c>
       <c r="E109">
-        <v>21637496000</v>
+        <v>19674361100</v>
       </c>
       <c r="F109">
-        <v>116131264000</v>
+        <v>99063848500</v>
       </c>
       <c r="G109">
-        <v>1856603000</v>
+        <v>1628031800</v>
       </c>
       <c r="H109">
         <v>7040000</v>
       </c>
       <c r="I109">
-        <v>139625363000</v>
+        <v>120366241400</v>
       </c>
       <c r="J109" t="str">
         <v>2023-01-10T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>6290664225000</v>
+        <v>5619290970300</v>
       </c>
       <c r="L109">
         <v>361176400</v>
@@ -5843,13 +5843,13 @@
         <v>4732400</v>
       </c>
       <c r="N109">
-        <v>94493768000</v>
+        <v>79389487400</v>
       </c>
       <c r="O109">
         <v>27408600</v>
       </c>
       <c r="P109">
-        <v>608456316000</v>
+        <v>424246610100</v>
       </c>
     </row>
     <row r="110">
@@ -5866,25 +5866,25 @@
         <v>105800</v>
       </c>
       <c r="E110">
-        <v>30861479000</v>
+        <v>29172269900</v>
       </c>
       <c r="F110">
-        <v>38225490000</v>
+        <v>30545777400</v>
       </c>
       <c r="G110">
-        <v>1847004000</v>
+        <v>1712738400</v>
       </c>
       <c r="H110">
         <v>3775800</v>
       </c>
       <c r="I110">
-        <v>70933973000</v>
+        <v>61430785700</v>
       </c>
       <c r="J110" t="str">
         <v>2023-01-10T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>6361598198000</v>
+        <v>5680721756000</v>
       </c>
       <c r="L110">
         <v>364952200</v>
@@ -5893,13 +5893,13 @@
         <v>21200</v>
       </c>
       <c r="N110">
-        <v>7364011000</v>
+        <v>1373507500</v>
       </c>
       <c r="O110">
         <v>27429800</v>
       </c>
       <c r="P110">
-        <v>615820327000</v>
+        <v>425620117600</v>
       </c>
     </row>
     <row r="111">
@@ -5916,10 +5916,10 @@
         <v>2100</v>
       </c>
       <c r="E111">
-        <v>34224931000</v>
+        <v>30532427200</v>
       </c>
       <c r="F111">
-        <v>22207004000</v>
+        <v>20231281700</v>
       </c>
       <c r="G111">
         <v>36862000</v>
@@ -5928,13 +5928,13 @@
         <v>3258900</v>
       </c>
       <c r="I111">
-        <v>56468797000</v>
+        <v>50800570900</v>
       </c>
       <c r="J111" t="str">
         <v>2023-01-10T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>6418066995000</v>
+        <v>5731522326900</v>
       </c>
       <c r="L111">
         <v>368211100</v>
@@ -5943,13 +5943,13 @@
         <v>-847600</v>
       </c>
       <c r="N111">
-        <v>-12017927000</v>
+        <v>-10301145500</v>
       </c>
       <c r="O111">
         <v>26582200</v>
       </c>
       <c r="P111">
-        <v>603802400000</v>
+        <v>415318972100</v>
       </c>
     </row>
     <row r="112">
@@ -5966,10 +5966,10 @@
         <v>19900</v>
       </c>
       <c r="E112">
-        <v>47568907000</v>
+        <v>42851029600</v>
       </c>
       <c r="F112">
-        <v>18922293000</v>
+        <v>17629387200</v>
       </c>
       <c r="G112">
         <v>534635000</v>
@@ -5978,13 +5978,13 @@
         <v>3444800</v>
       </c>
       <c r="I112">
-        <v>67025835000</v>
+        <v>61015051800</v>
       </c>
       <c r="J112" t="str">
         <v>2023-01-10T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>6485092830000</v>
+        <v>5792537378700</v>
       </c>
       <c r="L112">
         <v>371655900</v>
@@ -5993,13 +5993,13 @@
         <v>-1385900</v>
       </c>
       <c r="N112">
-        <v>-28646614000</v>
+        <v>-25221642400</v>
       </c>
       <c r="O112">
         <v>25196300</v>
       </c>
       <c r="P112">
-        <v>575155786000</v>
+        <v>390097329700</v>
       </c>
     </row>
     <row r="113">
@@ -6016,25 +6016,25 @@
         <v>34500</v>
       </c>
       <c r="E113">
-        <v>45788984000</v>
+        <v>41768108900</v>
       </c>
       <c r="F113">
-        <v>24819725000</v>
+        <v>23216929400</v>
       </c>
       <c r="G113">
-        <v>608060000</v>
+        <v>598569500</v>
       </c>
       <c r="H113">
         <v>3662800</v>
       </c>
       <c r="I113">
-        <v>71216769000</v>
+        <v>65583607800</v>
       </c>
       <c r="J113" t="str">
         <v>2023-01-10T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>6556309599000</v>
+        <v>5858120986500</v>
       </c>
       <c r="L113">
         <v>375318700</v>
@@ -6043,13 +6043,13 @@
         <v>-1338100</v>
       </c>
       <c r="N113">
-        <v>-20969259000</v>
+        <v>-18551179500</v>
       </c>
       <c r="O113">
         <v>23858200</v>
       </c>
       <c r="P113">
-        <v>554186527000</v>
+        <v>371546150200</v>
       </c>
     </row>
     <row r="114">
@@ -6066,25 +6066,25 @@
         <v>3300</v>
       </c>
       <c r="E114">
-        <v>28044575000</v>
+        <v>23362861400</v>
       </c>
       <c r="F114">
-        <v>27363582000</v>
+        <v>23888960100</v>
       </c>
       <c r="G114">
-        <v>69255000</v>
+        <v>50473800</v>
       </c>
       <c r="H114">
         <v>2843300</v>
       </c>
       <c r="I114">
-        <v>55477412000</v>
+        <v>47302295300</v>
       </c>
       <c r="J114" t="str">
         <v>2023-01-10T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>6611787011000</v>
+        <v>5905423281800</v>
       </c>
       <c r="L114">
         <v>378162000</v>
@@ -6093,13 +6093,13 @@
         <v>-17600</v>
       </c>
       <c r="N114">
-        <v>-680993000</v>
+        <v>526098700</v>
       </c>
       <c r="O114">
         <v>23840600</v>
       </c>
       <c r="P114">
-        <v>553505534000</v>
+        <v>372072248900</v>
       </c>
     </row>
     <row r="115">
@@ -6116,10 +6116,10 @@
         <v>19400</v>
       </c>
       <c r="E115">
-        <v>41096627000</v>
+        <v>36469458800</v>
       </c>
       <c r="F115">
-        <v>25610223000</v>
+        <v>21519218100</v>
       </c>
       <c r="G115">
         <v>371769000</v>
@@ -6128,13 +6128,13 @@
         <v>3863800</v>
       </c>
       <c r="I115">
-        <v>67078619000</v>
+        <v>58360445900</v>
       </c>
       <c r="J115" t="str">
         <v>2023-01-10T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>6678865630000</v>
+        <v>5963783727700</v>
       </c>
       <c r="L115">
         <v>382025800</v>
@@ -6143,13 +6143,13 @@
         <v>-862000</v>
       </c>
       <c r="N115">
-        <v>-15486404000</v>
+        <v>-14950240700</v>
       </c>
       <c r="O115">
         <v>22978600</v>
       </c>
       <c r="P115">
-        <v>538019130000</v>
+        <v>357122008200</v>
       </c>
     </row>
     <row r="116">
@@ -6166,25 +6166,25 @@
         <v>16403100</v>
       </c>
       <c r="E116">
-        <v>23595518000</v>
+        <v>20887928300</v>
       </c>
       <c r="F116">
-        <v>30284241000</v>
+        <v>29505820200</v>
       </c>
       <c r="G116">
-        <v>321977365000</v>
+        <v>293130241000</v>
       </c>
       <c r="H116">
         <v>18745300</v>
       </c>
       <c r="I116">
-        <v>375857124000</v>
+        <v>343523989500</v>
       </c>
       <c r="J116" t="str">
         <v>2023-01-10T14:44:00.000Z</v>
       </c>
       <c r="K116">
-        <v>7054722754000</v>
+        <v>6307307717200</v>
       </c>
       <c r="L116">
         <v>400771100</v>
@@ -6193,13 +6193,13 @@
         <v>2400</v>
       </c>
       <c r="N116">
-        <v>6688723000</v>
+        <v>8617891900</v>
       </c>
       <c r="O116">
         <v>22981000</v>
       </c>
       <c r="P116">
-        <v>544707853000</v>
+        <v>365739900100</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20230110/VNINDEX_HOSE_5p_20230110.xlsx
+++ b/name/vnindex/20230110/VNINDEX_HOSE_5p_20230110.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P116"/>
+  <dimension ref="A1:AC116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>-6831923400</v>
       </c>
+      <c r="Q2">
+        <v>16855801000</v>
+      </c>
+      <c r="R2">
+        <v>23687724400</v>
+      </c>
+      <c r="S2">
+        <v>1178900</v>
+      </c>
+      <c r="T2">
+        <v>2231800</v>
+      </c>
+      <c r="U2">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V2">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W2">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X2">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y2">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z2">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA2">
+        <v>199834.8</v>
+      </c>
+      <c r="AB2">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC2">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>112498300</v>
       </c>
+      <c r="Q3">
+        <v>32487806600</v>
+      </c>
+      <c r="R3">
+        <v>32375308300</v>
+      </c>
+      <c r="S3">
+        <v>2326400</v>
+      </c>
+      <c r="T3">
+        <v>2837200</v>
+      </c>
+      <c r="U3">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V3">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W3">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X3">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y3">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z3">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA3">
+        <v>199834.8</v>
+      </c>
+      <c r="AB3">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC3">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>13808058200</v>
       </c>
+      <c r="Q4">
+        <v>59541824300</v>
+      </c>
+      <c r="R4">
+        <v>45733766100</v>
+      </c>
+      <c r="S4">
+        <v>4076000</v>
+      </c>
+      <c r="T4">
+        <v>3740700</v>
+      </c>
+      <c r="U4">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V4">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W4">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X4">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y4">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z4">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA4">
+        <v>199834.8</v>
+      </c>
+      <c r="AB4">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC4">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>13787595800</v>
       </c>
+      <c r="Q5">
+        <v>74808719000</v>
+      </c>
+      <c r="R5">
+        <v>61021123200</v>
+      </c>
+      <c r="S5">
+        <v>5111500</v>
+      </c>
+      <c r="T5">
+        <v>4747800</v>
+      </c>
+      <c r="U5">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V5">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W5">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X5">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y5">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z5">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA5">
+        <v>199834.8</v>
+      </c>
+      <c r="AB5">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>9309538100</v>
       </c>
+      <c r="Q6">
+        <v>86182912100</v>
+      </c>
+      <c r="R6">
+        <v>76873374000</v>
+      </c>
+      <c r="S6">
+        <v>5868300</v>
+      </c>
+      <c r="T6">
+        <v>5838000</v>
+      </c>
+      <c r="U6">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V6">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W6">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X6">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y6">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z6">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA6">
+        <v>199834.8</v>
+      </c>
+      <c r="AB6">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC6">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>4653140300</v>
       </c>
+      <c r="Q7">
+        <v>100763165900</v>
+      </c>
+      <c r="R7">
+        <v>96110025600</v>
+      </c>
+      <c r="S7">
+        <v>6699400</v>
+      </c>
+      <c r="T7">
+        <v>7032200</v>
+      </c>
+      <c r="U7">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V7">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W7">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X7">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y7">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z7">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA7">
+        <v>199834.8</v>
+      </c>
+      <c r="AB7">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC7">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>587990300</v>
       </c>
+      <c r="Q8">
+        <v>118912003600</v>
+      </c>
+      <c r="R8">
+        <v>118324013300</v>
+      </c>
+      <c r="S8">
+        <v>7620900</v>
+      </c>
+      <c r="T8">
+        <v>8487600</v>
+      </c>
+      <c r="U8">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V8">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W8">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X8">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y8">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z8">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA8">
+        <v>199834.8</v>
+      </c>
+      <c r="AB8">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC8">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>-14511628700</v>
       </c>
+      <c r="Q9">
+        <v>132369985600</v>
+      </c>
+      <c r="R9">
+        <v>146881614300</v>
+      </c>
+      <c r="S9">
+        <v>8461800</v>
+      </c>
+      <c r="T9">
+        <v>10354100</v>
+      </c>
+      <c r="U9">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V9">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W9">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X9">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y9">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z9">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA9">
+        <v>199834.8</v>
+      </c>
+      <c r="AB9">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC9">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>-16296891600</v>
       </c>
+      <c r="Q10">
+        <v>152768367300</v>
+      </c>
+      <c r="R10">
+        <v>169065258900</v>
+      </c>
+      <c r="S10">
+        <v>9662300</v>
+      </c>
+      <c r="T10">
+        <v>11864800</v>
+      </c>
+      <c r="U10">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V10">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W10">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X10">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y10">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z10">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA10">
+        <v>199834.8</v>
+      </c>
+      <c r="AB10">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC10">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>-16086364400</v>
       </c>
+      <c r="Q11">
+        <v>166598120600</v>
+      </c>
+      <c r="R11">
+        <v>182684485000</v>
+      </c>
+      <c r="S11">
+        <v>10525600</v>
+      </c>
+      <c r="T11">
+        <v>12860100</v>
+      </c>
+      <c r="U11">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V11">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W11">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X11">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y11">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z11">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA11">
+        <v>199834.8</v>
+      </c>
+      <c r="AB11">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC11">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>-14780417400</v>
       </c>
+      <c r="Q12">
+        <v>179513851600</v>
+      </c>
+      <c r="R12">
+        <v>194294269000</v>
+      </c>
+      <c r="S12">
+        <v>11323100</v>
+      </c>
+      <c r="T12">
+        <v>13670700</v>
+      </c>
+      <c r="U12">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V12">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W12">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X12">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y12">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z12">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA12">
+        <v>199834.8</v>
+      </c>
+      <c r="AB12">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC12">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>-1993061000</v>
       </c>
+      <c r="Q13">
+        <v>201861174700</v>
+      </c>
+      <c r="R13">
+        <v>203854235700</v>
+      </c>
+      <c r="S13">
+        <v>12525100</v>
+      </c>
+      <c r="T13">
+        <v>14253500</v>
+      </c>
+      <c r="U13">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V13">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W13">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X13">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y13">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z13">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA13">
+        <v>199834.8</v>
+      </c>
+      <c r="AB13">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC13">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>-2297031800</v>
       </c>
+      <c r="Q14">
+        <v>219608698500</v>
+      </c>
+      <c r="R14">
+        <v>221905730300</v>
+      </c>
+      <c r="S14">
+        <v>13782000</v>
+      </c>
+      <c r="T14">
+        <v>15220900</v>
+      </c>
+      <c r="U14">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V14">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W14">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X14">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y14">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z14">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA14">
+        <v>199834.8</v>
+      </c>
+      <c r="AB14">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC14">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>3664090400</v>
       </c>
+      <c r="Q15">
+        <v>234502070800</v>
+      </c>
+      <c r="R15">
+        <v>230837980400</v>
+      </c>
+      <c r="S15">
+        <v>14794900</v>
+      </c>
+      <c r="T15">
+        <v>15832900</v>
+      </c>
+      <c r="U15">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V15">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W15">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X15">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y15">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z15">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA15">
+        <v>199834.8</v>
+      </c>
+      <c r="AB15">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC15">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>388547500</v>
       </c>
+      <c r="Q16">
+        <v>247265231400</v>
+      </c>
+      <c r="R16">
+        <v>246876683900</v>
+      </c>
+      <c r="S16">
+        <v>15734500</v>
+      </c>
+      <c r="T16">
+        <v>16837500</v>
+      </c>
+      <c r="U16">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V16">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W16">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X16">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y16">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z16">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA16">
+        <v>199834.8</v>
+      </c>
+      <c r="AB16">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>-1462551400</v>
       </c>
+      <c r="Q17">
+        <v>262302705600</v>
+      </c>
+      <c r="R17">
+        <v>263765257000</v>
+      </c>
+      <c r="S17">
+        <v>16487200</v>
+      </c>
+      <c r="T17">
+        <v>17948300</v>
+      </c>
+      <c r="U17">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V17">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W17">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X17">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y17">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z17">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA17">
+        <v>199834.8</v>
+      </c>
+      <c r="AB17">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC17">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>-6230053300</v>
       </c>
+      <c r="Q18">
+        <v>275585846000</v>
+      </c>
+      <c r="R18">
+        <v>281815899300</v>
+      </c>
+      <c r="S18">
+        <v>17332600</v>
+      </c>
+      <c r="T18">
+        <v>19232600</v>
+      </c>
+      <c r="U18">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V18">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W18">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X18">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y18">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z18">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA18">
+        <v>199834.8</v>
+      </c>
+      <c r="AB18">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC18">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>-15965143000</v>
       </c>
+      <c r="Q19">
+        <v>289067574500</v>
+      </c>
+      <c r="R19">
+        <v>305032717500</v>
+      </c>
+      <c r="S19">
+        <v>18068700</v>
+      </c>
+      <c r="T19">
+        <v>20787500</v>
+      </c>
+      <c r="U19">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V19">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W19">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X19">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y19">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z19">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA19">
+        <v>199834.8</v>
+      </c>
+      <c r="AB19">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC19">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>-15934390000</v>
       </c>
+      <c r="Q20">
+        <v>306277219500</v>
+      </c>
+      <c r="R20">
+        <v>322211609500</v>
+      </c>
+      <c r="S20">
+        <v>19037400</v>
+      </c>
+      <c r="T20">
+        <v>21892700</v>
+      </c>
+      <c r="U20">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V20">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W20">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X20">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y20">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z20">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA20">
+        <v>199834.8</v>
+      </c>
+      <c r="AB20">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>-36352313100</v>
       </c>
+      <c r="Q21">
+        <v>317787244900</v>
+      </c>
+      <c r="R21">
+        <v>354139558000</v>
+      </c>
+      <c r="S21">
+        <v>19668600</v>
+      </c>
+      <c r="T21">
+        <v>23865300</v>
+      </c>
+      <c r="U21">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V21">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W21">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X21">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y21">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z21">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA21">
+        <v>199834.8</v>
+      </c>
+      <c r="AB21">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC21">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>-61274782600</v>
       </c>
+      <c r="Q22">
+        <v>328307449000</v>
+      </c>
+      <c r="R22">
+        <v>389582231600</v>
+      </c>
+      <c r="S22">
+        <v>20299000</v>
+      </c>
+      <c r="T22">
+        <v>26076100</v>
+      </c>
+      <c r="U22">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V22">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W22">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X22">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y22">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z22">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA22">
+        <v>199834.8</v>
+      </c>
+      <c r="AB22">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC22">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>-89721498000</v>
       </c>
+      <c r="Q23">
+        <v>340805802800</v>
+      </c>
+      <c r="R23">
+        <v>430527300800</v>
+      </c>
+      <c r="S23">
+        <v>21040000</v>
+      </c>
+      <c r="T23">
+        <v>28963200</v>
+      </c>
+      <c r="U23">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V23">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W23">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X23">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y23">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z23">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA23">
+        <v>199834.8</v>
+      </c>
+      <c r="AB23">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC23">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>-101299074500</v>
       </c>
+      <c r="Q24">
+        <v>352026772200</v>
+      </c>
+      <c r="R24">
+        <v>453325846700</v>
+      </c>
+      <c r="S24">
+        <v>21785000</v>
+      </c>
+      <c r="T24">
+        <v>30662400</v>
+      </c>
+      <c r="U24">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V24">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W24">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X24">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y24">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z24">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA24">
+        <v>199834.8</v>
+      </c>
+      <c r="AB24">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC24">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>-108064108700</v>
       </c>
+      <c r="Q25">
+        <v>361130984900</v>
+      </c>
+      <c r="R25">
+        <v>469195093600</v>
+      </c>
+      <c r="S25">
+        <v>22455500</v>
+      </c>
+      <c r="T25">
+        <v>31735700</v>
+      </c>
+      <c r="U25">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V25">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W25">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X25">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y25">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z25">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA25">
+        <v>199834.8</v>
+      </c>
+      <c r="AB25">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC25">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>-120983936200</v>
       </c>
+      <c r="Q26">
+        <v>371745514300</v>
+      </c>
+      <c r="R26">
+        <v>492729450500</v>
+      </c>
+      <c r="S26">
+        <v>23054900</v>
+      </c>
+      <c r="T26">
+        <v>33395300</v>
+      </c>
+      <c r="U26">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V26">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W26">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X26">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y26">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z26">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA26">
+        <v>199834.8</v>
+      </c>
+      <c r="AB26">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC26">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>-137493713900</v>
       </c>
+      <c r="Q27">
+        <v>382827346000</v>
+      </c>
+      <c r="R27">
+        <v>520321059900</v>
+      </c>
+      <c r="S27">
+        <v>23705600</v>
+      </c>
+      <c r="T27">
+        <v>35604600</v>
+      </c>
+      <c r="U27">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V27">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W27">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X27">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y27">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z27">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA27">
+        <v>199834.8</v>
+      </c>
+      <c r="AB27">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC27">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>-157117316500</v>
       </c>
+      <c r="Q28">
+        <v>394453320500</v>
+      </c>
+      <c r="R28">
+        <v>551570637000</v>
+      </c>
+      <c r="S28">
+        <v>24405000</v>
+      </c>
+      <c r="T28">
+        <v>37773100</v>
+      </c>
+      <c r="U28">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V28">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W28">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X28">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y28">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z28">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA28">
+        <v>199834.8</v>
+      </c>
+      <c r="AB28">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC28">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>-162071653400</v>
       </c>
+      <c r="Q29">
+        <v>409071881800</v>
+      </c>
+      <c r="R29">
+        <v>571143535200</v>
+      </c>
+      <c r="S29">
+        <v>25163500</v>
+      </c>
+      <c r="T29">
+        <v>39175800</v>
+      </c>
+      <c r="U29">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V29">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W29">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X29">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y29">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z29">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA29">
+        <v>199834.8</v>
+      </c>
+      <c r="AB29">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC29">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>-165924565100</v>
       </c>
+      <c r="Q30">
+        <v>423770455300</v>
+      </c>
+      <c r="R30">
+        <v>589695020400</v>
+      </c>
+      <c r="S30">
+        <v>26176900</v>
+      </c>
+      <c r="T30">
+        <v>40178900</v>
+      </c>
+      <c r="U30">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V30">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W30">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X30">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y30">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z30">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA30">
+        <v>199834.8</v>
+      </c>
+      <c r="AB30">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC30">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>-173031154600</v>
       </c>
+      <c r="Q31">
+        <v>439531947700</v>
+      </c>
+      <c r="R31">
+        <v>612563102300</v>
+      </c>
+      <c r="S31">
+        <v>27093500</v>
+      </c>
+      <c r="T31">
+        <v>41484700</v>
+      </c>
+      <c r="U31">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V31">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W31">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X31">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y31">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z31">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA31">
+        <v>199834.8</v>
+      </c>
+      <c r="AB31">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC31">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>-174752890200</v>
       </c>
+      <c r="Q32">
+        <v>454306950600</v>
+      </c>
+      <c r="R32">
+        <v>629059840800</v>
+      </c>
+      <c r="S32">
+        <v>27946600</v>
+      </c>
+      <c r="T32">
+        <v>42628200</v>
+      </c>
+      <c r="U32">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V32">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W32">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X32">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y32">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z32">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA32">
+        <v>199834.8</v>
+      </c>
+      <c r="AB32">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC32">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>-181565586000</v>
       </c>
+      <c r="Q33">
+        <v>467399491700</v>
+      </c>
+      <c r="R33">
+        <v>648965077700</v>
+      </c>
+      <c r="S33">
+        <v>28676600</v>
+      </c>
+      <c r="T33">
+        <v>43963300</v>
+      </c>
+      <c r="U33">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V33">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W33">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X33">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y33">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z33">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA33">
+        <v>199834.8</v>
+      </c>
+      <c r="AB33">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC33">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>-209463553900</v>
       </c>
+      <c r="Q34">
+        <v>481417577200</v>
+      </c>
+      <c r="R34">
+        <v>690881131100</v>
+      </c>
+      <c r="S34">
+        <v>29382700</v>
+      </c>
+      <c r="T34">
+        <v>46642000</v>
+      </c>
+      <c r="U34">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V34">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W34">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X34">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y34">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z34">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA34">
+        <v>199834.8</v>
+      </c>
+      <c r="AB34">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC34">
+        <v>8.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>-204375891400</v>
       </c>
+      <c r="Q35">
+        <v>514089488000</v>
+      </c>
+      <c r="R35">
+        <v>718465379400</v>
+      </c>
+      <c r="S35">
+        <v>30890100</v>
+      </c>
+      <c r="T35">
+        <v>48462900</v>
+      </c>
+      <c r="U35">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V35">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W35">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X35">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y35">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z35">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA35">
+        <v>199834.8</v>
+      </c>
+      <c r="AB35">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC35">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>-206085311200</v>
       </c>
+      <c r="Q36">
+        <v>529661692700</v>
+      </c>
+      <c r="R36">
+        <v>735747003900</v>
+      </c>
+      <c r="S36">
+        <v>31974800</v>
+      </c>
+      <c r="T36">
+        <v>49543800</v>
+      </c>
+      <c r="U36">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V36">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W36">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X36">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y36">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z36">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA36">
+        <v>199834.8</v>
+      </c>
+      <c r="AB36">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC36">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>-210271340200</v>
       </c>
+      <c r="Q37">
+        <v>539883175900</v>
+      </c>
+      <c r="R37">
+        <v>750154516100</v>
+      </c>
+      <c r="S37">
+        <v>32622200</v>
+      </c>
+      <c r="T37">
+        <v>50522700</v>
+      </c>
+      <c r="U37">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V37">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W37">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X37">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y37">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z37">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA37">
+        <v>199834.8</v>
+      </c>
+      <c r="AB37">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC37">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>-211889107700</v>
       </c>
+      <c r="Q38">
+        <v>553306646000</v>
+      </c>
+      <c r="R38">
+        <v>765195753700</v>
+      </c>
+      <c r="S38">
+        <v>33365900</v>
+      </c>
+      <c r="T38">
+        <v>51475600</v>
+      </c>
+      <c r="U38">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V38">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W38">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X38">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y38">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z38">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA38">
+        <v>199834.8</v>
+      </c>
+      <c r="AB38">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>-195802458900</v>
       </c>
+      <c r="Q39">
+        <v>578181406300</v>
+      </c>
+      <c r="R39">
+        <v>773983865200</v>
+      </c>
+      <c r="S39">
+        <v>34563100</v>
+      </c>
+      <c r="T39">
+        <v>52071800</v>
+      </c>
+      <c r="U39">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V39">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W39">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X39">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y39">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z39">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA39">
+        <v>199834.8</v>
+      </c>
+      <c r="AB39">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC39">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>-181473394700</v>
       </c>
+      <c r="Q40">
+        <v>603277876900</v>
+      </c>
+      <c r="R40">
+        <v>784751271600</v>
+      </c>
+      <c r="S40">
+        <v>36050000</v>
+      </c>
+      <c r="T40">
+        <v>52640100</v>
+      </c>
+      <c r="U40">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V40">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W40">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X40">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y40">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z40">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA40">
+        <v>199834.8</v>
+      </c>
+      <c r="AB40">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC40">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>-165866347000</v>
       </c>
+      <c r="Q41">
+        <v>627338078000</v>
+      </c>
+      <c r="R41">
+        <v>793204425000</v>
+      </c>
+      <c r="S41">
+        <v>37324500</v>
+      </c>
+      <c r="T41">
+        <v>53155800</v>
+      </c>
+      <c r="U41">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V41">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W41">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X41">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y41">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z41">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA41">
+        <v>199834.8</v>
+      </c>
+      <c r="AB41">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC41">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>-155335642800</v>
       </c>
+      <c r="Q42">
+        <v>645099926300</v>
+      </c>
+      <c r="R42">
+        <v>800435569100</v>
+      </c>
+      <c r="S42">
+        <v>38395500</v>
+      </c>
+      <c r="T42">
+        <v>53586400</v>
+      </c>
+      <c r="U42">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V42">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W42">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X42">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y42">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z42">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA42">
+        <v>199834.8</v>
+      </c>
+      <c r="AB42">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC42">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>-155419309300</v>
       </c>
+      <c r="Q43">
+        <v>655658323000</v>
+      </c>
+      <c r="R43">
+        <v>811077632300</v>
+      </c>
+      <c r="S43">
+        <v>39006700</v>
+      </c>
+      <c r="T43">
+        <v>54225700</v>
+      </c>
+      <c r="U43">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V43">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W43">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X43">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y43">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z43">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA43">
+        <v>199834.8</v>
+      </c>
+      <c r="AB43">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>-164183188600</v>
       </c>
+      <c r="Q44">
+        <v>665818919700</v>
+      </c>
+      <c r="R44">
+        <v>830002108300</v>
+      </c>
+      <c r="S44">
+        <v>39539800</v>
+      </c>
+      <c r="T44">
+        <v>55417000</v>
+      </c>
+      <c r="U44">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V44">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W44">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X44">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y44">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z44">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA44">
+        <v>199834.8</v>
+      </c>
+      <c r="AB44">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC44">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>-168193162700</v>
       </c>
+      <c r="Q45">
+        <v>677226164500</v>
+      </c>
+      <c r="R45">
+        <v>845419327200</v>
+      </c>
+      <c r="S45">
+        <v>40028900</v>
+      </c>
+      <c r="T45">
+        <v>56242300</v>
+      </c>
+      <c r="U45">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V45">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W45">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X45">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y45">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z45">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA45">
+        <v>199834.8</v>
+      </c>
+      <c r="AB45">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC45">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>-186372160200</v>
       </c>
+      <c r="Q46">
+        <v>685309724900</v>
+      </c>
+      <c r="R46">
+        <v>871681885100</v>
+      </c>
+      <c r="S46">
+        <v>40511100</v>
+      </c>
+      <c r="T46">
+        <v>57819200</v>
+      </c>
+      <c r="U46">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V46">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W46">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X46">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y46">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z46">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA46">
+        <v>199834.8</v>
+      </c>
+      <c r="AB46">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC46">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>-205518868400</v>
       </c>
+      <c r="Q47">
+        <v>694112790100</v>
+      </c>
+      <c r="R47">
+        <v>899631658500</v>
+      </c>
+      <c r="S47">
+        <v>40959700</v>
+      </c>
+      <c r="T47">
+        <v>59478800</v>
+      </c>
+      <c r="U47">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V47">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W47">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X47">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y47">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z47">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA47">
+        <v>199834.8</v>
+      </c>
+      <c r="AB47">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC47">
+        <v>6</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>-252749651300</v>
       </c>
+      <c r="Q48">
+        <v>703553448900</v>
+      </c>
+      <c r="R48">
+        <v>956303100200</v>
+      </c>
+      <c r="S48">
+        <v>41594300</v>
+      </c>
+      <c r="T48">
+        <v>62797100</v>
+      </c>
+      <c r="U48">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V48">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W48">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X48">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y48">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z48">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA48">
+        <v>199834.8</v>
+      </c>
+      <c r="AB48">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC48">
+        <v>14.9</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>-297244632900</v>
       </c>
+      <c r="Q49">
+        <v>713797193300</v>
+      </c>
+      <c r="R49">
+        <v>1011041826200</v>
+      </c>
+      <c r="S49">
+        <v>42229900</v>
+      </c>
+      <c r="T49">
+        <v>66876800</v>
+      </c>
+      <c r="U49">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V49">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W49">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X49">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y49">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z49">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA49">
+        <v>199834.8</v>
+      </c>
+      <c r="AB49">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC49">
+        <v>14</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>-341166958600</v>
       </c>
+      <c r="Q50">
+        <v>723096982800</v>
+      </c>
+      <c r="R50">
+        <v>1064263941400</v>
+      </c>
+      <c r="S50">
+        <v>42798000</v>
+      </c>
+      <c r="T50">
+        <v>70953700</v>
+      </c>
+      <c r="U50">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V50">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W50">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X50">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y50">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z50">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA50">
+        <v>199834.8</v>
+      </c>
+      <c r="AB50">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC50">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>-384014826200</v>
       </c>
+      <c r="Q51">
+        <v>732524834400</v>
+      </c>
+      <c r="R51">
+        <v>1116539660600</v>
+      </c>
+      <c r="S51">
+        <v>43369700</v>
+      </c>
+      <c r="T51">
+        <v>74212700</v>
+      </c>
+      <c r="U51">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V51">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W51">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X51">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y51">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z51">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA51">
+        <v>199834.8</v>
+      </c>
+      <c r="AB51">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC51">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>-391780405700</v>
       </c>
+      <c r="Q52">
+        <v>756139544900</v>
+      </c>
+      <c r="R52">
+        <v>1147919950600</v>
+      </c>
+      <c r="S52">
+        <v>45098800</v>
+      </c>
+      <c r="T52">
+        <v>76056600</v>
+      </c>
+      <c r="U52">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V52">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W52">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X52">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y52">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z52">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA52">
+        <v>199834.8</v>
+      </c>
+      <c r="AB52">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC52">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>-406231997000</v>
       </c>
+      <c r="Q53">
+        <v>780648809000</v>
+      </c>
+      <c r="R53">
+        <v>1186880806000</v>
+      </c>
+      <c r="S53">
+        <v>46618900</v>
+      </c>
+      <c r="T53">
+        <v>78544600</v>
+      </c>
+      <c r="U53">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V53">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W53">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X53">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y53">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z53">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA53">
+        <v>199834.8</v>
+      </c>
+      <c r="AB53">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC53">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>-392472582900</v>
       </c>
+      <c r="Q54">
+        <v>807253491000</v>
+      </c>
+      <c r="R54">
+        <v>1199726073900</v>
+      </c>
+      <c r="S54">
+        <v>48211900</v>
+      </c>
+      <c r="T54">
+        <v>79414900</v>
+      </c>
+      <c r="U54">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V54">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W54">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X54">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y54">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z54">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA54">
+        <v>199834.8</v>
+      </c>
+      <c r="AB54">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC54">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>-376559829100</v>
       </c>
+      <c r="Q55">
+        <v>839615125000</v>
+      </c>
+      <c r="R55">
+        <v>1216174954100</v>
+      </c>
+      <c r="S55">
+        <v>50405500</v>
+      </c>
+      <c r="T55">
+        <v>80292800</v>
+      </c>
+      <c r="U55">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V55">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W55">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X55">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y55">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z55">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA55">
+        <v>199834.8</v>
+      </c>
+      <c r="AB55">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>-352262172000</v>
       </c>
+      <c r="Q56">
+        <v>876314915500</v>
+      </c>
+      <c r="R56">
+        <v>1228577087500</v>
+      </c>
+      <c r="S56">
+        <v>52834400</v>
+      </c>
+      <c r="T56">
+        <v>81021600</v>
+      </c>
+      <c r="U56">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V56">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W56">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X56">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y56">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z56">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA56">
+        <v>199834.8</v>
+      </c>
+      <c r="AB56">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC56">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>-331359290400</v>
       </c>
+      <c r="Q57">
+        <v>909259003000</v>
+      </c>
+      <c r="R57">
+        <v>1240618293400</v>
+      </c>
+      <c r="S57">
+        <v>55064900</v>
+      </c>
+      <c r="T57">
+        <v>81753600</v>
+      </c>
+      <c r="U57">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V57">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W57">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X57">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y57">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z57">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA57">
+        <v>199834.8</v>
+      </c>
+      <c r="AB57">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC57">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>-323793663000</v>
       </c>
+      <c r="Q58">
+        <v>928080669500</v>
+      </c>
+      <c r="R58">
+        <v>1251874332500</v>
+      </c>
+      <c r="S58">
+        <v>56440600</v>
+      </c>
+      <c r="T58">
+        <v>82451300</v>
+      </c>
+      <c r="U58">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V58">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W58">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X58">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y58">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z58">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA58">
+        <v>199834.8</v>
+      </c>
+      <c r="AB58">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC58">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>-310622755000</v>
       </c>
+      <c r="Q59">
+        <v>950948199700</v>
+      </c>
+      <c r="R59">
+        <v>1261570954700</v>
+      </c>
+      <c r="S59">
+        <v>58058600</v>
+      </c>
+      <c r="T59">
+        <v>83074700</v>
+      </c>
+      <c r="U59">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V59">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W59">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X59">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y59">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z59">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA59">
+        <v>199834.8</v>
+      </c>
+      <c r="AB59">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC59">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>-292760628900</v>
       </c>
+      <c r="Q60">
+        <v>984717895800</v>
+      </c>
+      <c r="R60">
+        <v>1277478524700</v>
+      </c>
+      <c r="S60">
+        <v>60354900</v>
+      </c>
+      <c r="T60">
+        <v>84166200</v>
+      </c>
+      <c r="U60">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V60">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W60">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X60">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y60">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z60">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA60">
+        <v>199834.8</v>
+      </c>
+      <c r="AB60">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC60">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>-247461109400</v>
       </c>
+      <c r="Q61">
+        <v>1049512213800</v>
+      </c>
+      <c r="R61">
+        <v>1296973323200</v>
+      </c>
+      <c r="S61">
+        <v>65286600</v>
+      </c>
+      <c r="T61">
+        <v>85363700</v>
+      </c>
+      <c r="U61">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V61">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W61">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X61">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y61">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z61">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA61">
+        <v>199834.8</v>
+      </c>
+      <c r="AB61">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC61">
+        <v>14.2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>-188215185300</v>
       </c>
+      <c r="Q62">
+        <v>1131183262800</v>
+      </c>
+      <c r="R62">
+        <v>1319398448100</v>
+      </c>
+      <c r="S62">
+        <v>70506700</v>
+      </c>
+      <c r="T62">
+        <v>86810900</v>
+      </c>
+      <c r="U62">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V62">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W62">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X62">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y62">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z62">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA62">
+        <v>199834.8</v>
+      </c>
+      <c r="AB62">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC62">
+        <v>18.6</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>-132252951200</v>
       </c>
+      <c r="Q63">
+        <v>1202881513700</v>
+      </c>
+      <c r="R63">
+        <v>1335134464900</v>
+      </c>
+      <c r="S63">
+        <v>75286500</v>
+      </c>
+      <c r="T63">
+        <v>87728900</v>
+      </c>
+      <c r="U63">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V63">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W63">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X63">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y63">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z63">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA63">
+        <v>199834.8</v>
+      </c>
+      <c r="AB63">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC63">
+        <v>17.6</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>-127515407600</v>
       </c>
+      <c r="Q64">
+        <v>1233401278300</v>
+      </c>
+      <c r="R64">
+        <v>1360916685900</v>
+      </c>
+      <c r="S64">
+        <v>77337800</v>
+      </c>
+      <c r="T64">
+        <v>89208200</v>
+      </c>
+      <c r="U64">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V64">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W64">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X64">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y64">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z64">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA64">
+        <v>199834.8</v>
+      </c>
+      <c r="AB64">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC64">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>-132560506000</v>
       </c>
+      <c r="Q65">
+        <v>1249898312600</v>
+      </c>
+      <c r="R65">
+        <v>1382458818600</v>
+      </c>
+      <c r="S65">
+        <v>78379500</v>
+      </c>
+      <c r="T65">
+        <v>90557400</v>
+      </c>
+      <c r="U65">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V65">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W65">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X65">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y65">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z65">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA65">
+        <v>199834.8</v>
+      </c>
+      <c r="AB65">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC65">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>-138063106600</v>
       </c>
+      <c r="Q66">
+        <v>1265813766200</v>
+      </c>
+      <c r="R66">
+        <v>1403876872800</v>
+      </c>
+      <c r="S66">
+        <v>79210000</v>
+      </c>
+      <c r="T66">
+        <v>92761100</v>
+      </c>
+      <c r="U66">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V66">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W66">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X66">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y66">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z66">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA66">
+        <v>199834.8</v>
+      </c>
+      <c r="AB66">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC66">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>-139802956100</v>
       </c>
+      <c r="Q67">
+        <v>1279121873200</v>
+      </c>
+      <c r="R67">
+        <v>1418924829300</v>
+      </c>
+      <c r="S67">
+        <v>79955700</v>
+      </c>
+      <c r="T67">
+        <v>93781700</v>
+      </c>
+      <c r="U67">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V67">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W67">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X67">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y67">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z67">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA67">
+        <v>199834.8</v>
+      </c>
+      <c r="AB67">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC67">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>-146977153800</v>
       </c>
+      <c r="Q68">
+        <v>1288112890000</v>
+      </c>
+      <c r="R68">
+        <v>1435090043800</v>
+      </c>
+      <c r="S68">
+        <v>80484500</v>
+      </c>
+      <c r="T68">
+        <v>94769100</v>
+      </c>
+      <c r="U68">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V68">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W68">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X68">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y68">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z68">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA68">
+        <v>199834.8</v>
+      </c>
+      <c r="AB68">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC68">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>-160378454800</v>
       </c>
+      <c r="Q69">
+        <v>1299178278100</v>
+      </c>
+      <c r="R69">
+        <v>1459556732900</v>
+      </c>
+      <c r="S69">
+        <v>81131400</v>
+      </c>
+      <c r="T69">
+        <v>96179100</v>
+      </c>
+      <c r="U69">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V69">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W69">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X69">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y69">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z69">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA69">
+        <v>199834.8</v>
+      </c>
+      <c r="AB69">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC69">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>-160383878800</v>
       </c>
+      <c r="Q70">
+        <v>1299178278100</v>
+      </c>
+      <c r="R70">
+        <v>1459562156900</v>
+      </c>
+      <c r="S70">
+        <v>81131400</v>
+      </c>
+      <c r="T70">
+        <v>96179700</v>
+      </c>
+      <c r="U70">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V70">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W70">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X70">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y70">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z70">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA70">
+        <v>199834.8</v>
+      </c>
+      <c r="AB70">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>-180683835300</v>
       </c>
+      <c r="Q71">
+        <v>1334359740300</v>
+      </c>
+      <c r="R71">
+        <v>1515043575600</v>
+      </c>
+      <c r="S71">
+        <v>83576000</v>
+      </c>
+      <c r="T71">
+        <v>99915400</v>
+      </c>
+      <c r="U71">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V71">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W71">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X71">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y71">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z71">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA71">
+        <v>199834.8</v>
+      </c>
+      <c r="AB71">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC71">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>-191948397900</v>
       </c>
+      <c r="Q72">
+        <v>1350663675400</v>
+      </c>
+      <c r="R72">
+        <v>1542612073300</v>
+      </c>
+      <c r="S72">
+        <v>84503000</v>
+      </c>
+      <c r="T72">
+        <v>101642200</v>
+      </c>
+      <c r="U72">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V72">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W72">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X72">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y72">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z72">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA72">
+        <v>199834.8</v>
+      </c>
+      <c r="AB72">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC72">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>-198999684300</v>
       </c>
+      <c r="Q73">
+        <v>1366365764000</v>
+      </c>
+      <c r="R73">
+        <v>1565365448300</v>
+      </c>
+      <c r="S73">
+        <v>85603400</v>
+      </c>
+      <c r="T73">
+        <v>103157700</v>
+      </c>
+      <c r="U73">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V73">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W73">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X73">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y73">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z73">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA73">
+        <v>199834.8</v>
+      </c>
+      <c r="AB73">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC73">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>-174230248700</v>
       </c>
+      <c r="Q74">
+        <v>1410909075000</v>
+      </c>
+      <c r="R74">
+        <v>1585139323700</v>
+      </c>
+      <c r="S74">
+        <v>88210800</v>
+      </c>
+      <c r="T74">
+        <v>104372500</v>
+      </c>
+      <c r="U74">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V74">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W74">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X74">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y74">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z74">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA74">
+        <v>199834.8</v>
+      </c>
+      <c r="AB74">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC74">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>-142735222100</v>
       </c>
+      <c r="Q75">
+        <v>1455185661200</v>
+      </c>
+      <c r="R75">
+        <v>1597920883300</v>
+      </c>
+      <c r="S75">
+        <v>91545600</v>
+      </c>
+      <c r="T75">
+        <v>105320900</v>
+      </c>
+      <c r="U75">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V75">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W75">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X75">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y75">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z75">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA75">
+        <v>199834.8</v>
+      </c>
+      <c r="AB75">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC75">
+        <v>9.9</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>-112772370600</v>
       </c>
+      <c r="Q76">
+        <v>1500291757800</v>
+      </c>
+      <c r="R76">
+        <v>1613064128400</v>
+      </c>
+      <c r="S76">
+        <v>94547800</v>
+      </c>
+      <c r="T76">
+        <v>106282100</v>
+      </c>
+      <c r="U76">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V76">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W76">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X76">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y76">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z76">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA76">
+        <v>199834.8</v>
+      </c>
+      <c r="AB76">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC76">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>-93627219900</v>
       </c>
+      <c r="Q77">
+        <v>1541020367600</v>
+      </c>
+      <c r="R77">
+        <v>1634647587500</v>
+      </c>
+      <c r="S77">
+        <v>97258600</v>
+      </c>
+      <c r="T77">
+        <v>107656900</v>
+      </c>
+      <c r="U77">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V77">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W77">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X77">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y77">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z77">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA77">
+        <v>199834.8</v>
+      </c>
+      <c r="AB77">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC77">
+        <v>6</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>-70568872100</v>
       </c>
+      <c r="Q78">
+        <v>1582910745000</v>
+      </c>
+      <c r="R78">
+        <v>1653479617100</v>
+      </c>
+      <c r="S78">
+        <v>99690900</v>
+      </c>
+      <c r="T78">
+        <v>109034400</v>
+      </c>
+      <c r="U78">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V78">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W78">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X78">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y78">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z78">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA78">
+        <v>199834.8</v>
+      </c>
+      <c r="AB78">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC78">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>-37545952800</v>
       </c>
+      <c r="Q79">
+        <v>1639501023200</v>
+      </c>
+      <c r="R79">
+        <v>1677046976000</v>
+      </c>
+      <c r="S79">
+        <v>103450300</v>
+      </c>
+      <c r="T79">
+        <v>110639200</v>
+      </c>
+      <c r="U79">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V79">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W79">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X79">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y79">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z79">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA79">
+        <v>199834.8</v>
+      </c>
+      <c r="AB79">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC79">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>18232544700</v>
       </c>
+      <c r="Q80">
+        <v>1717366272700</v>
+      </c>
+      <c r="R80">
+        <v>1699133728000</v>
+      </c>
+      <c r="S80">
+        <v>109458300</v>
+      </c>
+      <c r="T80">
+        <v>112028100</v>
+      </c>
+      <c r="U80">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V80">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W80">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X80">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y80">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z80">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA80">
+        <v>199834.8</v>
+      </c>
+      <c r="AB80">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC80">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>72549451600</v>
       </c>
+      <c r="Q81">
+        <v>1806347955100</v>
+      </c>
+      <c r="R81">
+        <v>1733798503500</v>
+      </c>
+      <c r="S81">
+        <v>115930900</v>
+      </c>
+      <c r="T81">
+        <v>113889200</v>
+      </c>
+      <c r="U81">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V81">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W81">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X81">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y81">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z81">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA81">
+        <v>199834.8</v>
+      </c>
+      <c r="AB81">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC81">
+        <v>17.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>75644150700</v>
       </c>
+      <c r="Q82">
+        <v>1857986928000</v>
+      </c>
+      <c r="R82">
+        <v>1782342777300</v>
+      </c>
+      <c r="S82">
+        <v>119691900</v>
+      </c>
+      <c r="T82">
+        <v>116986700</v>
+      </c>
+      <c r="U82">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V82">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W82">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X82">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y82">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z82">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA82">
+        <v>199834.8</v>
+      </c>
+      <c r="AB82">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC82">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>65949191900</v>
       </c>
+      <c r="Q83">
+        <v>1886195293600</v>
+      </c>
+      <c r="R83">
+        <v>1820246101700</v>
+      </c>
+      <c r="S83">
+        <v>121367500</v>
+      </c>
+      <c r="T83">
+        <v>119397700</v>
+      </c>
+      <c r="U83">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V83">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W83">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X83">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y83">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z83">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA83">
+        <v>199834.8</v>
+      </c>
+      <c r="AB83">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC83">
+        <v>3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>63433032700</v>
       </c>
+      <c r="Q84">
+        <v>1904265304700</v>
+      </c>
+      <c r="R84">
+        <v>1840832272000</v>
+      </c>
+      <c r="S84">
+        <v>122492600</v>
+      </c>
+      <c r="T84">
+        <v>120613200</v>
+      </c>
+      <c r="U84">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V84">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W84">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X84">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y84">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z84">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA84">
+        <v>199834.8</v>
+      </c>
+      <c r="AB84">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC84">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>58122364800</v>
       </c>
+      <c r="Q85">
+        <v>1925285187100</v>
+      </c>
+      <c r="R85">
+        <v>1867162822300</v>
+      </c>
+      <c r="S85">
+        <v>123824800</v>
+      </c>
+      <c r="T85">
+        <v>122228600</v>
+      </c>
+      <c r="U85">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V85">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W85">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X85">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y85">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z85">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA85">
+        <v>199834.8</v>
+      </c>
+      <c r="AB85">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC85">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>45691144800</v>
       </c>
+      <c r="Q86">
+        <v>1938438141400</v>
+      </c>
+      <c r="R86">
+        <v>1892746996600</v>
+      </c>
+      <c r="S86">
+        <v>124613200</v>
+      </c>
+      <c r="T86">
+        <v>123852500</v>
+      </c>
+      <c r="U86">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V86">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W86">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X86">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y86">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z86">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA86">
+        <v>199834.8</v>
+      </c>
+      <c r="AB86">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC86">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>44486761700</v>
       </c>
+      <c r="Q87">
+        <v>1960340118300</v>
+      </c>
+      <c r="R87">
+        <v>1915853356600</v>
+      </c>
+      <c r="S87">
+        <v>126260000</v>
+      </c>
+      <c r="T87">
+        <v>125386600</v>
+      </c>
+      <c r="U87">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V87">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W87">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X87">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y87">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z87">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA87">
+        <v>199834.8</v>
+      </c>
+      <c r="AB87">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC87">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>86118590400</v>
       </c>
+      <c r="Q88">
+        <v>2018587221100</v>
+      </c>
+      <c r="R88">
+        <v>1932468630700</v>
+      </c>
+      <c r="S88">
+        <v>129461800</v>
+      </c>
+      <c r="T88">
+        <v>126403400</v>
+      </c>
+      <c r="U88">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V88">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W88">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X88">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y88">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z88">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA88">
+        <v>199834.8</v>
+      </c>
+      <c r="AB88">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC88">
+        <v>13.1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>126295134600</v>
       </c>
+      <c r="Q89">
+        <v>2075233753500</v>
+      </c>
+      <c r="R89">
+        <v>1948938618900</v>
+      </c>
+      <c r="S89">
+        <v>133410300</v>
+      </c>
+      <c r="T89">
+        <v>127272100</v>
+      </c>
+      <c r="U89">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V89">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W89">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X89">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y89">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z89">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA89">
+        <v>199834.8</v>
+      </c>
+      <c r="AB89">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC89">
+        <v>12.6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>181928531400</v>
       </c>
+      <c r="Q90">
+        <v>2142211466700</v>
+      </c>
+      <c r="R90">
+        <v>1960282935300</v>
+      </c>
+      <c r="S90">
+        <v>138768500</v>
+      </c>
+      <c r="T90">
+        <v>128048500</v>
+      </c>
+      <c r="U90">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V90">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W90">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X90">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y90">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z90">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA90">
+        <v>199834.8</v>
+      </c>
+      <c r="AB90">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC90">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>252756410100</v>
       </c>
+      <c r="Q91">
+        <v>2240729873100</v>
+      </c>
+      <c r="R91">
+        <v>1987973463000</v>
+      </c>
+      <c r="S91">
+        <v>145288200</v>
+      </c>
+      <c r="T91">
+        <v>129448600</v>
+      </c>
+      <c r="U91">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V91">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W91">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X91">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y91">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z91">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA91">
+        <v>199834.8</v>
+      </c>
+      <c r="AB91">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC91">
+        <v>22.3</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>258397627600</v>
       </c>
+      <c r="Q92">
+        <v>2277496284300</v>
+      </c>
+      <c r="R92">
+        <v>2019098656700</v>
+      </c>
+      <c r="S92">
+        <v>147601900</v>
+      </c>
+      <c r="T92">
+        <v>131371700</v>
+      </c>
+      <c r="U92">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V92">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W92">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X92">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y92">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z92">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA92">
+        <v>199834.8</v>
+      </c>
+      <c r="AB92">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC92">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>281256272400</v>
       </c>
+      <c r="Q93">
+        <v>2321702300100</v>
+      </c>
+      <c r="R93">
+        <v>2040446027700</v>
+      </c>
+      <c r="S93">
+        <v>149825500</v>
+      </c>
+      <c r="T93">
+        <v>132620200</v>
+      </c>
+      <c r="U93">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V93">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W93">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X93">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y93">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z93">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA93">
+        <v>199834.8</v>
+      </c>
+      <c r="AB93">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC93">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>339983495200</v>
       </c>
+      <c r="Q94">
+        <v>2405688167100</v>
+      </c>
+      <c r="R94">
+        <v>2065704671900</v>
+      </c>
+      <c r="S94">
+        <v>154313300</v>
+      </c>
+      <c r="T94">
+        <v>133888300</v>
+      </c>
+      <c r="U94">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V94">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W94">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X94">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y94">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z94">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA94">
+        <v>199834.8</v>
+      </c>
+      <c r="AB94">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC94">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>385835751600</v>
       </c>
+      <c r="Q95">
+        <v>2480469620100</v>
+      </c>
+      <c r="R95">
+        <v>2094633868500</v>
+      </c>
+      <c r="S95">
+        <v>159173800</v>
+      </c>
+      <c r="T95">
+        <v>135795800</v>
+      </c>
+      <c r="U95">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V95">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W95">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X95">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y95">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z95">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA95">
+        <v>199834.8</v>
+      </c>
+      <c r="AB95">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC95">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>425669867300</v>
       </c>
+      <c r="Q96">
+        <v>2549264270800</v>
+      </c>
+      <c r="R96">
+        <v>2123594403500</v>
+      </c>
+      <c r="S96">
+        <v>164750700</v>
+      </c>
+      <c r="T96">
+        <v>137557300</v>
+      </c>
+      <c r="U96">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V96">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W96">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X96">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y96">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z96">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA96">
+        <v>199834.8</v>
+      </c>
+      <c r="AB96">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC96">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>434217388000</v>
       </c>
+      <c r="Q97">
+        <v>2600149017600</v>
+      </c>
+      <c r="R97">
+        <v>2165931629600</v>
+      </c>
+      <c r="S97">
+        <v>167844400</v>
+      </c>
+      <c r="T97">
+        <v>140142500</v>
+      </c>
+      <c r="U97">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V97">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W97">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X97">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y97">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z97">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA97">
+        <v>199834.8</v>
+      </c>
+      <c r="AB97">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC97">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>396407384900</v>
       </c>
+      <c r="Q98">
+        <v>2615320629900</v>
+      </c>
+      <c r="R98">
+        <v>2218913245000</v>
+      </c>
+      <c r="S98">
+        <v>169065400</v>
+      </c>
+      <c r="T98">
+        <v>143650000</v>
+      </c>
+      <c r="U98">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V98">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W98">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X98">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y98">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z98">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA98">
+        <v>199834.8</v>
+      </c>
+      <c r="AB98">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC98">
+        <v>11.9</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>350407510400</v>
       </c>
+      <c r="Q99">
+        <v>2634535529400</v>
+      </c>
+      <c r="R99">
+        <v>2284128019000</v>
+      </c>
+      <c r="S99">
+        <v>170332300</v>
+      </c>
+      <c r="T99">
+        <v>148079900</v>
+      </c>
+      <c r="U99">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V99">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W99">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X99">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y99">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z99">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA99">
+        <v>199834.8</v>
+      </c>
+      <c r="AB99">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC99">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>356644066700</v>
       </c>
+      <c r="Q100">
+        <v>2666527296400</v>
+      </c>
+      <c r="R100">
+        <v>2309883229700</v>
+      </c>
+      <c r="S100">
+        <v>172346800</v>
+      </c>
+      <c r="T100">
+        <v>149728100</v>
+      </c>
+      <c r="U100">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V100">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W100">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X100">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y100">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z100">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA100">
+        <v>199834.8</v>
+      </c>
+      <c r="AB100">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>366613770900</v>
       </c>
+      <c r="Q101">
+        <v>2694804338100</v>
+      </c>
+      <c r="R101">
+        <v>2328190567200</v>
+      </c>
+      <c r="S101">
+        <v>174112400</v>
+      </c>
+      <c r="T101">
+        <v>150883900</v>
+      </c>
+      <c r="U101">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V101">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W101">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X101">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y101">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z101">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA101">
+        <v>199834.8</v>
+      </c>
+      <c r="AB101">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC101">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>336698905100</v>
       </c>
+      <c r="Q102">
+        <v>2710899411500</v>
+      </c>
+      <c r="R102">
+        <v>2374200506400</v>
+      </c>
+      <c r="S102">
+        <v>175169400</v>
+      </c>
+      <c r="T102">
+        <v>153857900</v>
+      </c>
+      <c r="U102">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V102">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W102">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X102">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y102">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z102">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA102">
+        <v>199834.8</v>
+      </c>
+      <c r="AB102">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC102">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>312460125700</v>
       </c>
+      <c r="Q103">
+        <v>2729550861400</v>
+      </c>
+      <c r="R103">
+        <v>2417090735700</v>
+      </c>
+      <c r="S103">
+        <v>176300600</v>
+      </c>
+      <c r="T103">
+        <v>156253600</v>
+      </c>
+      <c r="U103">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V103">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W103">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X103">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y103">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z103">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA103">
+        <v>199834.8</v>
+      </c>
+      <c r="AB103">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC103">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>274791363800</v>
       </c>
+      <c r="Q104">
+        <v>2742039731900</v>
+      </c>
+      <c r="R104">
+        <v>2467248368100</v>
+      </c>
+      <c r="S104">
+        <v>177075100</v>
+      </c>
+      <c r="T104">
+        <v>159232900</v>
+      </c>
+      <c r="U104">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V104">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W104">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X104">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y104">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z104">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA104">
+        <v>199834.8</v>
+      </c>
+      <c r="AB104">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC104">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>268149909400</v>
       </c>
+      <c r="Q105">
+        <v>2765218741600</v>
+      </c>
+      <c r="R105">
+        <v>2497068832200</v>
+      </c>
+      <c r="S105">
+        <v>178580900</v>
+      </c>
+      <c r="T105">
+        <v>161138800</v>
+      </c>
+      <c r="U105">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V105">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W105">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X105">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y105">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z105">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA105">
+        <v>199834.8</v>
+      </c>
+      <c r="AB105">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC105">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>281067551900</v>
       </c>
+      <c r="Q106">
+        <v>2796569578800</v>
+      </c>
+      <c r="R106">
+        <v>2515502026900</v>
+      </c>
+      <c r="S106">
+        <v>180406200</v>
+      </c>
+      <c r="T106">
+        <v>162065200</v>
+      </c>
+      <c r="U106">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V106">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W106">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X106">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y106">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z106">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA106">
+        <v>199834.8</v>
+      </c>
+      <c r="AB106">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC106">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>308872386500</v>
       </c>
+      <c r="Q107">
+        <v>2843078835000</v>
+      </c>
+      <c r="R107">
+        <v>2534206448500</v>
+      </c>
+      <c r="S107">
+        <v>182961500</v>
+      </c>
+      <c r="T107">
+        <v>163204300</v>
+      </c>
+      <c r="U107">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V107">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W107">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X107">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y107">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z107">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA107">
+        <v>199834.8</v>
+      </c>
+      <c r="AB107">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC107">
+        <v>8.7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>344857122700</v>
       </c>
+      <c r="Q108">
+        <v>2899313733500</v>
+      </c>
+      <c r="R108">
+        <v>2554456610800</v>
+      </c>
+      <c r="S108">
+        <v>186936400</v>
+      </c>
+      <c r="T108">
+        <v>164260200</v>
+      </c>
+      <c r="U108">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V108">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W108">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X108">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y108">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z108">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA108">
+        <v>199834.8</v>
+      </c>
+      <c r="AB108">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC108">
+        <v>11.3</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>424246610100</v>
       </c>
+      <c r="Q109">
+        <v>2998377582000</v>
+      </c>
+      <c r="R109">
+        <v>2574130971900</v>
+      </c>
+      <c r="S109">
+        <v>192772500</v>
+      </c>
+      <c r="T109">
+        <v>165363900</v>
+      </c>
+      <c r="U109">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V109">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W109">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X109">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y109">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z109">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA109">
+        <v>199834.8</v>
+      </c>
+      <c r="AB109">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC109">
+        <v>25</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>425620117600</v>
       </c>
+      <c r="Q110">
+        <v>3028923359400</v>
+      </c>
+      <c r="R110">
+        <v>2603303241800</v>
+      </c>
+      <c r="S110">
+        <v>194618100</v>
+      </c>
+      <c r="T110">
+        <v>167188300</v>
+      </c>
+      <c r="U110">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V110">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W110">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X110">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y110">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z110">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA110">
+        <v>199834.8</v>
+      </c>
+      <c r="AB110">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC110">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>415318972100</v>
       </c>
+      <c r="Q111">
+        <v>3049154641100</v>
+      </c>
+      <c r="R111">
+        <v>2633835669000</v>
+      </c>
+      <c r="S111">
+        <v>195822700</v>
+      </c>
+      <c r="T111">
+        <v>169240500</v>
+      </c>
+      <c r="U111">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V111">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W111">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X111">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y111">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z111">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA111">
+        <v>199834.8</v>
+      </c>
+      <c r="AB111">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC111">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>390097329700</v>
       </c>
+      <c r="Q112">
+        <v>3066784028300</v>
+      </c>
+      <c r="R112">
+        <v>2676686698600</v>
+      </c>
+      <c r="S112">
+        <v>196842200</v>
+      </c>
+      <c r="T112">
+        <v>171645900</v>
+      </c>
+      <c r="U112">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V112">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W112">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X112">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y112">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z112">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA112">
+        <v>199834.8</v>
+      </c>
+      <c r="AB112">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC112">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>371546150200</v>
       </c>
+      <c r="Q113">
+        <v>3090000957700</v>
+      </c>
+      <c r="R113">
+        <v>2718454807500</v>
+      </c>
+      <c r="S113">
+        <v>197987300</v>
+      </c>
+      <c r="T113">
+        <v>174129100</v>
+      </c>
+      <c r="U113">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V113">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W113">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X113">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y113">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z113">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA113">
+        <v>199834.8</v>
+      </c>
+      <c r="AB113">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC113">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>372072248900</v>
       </c>
+      <c r="Q114">
+        <v>3113889917800</v>
+      </c>
+      <c r="R114">
+        <v>2741817668900</v>
+      </c>
+      <c r="S114">
+        <v>199398500</v>
+      </c>
+      <c r="T114">
+        <v>175557900</v>
+      </c>
+      <c r="U114">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V114">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W114">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X114">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y114">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z114">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA114">
+        <v>199834.8</v>
+      </c>
+      <c r="AB114">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC114">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>357122008200</v>
       </c>
+      <c r="Q115">
+        <v>3135409135900</v>
+      </c>
+      <c r="R115">
+        <v>2778287127700</v>
+      </c>
+      <c r="S115">
+        <v>200889700</v>
+      </c>
+      <c r="T115">
+        <v>177911100</v>
+      </c>
+      <c r="U115">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V115">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W115">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X115">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y115">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z115">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA115">
+        <v>199834.8</v>
+      </c>
+      <c r="AB115">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC115">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,10 +10686,49 @@
       <c r="P116">
         <v>365739900100</v>
       </c>
+      <c r="Q116">
+        <v>3164914956100</v>
+      </c>
+      <c r="R116">
+        <v>2799175056000</v>
+      </c>
+      <c r="S116">
+        <v>202062000</v>
+      </c>
+      <c r="T116">
+        <v>179081000</v>
+      </c>
+      <c r="U116">
+        <v>27520999618.3</v>
+      </c>
+      <c r="V116">
+        <v>24340652660.9</v>
+      </c>
+      <c r="W116">
+        <v>54846154062.6</v>
+      </c>
+      <c r="X116">
+        <v>3484966.1</v>
+      </c>
+      <c r="Y116">
+        <v>1757060.9</v>
+      </c>
+      <c r="Z116">
+        <v>1557226.1</v>
+      </c>
+      <c r="AA116">
+        <v>199834.8</v>
+      </c>
+      <c r="AB116">
+        <v>3180346957.4</v>
+      </c>
+      <c r="AC116">
+        <v>2.7</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P116"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC116"/>
   </ignoredErrors>
 </worksheet>
 </file>